--- a/svr-dimension-reduce.xlsx
+++ b/svr-dimension-reduce.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,54 +454,69 @@
         <v>0.201981</v>
       </c>
       <c r="E1" t="n">
-        <v>0.07827000000000001</v>
+        <v>0.129816</v>
       </c>
       <c r="F1" t="n">
-        <v>0.052496</v>
+        <v>0.173953</v>
       </c>
       <c r="G1" t="n">
+        <v>0.151079</v>
+      </c>
+      <c r="H1" t="n">
         <v>0.141092</v>
       </c>
-      <c r="H1" t="n">
+      <c r="I1" t="n">
+        <v>0.003326499</v>
+      </c>
+      <c r="J1" t="n">
         <v>0.002522395</v>
       </c>
-      <c r="I1" t="n">
-        <v>270.7666116</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="K1" t="n">
+        <v>0.001244426</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.000141533</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0.000351207</v>
+      </c>
+      <c r="N1" t="n">
+        <v>0.000137338</v>
+      </c>
+      <c r="O1" t="n">
+        <v>6.499999999999999e-05</v>
+      </c>
+      <c r="P1" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="Q1" t="n">
         <v>202.1558832</v>
       </c>
-      <c r="K1" t="n">
+      <c r="R1" t="n">
+        <v>106.6881109</v>
+      </c>
+      <c r="S1" t="n">
         <v>44.4795506</v>
       </c>
-      <c r="L1" t="n">
-        <v>18.4740192</v>
-      </c>
-      <c r="M1" t="n">
-        <v>40.7071557</v>
-      </c>
-      <c r="N1" t="n">
-        <v>10.2377857</v>
-      </c>
-      <c r="O1" t="n">
-        <v>43.9048286</v>
-      </c>
-      <c r="P1" t="n">
+      <c r="T1" t="n">
         <v>0.5489540000000001</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="U1" t="n">
         <v>0.403013</v>
       </c>
-      <c r="R1" t="n">
+      <c r="V1" t="n">
+        <v>0.098244</v>
+      </c>
+      <c r="W1" t="n">
         <v>0.071826</v>
       </c>
-      <c r="S1" t="n">
-        <v>0.019635</v>
-      </c>
-      <c r="T1" t="n">
+      <c r="X1" t="n">
         <v>0.13626</v>
       </c>
-      <c r="U1" t="n">
+      <c r="Y1" t="n">
+        <v>0.133682</v>
+      </c>
+      <c r="Z1" t="n">
         <v>20.51</v>
       </c>
     </row>
@@ -519,54 +534,69 @@
         <v>0.708749</v>
       </c>
       <c r="E2" t="n">
-        <v>0.24483</v>
+        <v>0.394315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.272536</v>
+        <v>0.814742</v>
       </c>
       <c r="G2" t="n">
+        <v>0.453593</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.35501</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>0.006012441</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.005571074</v>
       </c>
-      <c r="I2" t="n">
-        <v>556.1054986</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>0.003478516</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.000659427</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001810547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.000676202</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.000766365</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.000505317</v>
+      </c>
+      <c r="Q2" t="n">
         <v>482.857305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
+        <v>302.3545556</v>
+      </c>
+      <c r="S2" t="n">
         <v>162.9423585</v>
       </c>
-      <c r="L2" t="n">
-        <v>55.123183</v>
-      </c>
-      <c r="M2" t="n">
-        <v>199.465024</v>
-      </c>
-      <c r="N2" t="n">
-        <v>64.0397179</v>
-      </c>
-      <c r="O2" t="n">
-        <v>115.1549931</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>1.20424</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>0.975502</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
+        <v>0.312807</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.18394</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.130783</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>0.291221</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
+        <v>0.245796</v>
+      </c>
+      <c r="Z2" t="n">
         <v>27.62</v>
       </c>
     </row>
@@ -584,54 +614,69 @@
         <v>1.346634</v>
       </c>
       <c r="E3" t="n">
-        <v>1.111453</v>
+        <v>1.192639</v>
       </c>
       <c r="F3" t="n">
-        <v>1.06345</v>
+        <v>1.194894</v>
       </c>
       <c r="G3" t="n">
+        <v>1.168798</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.155912</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I3" t="n">
-        <v>671.3068155</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q3" t="n">
         <v>622.0526049</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>467.3286275</v>
+      </c>
+      <c r="S3" t="n">
         <v>389.6776396</v>
       </c>
-      <c r="L3" t="n">
-        <v>334.7170485</v>
-      </c>
-      <c r="M3" t="n">
-        <v>354.4049193</v>
-      </c>
-      <c r="N3" t="n">
-        <v>320.9783204</v>
-      </c>
-      <c r="O3" t="n">
-        <v>355.8430995</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>1.848569</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="U3" t="n">
         <v>1.711004</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
+        <v>1.185873</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.110808</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.027045</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>1.150435</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
+        <v>1.143992</v>
+      </c>
+      <c r="Z3" t="n">
         <v>33.5</v>
       </c>
     </row>
@@ -649,54 +694,69 @@
         <v>0.413645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.127883</v>
+        <v>0.226466</v>
       </c>
       <c r="F4" t="n">
-        <v>0.079558</v>
+        <v>0.235809</v>
       </c>
       <c r="G4" t="n">
+        <v>0.184262</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.167832</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>0.00486971</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.004167296</v>
       </c>
-      <c r="I4" t="n">
-        <v>440.2243267</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>0.002126108</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000274676</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00051685</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.000206531</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.000119515</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.35e-05</v>
+      </c>
+      <c r="Q4" t="n">
         <v>364.2950573</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>187.3751267</v>
+      </c>
+      <c r="S4" t="n">
         <v>93.96712460000001</v>
       </c>
-      <c r="L4" t="n">
-        <v>29.8009202</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54.1888383</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16.2563253</v>
-      </c>
-      <c r="O4" t="n">
-        <v>51.4941689</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>0.968093</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
         <v>0.767061</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
+        <v>0.196505</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.116285</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.029622</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>0.153334</v>
       </c>
-      <c r="U4" t="n">
+      <c r="Y4" t="n">
+        <v>0.147535</v>
+      </c>
+      <c r="Z4" t="n">
         <v>20.23</v>
       </c>
     </row>
@@ -714,54 +774,69 @@
         <v>0.582072</v>
       </c>
       <c r="E5" t="n">
-        <v>0.323051</v>
+        <v>0.415835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.281169</v>
+        <v>0.444507</v>
       </c>
       <c r="G5" t="n">
+        <v>0.380396</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.362999</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>0.004396892</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.00377206</v>
       </c>
-      <c r="I5" t="n">
-        <v>510.9739491</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>0.001947885</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.000248464</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000494836</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.000194998</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.000115324</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.08e-05</v>
+      </c>
+      <c r="Q5" t="n">
         <v>436.1568276</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>255.4084341</v>
+      </c>
+      <c r="S5" t="n">
         <v>153.730266</v>
       </c>
-      <c r="L5" t="n">
-        <v>91.8370118</v>
-      </c>
-      <c r="M5" t="n">
-        <v>120.4491062</v>
-      </c>
-      <c r="N5" t="n">
-        <v>79.4939368</v>
-      </c>
-      <c r="O5" t="n">
-        <v>112.4230029</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>1.285361</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="U5" t="n">
         <v>1.074987</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
+        <v>0.411969</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.326917</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.236388</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>0.355267</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
+        <v>0.347213</v>
+      </c>
+      <c r="Z5" t="n">
         <v>23.11</v>
       </c>
     </row>
@@ -779,54 +854,69 @@
         <v>0.547408</v>
       </c>
       <c r="E6" t="n">
-        <v>0.203012</v>
+        <v>0.328657</v>
       </c>
       <c r="F6" t="n">
-        <v>0.180461</v>
+        <v>0.431106</v>
       </c>
       <c r="G6" t="n">
+        <v>0.272278</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.236195</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>0.005038497</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.004330846</v>
       </c>
-      <c r="I6" t="n">
-        <v>505.6718915</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>0.002398689</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000338627</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.000849186</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.000331289</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.000202336</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.75e-05</v>
+      </c>
+      <c r="Q6" t="n">
         <v>415.4348721</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>234.5712445</v>
+      </c>
+      <c r="S6" t="n">
         <v>128.1101389</v>
       </c>
-      <c r="L6" t="n">
-        <v>50.6840616</v>
-      </c>
-      <c r="M6" t="n">
-        <v>103.6998558</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43.4519638</v>
-      </c>
-      <c r="O6" t="n">
-        <v>75.2991899</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>1.190774</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
         <v>0.940773</v>
       </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
+        <v>0.298051</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.196891</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.107329</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="X6" t="n">
         <v>0.224597</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
+        <v>0.209778</v>
+      </c>
+      <c r="Z6" t="n">
         <v>24.43</v>
       </c>
     </row>
@@ -844,54 +934,69 @@
         <v>0.805399</v>
       </c>
       <c r="E7" t="n">
-        <v>0.233232</v>
+        <v>0.440384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.198438</v>
+        <v>0.557009</v>
       </c>
       <c r="G7" t="n">
+        <v>0.245474</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.197149</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>0.005514461</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.005357201</v>
       </c>
-      <c r="I7" t="n">
-        <v>606.9029073</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>0.003304484</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.000526287</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001238132</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.000479108</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.000264191</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.000131048</v>
+      </c>
+      <c r="Q7" t="n">
         <v>587.1707827</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>339.6628482</v>
+      </c>
+      <c r="S7" t="n">
         <v>192.5788165</v>
       </c>
-      <c r="L7" t="n">
-        <v>55.6649681</v>
-      </c>
-      <c r="M7" t="n">
-        <v>131.3325407</v>
-      </c>
-      <c r="N7" t="n">
-        <v>45.2311675</v>
-      </c>
-      <c r="O7" t="n">
-        <v>65.3584975</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>1.506754</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="U7" t="n">
         <v>1.422991</v>
       </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
+        <v>0.43233</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.24193</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.094378</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
         <v>0.182974</v>
       </c>
-      <c r="U7" t="n">
+      <c r="Y7" t="n">
+        <v>0.162999</v>
+      </c>
+      <c r="Z7" t="n">
         <v>28.71</v>
       </c>
     </row>
@@ -909,54 +1014,69 @@
         <v>0.453593</v>
       </c>
       <c r="E8" t="n">
-        <v>0.196827</v>
+        <v>0.259327</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31635</v>
+        <v>0.817319</v>
       </c>
       <c r="G8" t="n">
+        <v>0.432975</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.309585</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>0.006367839</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.005110836</v>
       </c>
-      <c r="I8" t="n">
-        <v>533.7589958</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>0.003615854</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.000500078</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.001901754</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.000802008</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0007433</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.000432981</v>
+      </c>
+      <c r="Q8" t="n">
         <v>392.9640046</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
+        <v>291.8932724</v>
+      </c>
+      <c r="S8" t="n">
         <v>103.2605868</v>
       </c>
-      <c r="L8" t="n">
-        <v>41.0519948</v>
-      </c>
-      <c r="M8" t="n">
-        <v>190.2024547</v>
-      </c>
-      <c r="N8" t="n">
-        <v>68.5669271</v>
-      </c>
-      <c r="O8" t="n">
-        <v>106.5531276</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>1.01674</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="U8" t="n">
         <v>0.668156</v>
       </c>
-      <c r="R8" t="n">
+      <c r="V8" t="n">
+        <v>0.194894</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.11403</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.132716</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="X8" t="n">
         <v>0.267381</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
+        <v>0.198115</v>
+      </c>
+      <c r="Z8" t="n">
         <v>26.53</v>
       </c>
     </row>
@@ -974,54 +1094,69 @@
         <v>0.310229</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09921000000000001</v>
+        <v>0.174919</v>
       </c>
       <c r="F9" t="n">
-        <v>0.053785</v>
+        <v>0.171376</v>
       </c>
       <c r="G9" t="n">
+        <v>0.161066</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.151401</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>0.003618998</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.003065454</v>
       </c>
-      <c r="I9" t="n">
-        <v>348.5832412</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>0.001485552</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.000188708</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.000324998</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.000140482</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.440000000000001e-05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.09e-05</v>
+      </c>
+      <c r="Q9" t="n">
         <v>290.2674943</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>146.2105307</v>
+      </c>
+      <c r="S9" t="n">
         <v>73.962112</v>
       </c>
-      <c r="L9" t="n">
-        <v>24.6077178</v>
-      </c>
-      <c r="M9" t="n">
-        <v>41.7424715</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.5065959</v>
-      </c>
-      <c r="O9" t="n">
-        <v>46.6849986</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>0.8153860000000001</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="U9" t="n">
         <v>0.661068</v>
       </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
+        <v>0.171376</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.105009</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.023501</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="X9" t="n">
         <v>0.147535</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
+        <v>0.144314</v>
+      </c>
+      <c r="Z9" t="n">
         <v>18.88</v>
       </c>
     </row>
@@ -1039,54 +1174,69 @@
         <v>1.096634</v>
       </c>
       <c r="E10" t="n">
-        <v>0.861453</v>
+        <v>0.942639</v>
       </c>
       <c r="F10" t="n">
-        <v>0.81345</v>
+        <v>0.944894</v>
       </c>
       <c r="G10" t="n">
+        <v>0.918798</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9059120000000001</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I10" t="n">
-        <v>594.4568154999999</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q10" t="n">
         <v>545.2026049</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>390.4786275</v>
+      </c>
+      <c r="S10" t="n">
         <v>312.8276396</v>
       </c>
-      <c r="L10" t="n">
-        <v>257.8670485</v>
-      </c>
-      <c r="M10" t="n">
-        <v>277.5549193</v>
-      </c>
-      <c r="N10" t="n">
-        <v>244.1283204</v>
-      </c>
-      <c r="O10" t="n">
-        <v>278.9930995</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>1.598569</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
         <v>1.461004</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
+        <v>0.935873</v>
+      </c>
+      <c r="W10" t="n">
         <v>0.860808</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.777045</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
         <v>0.900435</v>
       </c>
-      <c r="U10" t="n">
+      <c r="Y10" t="n">
+        <v>0.893992</v>
+      </c>
+      <c r="Z10" t="n">
         <v>26.92</v>
       </c>
     </row>
@@ -1104,54 +1254,69 @@
         <v>0.375307</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126917</v>
+        <v>0.211324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.092123</v>
+        <v>0.278657</v>
       </c>
       <c r="G11" t="n">
+        <v>0.204559</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.177497</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>0.003639961</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.00321013</v>
       </c>
-      <c r="I11" t="n">
-        <v>369.8227197</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>0.001714097</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.000250563</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000548301</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.000213869</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.000156206</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.119999999999999e-05</v>
+      </c>
+      <c r="Q11" t="n">
         <v>322.285655</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
+        <v>174.9731416</v>
+      </c>
+      <c r="S11" t="n">
         <v>90.4165295</v>
       </c>
-      <c r="L11" t="n">
-        <v>31.064264</v>
-      </c>
-      <c r="M11" t="n">
-        <v>68.1900552</v>
-      </c>
-      <c r="N11" t="n">
-        <v>20.9071201</v>
-      </c>
-      <c r="O11" t="n">
-        <v>56.7564253</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>0.910425</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="U11" t="n">
         <v>0.783169</v>
       </c>
-      <c r="R11" t="n">
+      <c r="V11" t="n">
+        <v>0.216479</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.129172</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.047342</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="X11" t="n">
         <v>0.166865</v>
       </c>
-      <c r="U11" t="n">
+      <c r="Y11" t="n">
+        <v>0.153334</v>
+      </c>
+      <c r="Z11" t="n">
         <v>14.97</v>
       </c>
     </row>
@@ -1169,54 +1334,69 @@
         <v>0.417511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127561</v>
+        <v>0.228721</v>
       </c>
       <c r="F12" t="n">
-        <v>0.077947</v>
+        <v>0.23742</v>
       </c>
       <c r="G12" t="n">
+        <v>0.181685</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.164932</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
+        <v>0.005000758</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.004291006</v>
       </c>
-      <c r="I12" t="n">
-        <v>439.8187509</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>0.002186912</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.000280966</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.000524188</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.000209675</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.000120563</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6.19e-05</v>
+      </c>
+      <c r="Q12" t="n">
         <v>362.6294879</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
+        <v>186.9869808</v>
+      </c>
+      <c r="S12" t="n">
         <v>93.43735359999999</v>
       </c>
-      <c r="L12" t="n">
-        <v>29.5844544</v>
-      </c>
-      <c r="M12" t="n">
-        <v>54.0347124</v>
-      </c>
-      <c r="N12" t="n">
-        <v>16.1474004</v>
-      </c>
-      <c r="O12" t="n">
-        <v>51.0678772</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>0.9461850000000001</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="U12" t="n">
         <v>0.741932</v>
       </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
+        <v>0.189417</v>
+      </c>
+      <c r="W12" t="n">
         <v>0.113064</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.030267</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
         <v>0.154301</v>
       </c>
-      <c r="U12" t="n">
+      <c r="Y12" t="n">
+        <v>0.149146</v>
+      </c>
+      <c r="Z12" t="n">
         <v>20.48</v>
       </c>
     </row>
@@ -1234,54 +1414,69 @@
         <v>0.2255</v>
       </c>
       <c r="E13" t="n">
-        <v>0.085035</v>
+        <v>0.142059</v>
       </c>
       <c r="F13" t="n">
-        <v>0.059906</v>
+        <v>0.197149</v>
       </c>
       <c r="G13" t="n">
+        <v>0.166865</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.153012</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
+        <v>0.00359698</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.002767716</v>
       </c>
-      <c r="I13" t="n">
-        <v>275.3163042</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>0.001393293</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.000157257</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.000402577</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.000153062</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.75e-05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.03e-05</v>
+      </c>
+      <c r="Q13" t="n">
         <v>207.3464943</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
+        <v>112.713461</v>
+      </c>
+      <c r="S13" t="n">
         <v>47.1710233</v>
       </c>
-      <c r="L13" t="n">
-        <v>19.36829</v>
-      </c>
-      <c r="M13" t="n">
-        <v>46.2437671</v>
-      </c>
-      <c r="N13" t="n">
-        <v>12.0652353</v>
-      </c>
-      <c r="O13" t="n">
-        <v>45.7900114</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
         <v>0.486776</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
         <v>0.358232</v>
       </c>
-      <c r="R13" t="n">
+      <c r="V13" t="n">
+        <v>0.089545</v>
+      </c>
+      <c r="W13" t="n">
         <v>0.068927</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.021246</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="X13" t="n">
         <v>0.138515</v>
       </c>
-      <c r="U13" t="n">
+      <c r="Y13" t="n">
+        <v>0.132716</v>
+      </c>
+      <c r="Z13" t="n">
         <v>17.69</v>
       </c>
     </row>
@@ -1299,54 +1494,69 @@
         <v>0.344379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116285</v>
+        <v>0.195216</v>
       </c>
       <c r="F14" t="n">
-        <v>0.078914</v>
+        <v>0.243219</v>
       </c>
       <c r="G14" t="n">
+        <v>0.197471</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.175564</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>0.003514159</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.003066502</v>
       </c>
-      <c r="I14" t="n">
-        <v>346.4718959</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>0.001619743</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.000223306</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.000483303</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.000192903</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.000148871</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.49e-05</v>
+      </c>
+      <c r="Q14" t="n">
         <v>298.9633709</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>161.3524079</v>
+      </c>
+      <c r="S14" t="n">
         <v>83.21662430000001</v>
       </c>
-      <c r="L14" t="n">
-        <v>28.7569054</v>
-      </c>
-      <c r="M14" t="n">
-        <v>59.9195944</v>
-      </c>
-      <c r="N14" t="n">
-        <v>17.9419959</v>
-      </c>
-      <c r="O14" t="n">
-        <v>55.5499389</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>0.84277</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>0.718414</v>
       </c>
-      <c r="R14" t="n">
+      <c r="V14" t="n">
+        <v>0.199726</v>
+      </c>
+      <c r="W14" t="n">
         <v>0.119507</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.037677</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="X14" t="n">
         <v>0.165899</v>
       </c>
-      <c r="U14" t="n">
+      <c r="Y14" t="n">
+        <v>0.154945</v>
+      </c>
+      <c r="Z14" t="n">
         <v>13.76</v>
       </c>
     </row>
@@ -1364,54 +1574,69 @@
         <v>0.375307</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11693</v>
+        <v>0.208747</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07086000000000001</v>
+        <v>0.217123</v>
       </c>
       <c r="G15" t="n">
+        <v>0.178785</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.164288</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>0.004541568</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.003843349</v>
       </c>
-      <c r="I15" t="n">
-        <v>400.5030182</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>0.001942642</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.000247419</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.000467579</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.000186612</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9.54e-05</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.24e-05</v>
+      </c>
+      <c r="Q15" t="n">
         <v>327.3919248</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>168.3077834</v>
+      </c>
+      <c r="S15" t="n">
         <v>84.385316</v>
       </c>
-      <c r="L15" t="n">
-        <v>27.3277741</v>
-      </c>
-      <c r="M15" t="n">
-        <v>49.8749038</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14.4719443</v>
-      </c>
-      <c r="O15" t="n">
-        <v>50.4387158</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>0.8604889999999999</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>0.673633</v>
       </c>
-      <c r="R15" t="n">
+      <c r="V15" t="n">
+        <v>0.174919</v>
+      </c>
+      <c r="W15" t="n">
         <v>0.105009</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.026079</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="X15" t="n">
         <v>0.153012</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
+        <v>0.148502</v>
+      </c>
+      <c r="Z15" t="n">
         <v>17.38</v>
       </c>
     </row>
@@ -1429,54 +1654,69 @@
         <v>0.696634</v>
       </c>
       <c r="E16" t="n">
-        <v>0.461453</v>
+        <v>0.542639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.41345</v>
+        <v>0.544894</v>
       </c>
       <c r="G16" t="n">
+        <v>0.518798</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.505912</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I16" t="n">
-        <v>471.4968155</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q16" t="n">
         <v>422.2426049</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>267.5186275</v>
+      </c>
+      <c r="S16" t="n">
         <v>189.8676396</v>
       </c>
-      <c r="L16" t="n">
-        <v>134.9070485</v>
-      </c>
-      <c r="M16" t="n">
-        <v>154.5949193</v>
-      </c>
-      <c r="N16" t="n">
-        <v>121.1683204</v>
-      </c>
-      <c r="O16" t="n">
-        <v>156.0330995</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>1.198569</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="U16" t="n">
         <v>1.061004</v>
       </c>
-      <c r="R16" t="n">
+      <c r="V16" t="n">
+        <v>0.535873</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.460808</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.377045</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="X16" t="n">
         <v>0.500435</v>
       </c>
-      <c r="U16" t="n">
+      <c r="Y16" t="n">
+        <v>0.493992</v>
+      </c>
+      <c r="Z16" t="n">
         <v>19.97</v>
       </c>
     </row>
@@ -1494,54 +1734,69 @@
         <v>0.551854</v>
       </c>
       <c r="E17" t="n">
-        <v>0.179752</v>
+        <v>0.313129</v>
       </c>
       <c r="F17" t="n">
-        <v>0.139803</v>
+        <v>0.386583</v>
       </c>
       <c r="G17" t="n">
+        <v>0.209069</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.178141</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
+        <v>0.004694631</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.004356004</v>
       </c>
-      <c r="I17" t="n">
-        <v>681.9206205</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>0.002522395</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.000351207</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.000786281</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.000319756</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.000191852</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.00010903</v>
+      </c>
+      <c r="Q17" t="n">
         <v>599.6247893</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
+        <v>319.464251</v>
+      </c>
+      <c r="S17" t="n">
         <v>140.9911492</v>
       </c>
-      <c r="L17" t="n">
-        <v>45.9432542</v>
-      </c>
-      <c r="M17" t="n">
-        <v>95.90823880000001</v>
-      </c>
-      <c r="N17" t="n">
-        <v>33.2503266</v>
-      </c>
-      <c r="O17" t="n">
-        <v>57.6122606</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="T17" t="n">
         <v>1.902052</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="U17" t="n">
         <v>1.637876</v>
       </c>
-      <c r="R17" t="n">
+      <c r="V17" t="n">
+        <v>0.36983</v>
+      </c>
+      <c r="W17" t="n">
         <v>0.211002</v>
       </c>
-      <c r="S17" t="n">
-        <v>0.07698099999999999</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="X17" t="n">
         <v>0.165577</v>
       </c>
-      <c r="U17" t="n">
+      <c r="Y17" t="n">
+        <v>0.151724</v>
+      </c>
+      <c r="Z17" t="n">
         <v>32.13</v>
       </c>
     </row>
@@ -1559,54 +1814,69 @@
         <v>1.196634</v>
       </c>
       <c r="E18" t="n">
-        <v>0.961453</v>
+        <v>1.042639</v>
       </c>
       <c r="F18" t="n">
-        <v>0.91345</v>
+        <v>1.044894</v>
       </c>
       <c r="G18" t="n">
+        <v>1.018798</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.005912</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I18" t="n">
-        <v>625.1968155</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q18" t="n">
         <v>575.9426049</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>421.2186275</v>
+      </c>
+      <c r="S18" t="n">
         <v>343.5676396</v>
       </c>
-      <c r="L18" t="n">
-        <v>288.6070485</v>
-      </c>
-      <c r="M18" t="n">
-        <v>308.2949193</v>
-      </c>
-      <c r="N18" t="n">
-        <v>274.8683204</v>
-      </c>
-      <c r="O18" t="n">
-        <v>309.7330995</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>1.698569</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>1.561004</v>
       </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
+        <v>1.035873</v>
+      </c>
+      <c r="W18" t="n">
         <v>0.960808</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.877045</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="X18" t="n">
         <v>1.000435</v>
       </c>
-      <c r="U18" t="n">
+      <c r="Y18" t="n">
+        <v>0.993992</v>
+      </c>
+      <c r="Z18" t="n">
         <v>28.85</v>
       </c>
     </row>
@@ -1624,54 +1894,69 @@
         <v>0.965515</v>
       </c>
       <c r="E19" t="n">
-        <v>0.29541</v>
+        <v>0.5183489999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.197471</v>
+        <v>0.526403</v>
       </c>
       <c r="G19" t="n">
+        <v>0.267381</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.215835</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
+        <v>0.008709909</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.008339834000000001</v>
       </c>
-      <c r="I19" t="n">
-        <v>781.4709356</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>0.004965112</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.000803056</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.001389099</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.000571363</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.000375321</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.000208627</v>
+      </c>
+      <c r="Q19" t="n">
         <v>705.738924</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
+        <v>389.6986591</v>
+      </c>
+      <c r="S19" t="n">
         <v>208.2784915</v>
       </c>
-      <c r="L19" t="n">
-        <v>62.7097209</v>
-      </c>
-      <c r="M19" t="n">
-        <v>110.7941904</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39.6027944</v>
-      </c>
-      <c r="O19" t="n">
-        <v>66.96227620000001</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="T19" t="n">
         <v>1.788328</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="U19" t="n">
         <v>1.49419</v>
       </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
+        <v>0.393026</v>
+      </c>
+      <c r="W19" t="n">
         <v>0.217123</v>
       </c>
-      <c r="S19" t="n">
-        <v>0.069249</v>
-      </c>
-      <c r="T19" t="n">
+      <c r="X19" t="n">
         <v>0.177819</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Y19" t="n">
+        <v>0.165899</v>
+      </c>
+      <c r="Z19" t="n">
         <v>39.64</v>
       </c>
     </row>
@@ -1689,54 +1974,69 @@
         <v>0.255461</v>
       </c>
       <c r="E20" t="n">
-        <v>0.087612</v>
+        <v>0.14818</v>
       </c>
       <c r="F20" t="n">
-        <v>0.049275</v>
+        <v>0.165577</v>
       </c>
       <c r="G20" t="n">
+        <v>0.16461</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.153657</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
+        <v>0.002936502</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.002471025</v>
       </c>
-      <c r="I20" t="n">
-        <v>258.5614457</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>0.001238132</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0001604</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.000316609</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.000135239</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.7e-05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.82e-05</v>
+      </c>
+      <c r="Q20" t="n">
         <v>217.1275902</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
+        <v>115.537312</v>
+      </c>
+      <c r="S20" t="n">
         <v>58.9431416</v>
       </c>
-      <c r="L20" t="n">
-        <v>21.4363099</v>
-      </c>
-      <c r="M20" t="n">
-        <v>40.2412086</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10.457726</v>
-      </c>
-      <c r="O20" t="n">
-        <v>47.6481979</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="T20" t="n">
         <v>0.569573</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="U20" t="n">
         <v>0.474212</v>
       </c>
-      <c r="R20" t="n">
+      <c r="V20" t="n">
+        <v>0.132716</v>
+      </c>
+      <c r="W20" t="n">
         <v>0.08567900000000001</v>
       </c>
-      <c r="S20" t="n">
-        <v>0.019958</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="X20" t="n">
         <v>0.147858</v>
       </c>
-      <c r="U20" t="n">
+      <c r="Y20" t="n">
+        <v>0.143347</v>
+      </c>
+      <c r="Z20" t="n">
         <v>12.37</v>
       </c>
     </row>
@@ -1754,54 +2054,69 @@
         <v>0.496634</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261453</v>
+        <v>0.342639</v>
       </c>
       <c r="F21" t="n">
-        <v>0.21345</v>
+        <v>0.344894</v>
       </c>
       <c r="G21" t="n">
+        <v>0.318798</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.305912</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I21" t="n">
-        <v>410.0168155</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q21" t="n">
         <v>360.7626049</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>206.0386275</v>
+      </c>
+      <c r="S21" t="n">
         <v>128.3876396</v>
       </c>
-      <c r="L21" t="n">
-        <v>73.4270485</v>
-      </c>
-      <c r="M21" t="n">
-        <v>93.1149193</v>
-      </c>
-      <c r="N21" t="n">
-        <v>59.6883204</v>
-      </c>
-      <c r="O21" t="n">
-        <v>94.5530995</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="T21" t="n">
         <v>0.998569</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="U21" t="n">
         <v>0.861004</v>
       </c>
-      <c r="R21" t="n">
+      <c r="V21" t="n">
+        <v>0.335873</v>
+      </c>
+      <c r="W21" t="n">
         <v>0.260808</v>
       </c>
-      <c r="S21" t="n">
-        <v>0.177045</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="X21" t="n">
         <v>0.300435</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
+        <v>0.293992</v>
+      </c>
+      <c r="Z21" t="n">
         <v>17.33</v>
       </c>
     </row>
@@ -1819,54 +2134,69 @@
         <v>0.359843</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124662</v>
+        <v>0.205203</v>
       </c>
       <c r="F22" t="n">
-        <v>0.10211</v>
+        <v>0.316028</v>
       </c>
       <c r="G22" t="n">
+        <v>0.228399</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.193927</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
+        <v>0.004150524</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.003606417</v>
       </c>
-      <c r="I22" t="n">
-        <v>309.2847645</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>0.001929014</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.000291448</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.000717091</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.000278868</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.000230641</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.000137335</v>
+      </c>
+      <c r="Q22" t="n">
         <v>260.1678644</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>147.1806697</v>
+      </c>
+      <c r="S22" t="n">
         <v>75.83264200000001</v>
       </c>
-      <c r="L22" t="n">
-        <v>27.5682384</v>
-      </c>
-      <c r="M22" t="n">
-        <v>72.9610107</v>
-      </c>
-      <c r="N22" t="n">
-        <v>21.4555801</v>
-      </c>
-      <c r="O22" t="n">
-        <v>61.8675319</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="T22" t="n">
         <v>0.543478</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="U22" t="n">
         <v>0.439418</v>
       </c>
-      <c r="R22" t="n">
+      <c r="V22" t="n">
+        <v>0.138837</v>
+      </c>
+      <c r="W22" t="n">
         <v>0.092123</v>
       </c>
-      <c r="S22" t="n">
-        <v>0.039932</v>
-      </c>
-      <c r="T22" t="n">
+      <c r="X22" t="n">
         <v>0.177497</v>
       </c>
-      <c r="U22" t="n">
+      <c r="Y22" t="n">
+        <v>0.163644</v>
+      </c>
+      <c r="Z22" t="n">
         <v>14.22</v>
       </c>
     </row>
@@ -1884,54 +2214,69 @@
         <v>0.509328</v>
       </c>
       <c r="E23" t="n">
-        <v>0.151401</v>
+        <v>0.280268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.095989</v>
+        <v>0.278335</v>
       </c>
       <c r="G23" t="n">
+        <v>0.185551</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.165254</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
+        <v>0.005402284</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.005057367</v>
       </c>
-      <c r="I23" t="n">
-        <v>466.54752</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>0.002620944</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.000350156</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.000645799</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.000268386</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.000133144</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.92e-05</v>
+      </c>
+      <c r="Q23" t="n">
         <v>424.3315162</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>220.1889736</v>
+      </c>
+      <c r="S23" t="n">
         <v>113.6284443</v>
       </c>
-      <c r="L23" t="n">
-        <v>34.5690534</v>
-      </c>
-      <c r="M23" t="n">
-        <v>62.815359</v>
-      </c>
-      <c r="N23" t="n">
-        <v>19.8498701</v>
-      </c>
-      <c r="O23" t="n">
-        <v>51.2853383</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="T23" t="n">
         <v>0.993222</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="U23" t="n">
         <v>0.861456</v>
       </c>
-      <c r="R23" t="n">
+      <c r="V23" t="n">
+        <v>0.22711</v>
+      </c>
+      <c r="W23" t="n">
         <v>0.134004</v>
       </c>
-      <c r="S23" t="n">
-        <v>0.03671</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="X23" t="n">
         <v>0.153012</v>
       </c>
-      <c r="U23" t="n">
+      <c r="Y23" t="n">
+        <v>0.149468</v>
+      </c>
+      <c r="Z23" t="n">
         <v>22.85</v>
       </c>
     </row>
@@ -1949,54 +2294,69 @@
         <v>0.357588</v>
       </c>
       <c r="E24" t="n">
-        <v>0.113386</v>
+        <v>0.200048</v>
       </c>
       <c r="F24" t="n">
-        <v>0.072148</v>
+        <v>0.227433</v>
       </c>
       <c r="G24" t="n">
+        <v>0.185551</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.168154</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
+        <v>0.004463986</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.003788835</v>
       </c>
-      <c r="I24" t="n">
-        <v>351.068491</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>0.001906996</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.000251611</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.000504269</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.000203384</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.000131048</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.23e-05</v>
+      </c>
+      <c r="Q24" t="n">
         <v>286.5430614</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>149.3012285</v>
+      </c>
+      <c r="S24" t="n">
         <v>75.7070291</v>
       </c>
-      <c r="L24" t="n">
-        <v>25.4252481</v>
-      </c>
-      <c r="M24" t="n">
-        <v>50.6281273</v>
-      </c>
-      <c r="N24" t="n">
-        <v>14.0218125</v>
-      </c>
-      <c r="O24" t="n">
-        <v>51.6121058</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>0.666223</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="U24" t="n">
         <v>0.51706</v>
       </c>
-      <c r="R24" t="n">
+      <c r="V24" t="n">
+        <v>0.139803</v>
+      </c>
+      <c r="W24" t="n">
         <v>0.09019000000000001</v>
       </c>
-      <c r="S24" t="n">
-        <v>0.021891</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="X24" t="n">
         <v>0.151724</v>
       </c>
-      <c r="U24" t="n">
+      <c r="Y24" t="n">
+        <v>0.147213</v>
+      </c>
+      <c r="Z24" t="n">
         <v>15.49</v>
       </c>
     </row>
@@ -2014,54 +2374,69 @@
         <v>0.666737</v>
       </c>
       <c r="E25" t="n">
-        <v>0.499855</v>
+        <v>0.563321</v>
       </c>
       <c r="F25" t="n">
-        <v>0.471504</v>
+        <v>0.621634</v>
       </c>
       <c r="G25" t="n">
+        <v>0.5507570000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.539481</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>0.004032057</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.003330693</v>
       </c>
-      <c r="I25" t="n">
-        <v>486.6786356</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>0.001673209</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.000182418</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.000440319</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.000171936</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.23e-05</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.56e-05</v>
+      </c>
+      <c r="Q25" t="n">
         <v>417.5441027</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>276.4080282</v>
+      </c>
+      <c r="S25" t="n">
         <v>185.4138844</v>
       </c>
-      <c r="L25" t="n">
-        <v>146.8836021</v>
-      </c>
-      <c r="M25" t="n">
-        <v>174.9072345</v>
-      </c>
-      <c r="N25" t="n">
-        <v>137.9912869</v>
-      </c>
-      <c r="O25" t="n">
-        <v>165.7665284</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>1.197667</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="U25" t="n">
         <v>1.027885</v>
       </c>
-      <c r="R25" t="n">
+      <c r="V25" t="n">
+        <v>0.542381</v>
+      </c>
+      <c r="W25" t="n">
         <v>0.493411</v>
       </c>
-      <c r="S25" t="n">
-        <v>0.429945</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="X25" t="n">
         <v>0.530138</v>
       </c>
-      <c r="U25" t="n">
+      <c r="Y25" t="n">
+        <v>0.526595</v>
+      </c>
+      <c r="Z25" t="n">
         <v>22.85</v>
       </c>
     </row>
@@ -2079,54 +2454,69 @@
         <v>0.566416</v>
       </c>
       <c r="E26" t="n">
-        <v>0.205267</v>
+        <v>0.330912</v>
       </c>
       <c r="F26" t="n">
-        <v>0.154687</v>
+        <v>0.346376</v>
       </c>
       <c r="G26" t="n">
+        <v>0.231363</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.2101</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>0.004735519</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.004313023</v>
       </c>
-      <c r="I26" t="n">
-        <v>559.2474956999999</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>0.002352558</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.000314514</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.000609108</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.000257901</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.000120563</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.66e-05</v>
+      </c>
+      <c r="Q26" t="n">
         <v>504.0595115</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
+        <v>273.8954612</v>
+      </c>
+      <c r="S26" t="n">
         <v>144.7204798</v>
       </c>
-      <c r="L26" t="n">
-        <v>54.6355628</v>
-      </c>
-      <c r="M26" t="n">
-        <v>88.72402030000001</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39.8570333</v>
-      </c>
-      <c r="O26" t="n">
-        <v>66.4495697</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
         <v>1.426599</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="U26" t="n">
         <v>1.261006</v>
       </c>
-      <c r="R26" t="n">
+      <c r="V26" t="n">
+        <v>0.357652</v>
+      </c>
+      <c r="W26" t="n">
         <v>0.222986</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.103463</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="X26" t="n">
         <v>0.20269</v>
       </c>
-      <c r="U26" t="n">
+      <c r="Y26" t="n">
+        <v>0.192381</v>
+      </c>
+      <c r="Z26" t="n">
         <v>25.27</v>
       </c>
     </row>
@@ -2144,54 +2534,69 @@
         <v>0.371119</v>
       </c>
       <c r="E27" t="n">
-        <v>0.13626</v>
+        <v>0.222922</v>
       </c>
       <c r="F27" t="n">
-        <v>0.112097</v>
+        <v>0.323116</v>
       </c>
       <c r="G27" t="n">
+        <v>0.176208</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.15269</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
+        <v>0.005169544</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.004435682</v>
       </c>
-      <c r="I27" t="n">
-        <v>503.6845081</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
+        <v>0.002386105</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.000276772</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.000713944</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.000285158</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.000119515</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.45e-05</v>
+      </c>
+      <c r="Q27" t="n">
         <v>417.5238258</v>
       </c>
-      <c r="K27" t="n">
+      <c r="R27" t="n">
+        <v>222.6946563</v>
+      </c>
+      <c r="S27" t="n">
         <v>88.46474689999999</v>
       </c>
-      <c r="L27" t="n">
-        <v>32.1716475</v>
-      </c>
-      <c r="M27" t="n">
-        <v>74.0379473</v>
-      </c>
-      <c r="N27" t="n">
-        <v>23.7361974</v>
-      </c>
-      <c r="O27" t="n">
-        <v>49.1264793</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="T27" t="n">
         <v>1.132397</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="U27" t="n">
         <v>0.906881</v>
       </c>
-      <c r="R27" t="n">
+      <c r="V27" t="n">
+        <v>0.192639</v>
+      </c>
+      <c r="W27" t="n">
         <v>0.118863</v>
       </c>
-      <c r="S27" t="n">
-        <v>0.042509</v>
-      </c>
-      <c r="T27" t="n">
+      <c r="X27" t="n">
         <v>0.151079</v>
       </c>
-      <c r="U27" t="n">
+      <c r="Y27" t="n">
+        <v>0.143025</v>
+      </c>
+      <c r="Z27" t="n">
         <v>22.55</v>
       </c>
     </row>
@@ -2209,54 +2614,69 @@
         <v>0.416737</v>
       </c>
       <c r="E28" t="n">
-        <v>0.249855</v>
+        <v>0.313321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.221504</v>
+        <v>0.371634</v>
       </c>
       <c r="G28" t="n">
+        <v>0.300757</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.289481</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>0.004032057</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.003330693</v>
       </c>
-      <c r="I28" t="n">
-        <v>409.8286356</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
+        <v>0.001673209</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.000182418</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.000440319</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.000171936</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7.23e-05</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.56e-05</v>
+      </c>
+      <c r="Q28" t="n">
         <v>340.6941027</v>
       </c>
-      <c r="K28" t="n">
+      <c r="R28" t="n">
+        <v>199.5580282</v>
+      </c>
+      <c r="S28" t="n">
         <v>108.5638844</v>
       </c>
-      <c r="L28" t="n">
-        <v>70.0336021</v>
-      </c>
-      <c r="M28" t="n">
-        <v>98.05723450000001</v>
-      </c>
-      <c r="N28" t="n">
-        <v>61.1412869</v>
-      </c>
-      <c r="O28" t="n">
-        <v>88.9165284</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="T28" t="n">
         <v>0.947667</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="U28" t="n">
         <v>0.777885</v>
       </c>
-      <c r="R28" t="n">
+      <c r="V28" t="n">
+        <v>0.292381</v>
+      </c>
+      <c r="W28" t="n">
         <v>0.243411</v>
       </c>
-      <c r="S28" t="n">
-        <v>0.179945</v>
-      </c>
-      <c r="T28" t="n">
+      <c r="X28" t="n">
         <v>0.280138</v>
       </c>
-      <c r="U28" t="n">
+      <c r="Y28" t="n">
+        <v>0.276595</v>
+      </c>
+      <c r="Z28" t="n">
         <v>18.13</v>
       </c>
     </row>
@@ -2274,54 +2694,69 @@
         <v>0.746634</v>
       </c>
       <c r="E29" t="n">
-        <v>0.511453</v>
+        <v>0.592639</v>
       </c>
       <c r="F29" t="n">
-        <v>0.46345</v>
+        <v>0.594894</v>
       </c>
       <c r="G29" t="n">
+        <v>0.568798</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.555912</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I29" t="n">
-        <v>486.8668155</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q29" t="n">
         <v>437.6126049</v>
       </c>
-      <c r="K29" t="n">
+      <c r="R29" t="n">
+        <v>282.8886275</v>
+      </c>
+      <c r="S29" t="n">
         <v>205.2376396</v>
       </c>
-      <c r="L29" t="n">
-        <v>150.2770485</v>
-      </c>
-      <c r="M29" t="n">
-        <v>169.9649193</v>
-      </c>
-      <c r="N29" t="n">
-        <v>136.5383204</v>
-      </c>
-      <c r="O29" t="n">
-        <v>171.4030995</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="T29" t="n">
         <v>1.248569</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="U29" t="n">
         <v>1.111004</v>
       </c>
-      <c r="R29" t="n">
+      <c r="V29" t="n">
+        <v>0.585873</v>
+      </c>
+      <c r="W29" t="n">
         <v>0.510808</v>
       </c>
-      <c r="S29" t="n">
-        <v>0.427045</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="X29" t="n">
         <v>0.550435</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
+        <v>0.543992</v>
+      </c>
+      <c r="Z29" t="n">
         <v>20.52</v>
       </c>
     </row>
@@ -2339,54 +2774,69 @@
         <v>0.946634</v>
       </c>
       <c r="E30" t="n">
-        <v>0.711453</v>
+        <v>0.792639</v>
       </c>
       <c r="F30" t="n">
-        <v>0.66345</v>
+        <v>0.794894</v>
       </c>
       <c r="G30" t="n">
+        <v>0.768798</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.755912</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I30" t="n">
-        <v>548.3468155</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q30" t="n">
         <v>499.0926049</v>
       </c>
-      <c r="K30" t="n">
+      <c r="R30" t="n">
+        <v>344.3686275</v>
+      </c>
+      <c r="S30" t="n">
         <v>266.7176396</v>
       </c>
-      <c r="L30" t="n">
-        <v>211.7570485</v>
-      </c>
-      <c r="M30" t="n">
-        <v>231.4449193</v>
-      </c>
-      <c r="N30" t="n">
-        <v>198.0183204</v>
-      </c>
-      <c r="O30" t="n">
-        <v>232.8830995</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
         <v>1.448569</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="U30" t="n">
         <v>1.311004</v>
       </c>
-      <c r="R30" t="n">
+      <c r="V30" t="n">
+        <v>0.785873</v>
+      </c>
+      <c r="W30" t="n">
         <v>0.710808</v>
       </c>
-      <c r="S30" t="n">
-        <v>0.627045</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
         <v>0.750435</v>
       </c>
-      <c r="U30" t="n">
+      <c r="Y30" t="n">
+        <v>0.743992</v>
+      </c>
+      <c r="Z30" t="n">
         <v>25.2</v>
       </c>
     </row>
@@ -2404,54 +2854,69 @@
         <v>0.578014</v>
       </c>
       <c r="E31" t="n">
-        <v>0.209455</v>
+        <v>0.341866</v>
       </c>
       <c r="F31" t="n">
-        <v>0.195602</v>
+        <v>0.47782</v>
       </c>
       <c r="G31" t="n">
+        <v>0.291608</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.250371</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>0.005012288</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.004576163</v>
       </c>
-      <c r="I31" t="n">
-        <v>497.3693143</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
+        <v>0.002511913</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.000360641</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.000952974</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.000370078</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.000262096</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.000138383</v>
+      </c>
+      <c r="Q31" t="n">
         <v>441.6564214</v>
       </c>
-      <c r="K31" t="n">
+      <c r="R31" t="n">
+        <v>245.7593367</v>
+      </c>
+      <c r="S31" t="n">
         <v>135.7587527</v>
       </c>
-      <c r="L31" t="n">
-        <v>52.0505977</v>
-      </c>
-      <c r="M31" t="n">
-        <v>114.4682318</v>
-      </c>
-      <c r="N31" t="n">
-        <v>47.1126806</v>
-      </c>
-      <c r="O31" t="n">
-        <v>79.3107067</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="T31" t="n">
         <v>1.139227</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="U31" t="n">
         <v>0.982654</v>
       </c>
-      <c r="R31" t="n">
+      <c r="V31" t="n">
+        <v>0.303528</v>
+      </c>
+      <c r="W31" t="n">
         <v>0.198502</v>
       </c>
-      <c r="S31" t="n">
-        <v>0.114094</v>
-      </c>
-      <c r="T31" t="n">
+      <c r="X31" t="n">
         <v>0.227819</v>
       </c>
-      <c r="U31" t="n">
+      <c r="Y31" t="n">
+        <v>0.212033</v>
+      </c>
+      <c r="Z31" t="n">
         <v>23.72</v>
       </c>
     </row>
@@ -2469,54 +2934,69 @@
         <v>0.367253</v>
       </c>
       <c r="E32" t="n">
-        <v>0.115319</v>
+        <v>0.202948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06957099999999999</v>
+        <v>0.213902</v>
       </c>
       <c r="G32" t="n">
+        <v>0.178463</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.16461</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>0.004505923</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.003791979</v>
       </c>
-      <c r="I32" t="n">
-        <v>385.7349231</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
+        <v>0.001902802</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.000240078</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.000458142</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.000185565</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.000104839</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.45e-05</v>
+      </c>
+      <c r="Q32" t="n">
         <v>313.1727348</v>
       </c>
-      <c r="K32" t="n">
+      <c r="R32" t="n">
+        <v>160.925666</v>
+      </c>
+      <c r="S32" t="n">
         <v>81.1147193</v>
       </c>
-      <c r="L32" t="n">
-        <v>26.5747383</v>
-      </c>
-      <c r="M32" t="n">
-        <v>48.7655582</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13.9570566</v>
-      </c>
-      <c r="O32" t="n">
-        <v>50.2633309</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="T32" t="n">
         <v>0.813131</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="U32" t="n">
         <v>0.629174</v>
       </c>
-      <c r="R32" t="n">
+      <c r="V32" t="n">
+        <v>0.165577</v>
+      </c>
+      <c r="W32" t="n">
         <v>0.10211</v>
       </c>
-      <c r="S32" t="n">
-        <v>0.02479</v>
-      </c>
-      <c r="T32" t="n">
+      <c r="X32" t="n">
         <v>0.153657</v>
       </c>
-      <c r="U32" t="n">
+      <c r="Y32" t="n">
+        <v>0.149146</v>
+      </c>
+      <c r="Z32" t="n">
         <v>13.44</v>
       </c>
     </row>
@@ -2534,54 +3014,69 @@
         <v>0.316737</v>
       </c>
       <c r="E33" t="n">
-        <v>0.149855</v>
+        <v>0.213321</v>
       </c>
       <c r="F33" t="n">
-        <v>0.121504</v>
+        <v>0.271634</v>
       </c>
       <c r="G33" t="n">
+        <v>0.200757</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.189481</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
+        <v>0.004032057</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.003330693</v>
       </c>
-      <c r="I33" t="n">
-        <v>379.0886356</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
+        <v>0.001673209</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.000182418</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.000440319</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.000171936</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7.23e-05</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.56e-05</v>
+      </c>
+      <c r="Q33" t="n">
         <v>309.9541027</v>
       </c>
-      <c r="K33" t="n">
+      <c r="R33" t="n">
+        <v>168.8180282</v>
+      </c>
+      <c r="S33" t="n">
         <v>77.8238844</v>
       </c>
-      <c r="L33" t="n">
-        <v>39.2936021</v>
-      </c>
-      <c r="M33" t="n">
-        <v>67.3172345</v>
-      </c>
-      <c r="N33" t="n">
-        <v>30.4012869</v>
-      </c>
-      <c r="O33" t="n">
-        <v>58.1765284</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="T33" t="n">
         <v>0.8476669999999999</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="U33" t="n">
         <v>0.677885</v>
       </c>
-      <c r="R33" t="n">
+      <c r="V33" t="n">
+        <v>0.192381</v>
+      </c>
+      <c r="W33" t="n">
         <v>0.143411</v>
       </c>
-      <c r="S33" t="n">
-        <v>0.079945</v>
-      </c>
-      <c r="T33" t="n">
+      <c r="X33" t="n">
         <v>0.180138</v>
       </c>
-      <c r="U33" t="n">
+      <c r="Y33" t="n">
+        <v>0.176595</v>
+      </c>
+      <c r="Z33" t="n">
         <v>16.24</v>
       </c>
     </row>
@@ -2599,54 +3094,69 @@
         <v>0.396634</v>
       </c>
       <c r="E34" t="n">
-        <v>0.161453</v>
+        <v>0.242639</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11345</v>
+        <v>0.244894</v>
       </c>
       <c r="G34" t="n">
+        <v>0.218798</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.205912</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I34" t="n">
-        <v>379.2768155</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q34" t="n">
         <v>330.0226049</v>
       </c>
-      <c r="K34" t="n">
+      <c r="R34" t="n">
+        <v>175.2986275</v>
+      </c>
+      <c r="S34" t="n">
         <v>97.64763960000001</v>
       </c>
-      <c r="L34" t="n">
-        <v>42.6870485</v>
-      </c>
-      <c r="M34" t="n">
-        <v>62.3749193</v>
-      </c>
-      <c r="N34" t="n">
-        <v>28.9483204</v>
-      </c>
-      <c r="O34" t="n">
-        <v>63.8130995</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="T34" t="n">
         <v>0.898569</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="U34" t="n">
         <v>0.761004</v>
       </c>
-      <c r="R34" t="n">
+      <c r="V34" t="n">
+        <v>0.235873</v>
+      </c>
+      <c r="W34" t="n">
         <v>0.160808</v>
       </c>
-      <c r="S34" t="n">
-        <v>0.077045</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="X34" t="n">
         <v>0.200435</v>
       </c>
-      <c r="U34" t="n">
+      <c r="Y34" t="n">
+        <v>0.193992</v>
+      </c>
+      <c r="Z34" t="n">
         <v>15.67</v>
       </c>
     </row>
@@ -2664,54 +3174,69 @@
         <v>0.693671</v>
       </c>
       <c r="E35" t="n">
-        <v>0.243927</v>
+        <v>0.396634</v>
       </c>
       <c r="F35" t="n">
-        <v>0.185937</v>
+        <v>0.420797</v>
       </c>
       <c r="G35" t="n">
+        <v>0.248115</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.21912</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>0.005042691</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.004663176</v>
       </c>
-      <c r="I35" t="n">
-        <v>659.8480009</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
+        <v>0.002713199</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.000382659</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.000756928</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.000304029</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.000140482</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.45e-05</v>
+      </c>
+      <c r="Q35" t="n">
         <v>606.4931489000001</v>
       </c>
-      <c r="K35" t="n">
+      <c r="R35" t="n">
+        <v>338.2953151</v>
+      </c>
+      <c r="S35" t="n">
         <v>180.5398541</v>
       </c>
-      <c r="L35" t="n">
-        <v>64.935717</v>
-      </c>
-      <c r="M35" t="n">
-        <v>108.1262912</v>
-      </c>
-      <c r="N35" t="n">
-        <v>47.9415837</v>
-      </c>
-      <c r="O35" t="n">
-        <v>70.5083082</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="T35" t="n">
         <v>1.780982</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="U35" t="n">
         <v>1.618932</v>
       </c>
-      <c r="R35" t="n">
+      <c r="V35" t="n">
+        <v>0.464933</v>
+      </c>
+      <c r="W35" t="n">
         <v>0.276144</v>
       </c>
-      <c r="S35" t="n">
-        <v>0.124404</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="X35" t="n">
         <v>0.212355</v>
       </c>
-      <c r="U35" t="n">
+      <c r="Y35" t="n">
+        <v>0.196891</v>
+      </c>
+      <c r="Z35" t="n">
         <v>41.1</v>
       </c>
     </row>
@@ -2729,54 +3254,69 @@
         <v>0.796634</v>
       </c>
       <c r="E36" t="n">
-        <v>0.561453</v>
+        <v>0.642639</v>
       </c>
       <c r="F36" t="n">
-        <v>0.51345</v>
+        <v>0.644894</v>
       </c>
       <c r="G36" t="n">
+        <v>0.618798</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.605912</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I36" t="n">
-        <v>502.2368155</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q36" t="n">
         <v>452.9826049</v>
       </c>
-      <c r="K36" t="n">
+      <c r="R36" t="n">
+        <v>298.2586275</v>
+      </c>
+      <c r="S36" t="n">
         <v>220.6076396</v>
       </c>
-      <c r="L36" t="n">
-        <v>165.6470485</v>
-      </c>
-      <c r="M36" t="n">
-        <v>185.3349193</v>
-      </c>
-      <c r="N36" t="n">
-        <v>151.9083204</v>
-      </c>
-      <c r="O36" t="n">
-        <v>186.7730995</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="T36" t="n">
         <v>1.298569</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="U36" t="n">
         <v>1.161004</v>
       </c>
-      <c r="R36" t="n">
+      <c r="V36" t="n">
+        <v>0.635873</v>
+      </c>
+      <c r="W36" t="n">
         <v>0.560808</v>
       </c>
-      <c r="S36" t="n">
-        <v>0.477045</v>
-      </c>
-      <c r="T36" t="n">
+      <c r="X36" t="n">
         <v>0.6004350000000001</v>
       </c>
-      <c r="U36" t="n">
+      <c r="Y36" t="n">
+        <v>0.593992</v>
+      </c>
+      <c r="Z36" t="n">
         <v>22.31</v>
       </c>
     </row>
@@ -2794,54 +3334,69 @@
         <v>1.246634</v>
       </c>
       <c r="E37" t="n">
-        <v>1.011453</v>
+        <v>1.092639</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96345</v>
+        <v>1.094894</v>
       </c>
       <c r="G37" t="n">
+        <v>1.068798</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.055912</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I37" t="n">
-        <v>640.5668155</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q37" t="n">
         <v>591.3126049</v>
       </c>
-      <c r="K37" t="n">
+      <c r="R37" t="n">
+        <v>436.5886275</v>
+      </c>
+      <c r="S37" t="n">
         <v>358.9376396</v>
       </c>
-      <c r="L37" t="n">
-        <v>303.9770485</v>
-      </c>
-      <c r="M37" t="n">
-        <v>323.6649193</v>
-      </c>
-      <c r="N37" t="n">
-        <v>290.2383204</v>
-      </c>
-      <c r="O37" t="n">
-        <v>325.1030995</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="T37" t="n">
         <v>1.748569</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="U37" t="n">
         <v>1.611004</v>
       </c>
-      <c r="R37" t="n">
+      <c r="V37" t="n">
+        <v>1.085873</v>
+      </c>
+      <c r="W37" t="n">
         <v>1.010808</v>
       </c>
-      <c r="S37" t="n">
-        <v>0.927045</v>
-      </c>
-      <c r="T37" t="n">
+      <c r="X37" t="n">
         <v>1.050435</v>
       </c>
-      <c r="U37" t="n">
+      <c r="Y37" t="n">
+        <v>1.043992</v>
+      </c>
+      <c r="Z37" t="n">
         <v>20.17</v>
       </c>
     </row>
@@ -2859,54 +3414,69 @@
         <v>0.44657</v>
       </c>
       <c r="E38" t="n">
-        <v>0.17144</v>
+        <v>0.269378</v>
       </c>
       <c r="F38" t="n">
-        <v>0.120215</v>
+        <v>0.264546</v>
       </c>
       <c r="G38" t="n">
+        <v>0.226852</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.212355</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>0.004880195</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.004080283</v>
       </c>
-      <c r="I38" t="n">
-        <v>451.0926031</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
+        <v>0.002021269</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.000255802</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.000450804</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.000185565</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9.119999999999999e-05</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="Q38" t="n">
         <v>365.1415521</v>
       </c>
-      <c r="K38" t="n">
+      <c r="R38" t="n">
+        <v>191.4658281</v>
+      </c>
+      <c r="S38" t="n">
         <v>104.8246686</v>
       </c>
-      <c r="L38" t="n">
-        <v>43.901841</v>
-      </c>
-      <c r="M38" t="n">
-        <v>64.6349129</v>
-      </c>
-      <c r="N38" t="n">
-        <v>29.7306678</v>
-      </c>
-      <c r="O38" t="n">
-        <v>65.0710211</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="T38" t="n">
         <v>1.003273</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="U38" t="n">
         <v>0.777757</v>
       </c>
-      <c r="R38" t="n">
+      <c r="V38" t="n">
+        <v>0.235229</v>
+      </c>
+      <c r="W38" t="n">
         <v>0.160486</v>
       </c>
-      <c r="S38" t="n">
-        <v>0.07479</v>
-      </c>
-      <c r="T38" t="n">
+      <c r="X38" t="n">
         <v>0.201079</v>
       </c>
-      <c r="U38" t="n">
+      <c r="Y38" t="n">
+        <v>0.196569</v>
+      </c>
+      <c r="Z38" t="n">
         <v>13.29</v>
       </c>
     </row>
@@ -2924,54 +3494,69 @@
         <v>0.387871</v>
       </c>
       <c r="E39" t="n">
-        <v>0.119507</v>
+        <v>0.21519</v>
       </c>
       <c r="F39" t="n">
-        <v>0.067638</v>
+        <v>0.207458</v>
       </c>
       <c r="G39" t="n">
+        <v>0.178785</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.165254</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>0.004715597</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.003928266</v>
       </c>
-      <c r="I39" t="n">
-        <v>432.0847338</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
+        <v>0.001955223</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.000246368</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.000432981</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.000172981</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9.44e-05</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.56e-05</v>
+      </c>
+      <c r="Q39" t="n">
         <v>345.92366</v>
       </c>
-      <c r="K39" t="n">
+      <c r="R39" t="n">
+        <v>174.2385717</v>
+      </c>
+      <c r="S39" t="n">
         <v>88.3899723</v>
       </c>
-      <c r="L39" t="n">
-        <v>28.117984</v>
-      </c>
-      <c r="M39" t="n">
-        <v>47.8308211</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13.8327651</v>
-      </c>
-      <c r="O39" t="n">
-        <v>50.5388788</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="T39" t="n">
         <v>0.968093</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="U39" t="n">
         <v>0.7390330000000001</v>
       </c>
-      <c r="R39" t="n">
+      <c r="V39" t="n">
+        <v>0.187162</v>
+      </c>
+      <c r="W39" t="n">
         <v>0.111775</v>
       </c>
-      <c r="S39" t="n">
-        <v>0.025112</v>
-      </c>
-      <c r="T39" t="n">
+      <c r="X39" t="n">
         <v>0.153012</v>
       </c>
-      <c r="U39" t="n">
+      <c r="Y39" t="n">
+        <v>0.148824</v>
+      </c>
+      <c r="Z39" t="n">
         <v>19.54</v>
       </c>
     </row>
@@ -2989,54 +3574,69 @@
         <v>0.483555</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1572</v>
+        <v>0.274791</v>
       </c>
       <c r="F40" t="n">
-        <v>0.118218</v>
+        <v>0.332781</v>
       </c>
       <c r="G40" t="n">
+        <v>0.201015</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.175886</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>0.004937852</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.004417859</v>
       </c>
-      <c r="I40" t="n">
-        <v>597.0601849</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
+        <v>0.00240917</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.000289352</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.000666769</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.000254754</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.000145724</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6.71e-05</v>
+      </c>
+      <c r="Q40" t="n">
         <v>511.2636887</v>
       </c>
-      <c r="K40" t="n">
+      <c r="R40" t="n">
+        <v>268.9465393</v>
+      </c>
+      <c r="S40" t="n">
         <v>121.6195841</v>
       </c>
-      <c r="L40" t="n">
-        <v>39.2998118</v>
-      </c>
-      <c r="M40" t="n">
-        <v>81.2627523</v>
-      </c>
-      <c r="N40" t="n">
-        <v>27.1293187</v>
-      </c>
-      <c r="O40" t="n">
-        <v>55.9835781</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="T40" t="n">
         <v>1.552824</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="U40" t="n">
         <v>1.289937</v>
       </c>
-      <c r="R40" t="n">
+      <c r="V40" t="n">
+        <v>0.29541</v>
+      </c>
+      <c r="W40" t="n">
         <v>0.170731</v>
       </c>
-      <c r="S40" t="n">
-        <v>0.060228</v>
-      </c>
-      <c r="T40" t="n">
+      <c r="X40" t="n">
         <v>0.168154</v>
       </c>
-      <c r="U40" t="n">
+      <c r="Y40" t="n">
+        <v>0.156878</v>
+      </c>
+      <c r="Z40" t="n">
         <v>35.55</v>
       </c>
     </row>
@@ -3054,54 +3654,69 @@
         <v>1.063776</v>
       </c>
       <c r="E41" t="n">
-        <v>0.302497</v>
+        <v>0.5866479999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.283812</v>
+        <v>0.785102</v>
       </c>
       <c r="G41" t="n">
+        <v>0.287355</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.215835</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>0.005246075</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.005115028</v>
       </c>
-      <c r="I41" t="n">
-        <v>724.2471466</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
+        <v>0.003605366</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.000646847</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.001660628</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.000640556</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.000358542</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.000183469</v>
+      </c>
+      <c r="Q41" t="n">
         <v>713.1513617000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="R41" t="n">
+        <v>439.0799955</v>
+      </c>
+      <c r="S41" t="n">
         <v>265.9010997</v>
       </c>
-      <c r="L41" t="n">
-        <v>74.84033909999999</v>
-      </c>
-      <c r="M41" t="n">
-        <v>191.2734994</v>
-      </c>
-      <c r="N41" t="n">
-        <v>67.74846530000001</v>
-      </c>
-      <c r="O41" t="n">
-        <v>75.68088</v>
-      </c>
-      <c r="P41" t="n">
+      <c r="T41" t="n">
         <v>1.985171</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="U41" t="n">
         <v>1.92847</v>
       </c>
-      <c r="R41" t="n">
+      <c r="V41" t="n">
+        <v>0.651081</v>
+      </c>
+      <c r="W41" t="n">
         <v>0.358554</v>
       </c>
-      <c r="S41" t="n">
-        <v>0.156234</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="X41" t="n">
         <v>0.20778</v>
       </c>
-      <c r="U41" t="n">
+      <c r="Y41" t="n">
+        <v>0.174919</v>
+      </c>
+      <c r="Z41" t="n">
         <v>36.28</v>
       </c>
     </row>
@@ -3119,54 +3734,69 @@
         <v>0.770927</v>
       </c>
       <c r="E42" t="n">
-        <v>0.267703</v>
+        <v>0.453593</v>
       </c>
       <c r="F42" t="n">
-        <v>0.219378</v>
+        <v>0.581493</v>
       </c>
       <c r="G42" t="n">
+        <v>0.266737</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.212291</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>0.008205643</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.007696131</v>
       </c>
-      <c r="I42" t="n">
-        <v>779.7912619</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
+        <v>0.004697774</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.000690882</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.001487647</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.000610156</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.000372174</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.000206531</v>
+      </c>
+      <c r="Q42" t="n">
         <v>696.2133129</v>
       </c>
-      <c r="K42" t="n">
+      <c r="R42" t="n">
+        <v>393.4319214</v>
+      </c>
+      <c r="S42" t="n">
         <v>176.0978917</v>
       </c>
-      <c r="L42" t="n">
-        <v>58.8248123</v>
-      </c>
-      <c r="M42" t="n">
-        <v>128.3126814</v>
-      </c>
-      <c r="N42" t="n">
-        <v>46.247506</v>
-      </c>
-      <c r="O42" t="n">
-        <v>67.9549392</v>
-      </c>
-      <c r="P42" t="n">
+      <c r="T42" t="n">
         <v>1.874346</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="U42" t="n">
         <v>1.57892</v>
       </c>
-      <c r="R42" t="n">
+      <c r="V42" t="n">
+        <v>0.373696</v>
+      </c>
+      <c r="W42" t="n">
         <v>0.219056</v>
       </c>
-      <c r="S42" t="n">
-        <v>0.089223</v>
-      </c>
-      <c r="T42" t="n">
+      <c r="X42" t="n">
         <v>0.18394</v>
       </c>
-      <c r="U42" t="n">
+      <c r="Y42" t="n">
+        <v>0.162677</v>
+      </c>
+      <c r="Z42" t="n">
         <v>43.85</v>
       </c>
     </row>
@@ -3184,54 +3814,69 @@
         <v>0.466737</v>
       </c>
       <c r="E43" t="n">
-        <v>0.299855</v>
+        <v>0.363321</v>
       </c>
       <c r="F43" t="n">
-        <v>0.271504</v>
+        <v>0.421634</v>
       </c>
       <c r="G43" t="n">
+        <v>0.350757</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.339481</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
+        <v>0.004032057</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.003330693</v>
       </c>
-      <c r="I43" t="n">
-        <v>425.1986356</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
+        <v>0.001673209</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.000182418</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.000440319</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.000171936</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7.23e-05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.56e-05</v>
+      </c>
+      <c r="Q43" t="n">
         <v>356.0641027</v>
       </c>
-      <c r="K43" t="n">
+      <c r="R43" t="n">
+        <v>214.9280282</v>
+      </c>
+      <c r="S43" t="n">
         <v>123.9338844</v>
       </c>
-      <c r="L43" t="n">
-        <v>85.4036021</v>
-      </c>
-      <c r="M43" t="n">
-        <v>113.4272345</v>
-      </c>
-      <c r="N43" t="n">
-        <v>76.5112869</v>
-      </c>
-      <c r="O43" t="n">
-        <v>104.2865284</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="T43" t="n">
         <v>0.997667</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="U43" t="n">
         <v>0.827885</v>
       </c>
-      <c r="R43" t="n">
+      <c r="V43" t="n">
+        <v>0.342381</v>
+      </c>
+      <c r="W43" t="n">
         <v>0.293411</v>
       </c>
-      <c r="S43" t="n">
-        <v>0.229945</v>
-      </c>
-      <c r="T43" t="n">
+      <c r="X43" t="n">
         <v>0.330138</v>
       </c>
-      <c r="U43" t="n">
+      <c r="Y43" t="n">
+        <v>0.326595</v>
+      </c>
+      <c r="Z43" t="n">
         <v>19.14</v>
       </c>
     </row>
@@ -3249,54 +3894,69 @@
         <v>0.631751</v>
       </c>
       <c r="E44" t="n">
-        <v>0.184262</v>
+        <v>0.34599</v>
       </c>
       <c r="F44" t="n">
-        <v>0.145602</v>
+        <v>0.416544</v>
       </c>
       <c r="G44" t="n">
+        <v>0.214868</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.182007</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
+        <v>0.005249219</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.005021725</v>
       </c>
-      <c r="I44" t="n">
-        <v>507.2455375</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
+        <v>0.002871507</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.000416206</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.000933056</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.000373222</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.000197094</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.000104836</v>
+      </c>
+      <c r="Q44" t="n">
         <v>481.0367752</v>
       </c>
-      <c r="K44" t="n">
+      <c r="R44" t="n">
+        <v>267.8235011</v>
+      </c>
+      <c r="S44" t="n">
         <v>146.0195185</v>
       </c>
-      <c r="L44" t="n">
-        <v>43.2133464</v>
-      </c>
-      <c r="M44" t="n">
-        <v>96.11929379999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>31.9442939</v>
-      </c>
-      <c r="O44" t="n">
-        <v>57.8667425</v>
-      </c>
-      <c r="P44" t="n">
+      <c r="T44" t="n">
         <v>1.169124</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="U44" t="n">
         <v>1.078596</v>
       </c>
-      <c r="R44" t="n">
+      <c r="V44" t="n">
+        <v>0.311518</v>
+      </c>
+      <c r="W44" t="n">
         <v>0.180396</v>
       </c>
-      <c r="S44" t="n">
-        <v>0.063772</v>
-      </c>
-      <c r="T44" t="n">
+      <c r="X44" t="n">
         <v>0.166865</v>
       </c>
-      <c r="U44" t="n">
+      <c r="Y44" t="n">
+        <v>0.152368</v>
+      </c>
+      <c r="Z44" t="n">
         <v>25.42</v>
       </c>
     </row>
@@ -3314,54 +3974,69 @@
         <v>0.324405</v>
       </c>
       <c r="E45" t="n">
-        <v>0.12144</v>
+        <v>0.200371</v>
       </c>
       <c r="F45" t="n">
-        <v>0.10211</v>
+        <v>0.303786</v>
       </c>
       <c r="G45" t="n">
+        <v>0.170087</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.151079</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
+        <v>0.005303739</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.004455604</v>
       </c>
-      <c r="I45" t="n">
-        <v>397.7070627</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
+        <v>0.002331591</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.000264191</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.000699268</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.000274673</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.000127901</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5.03e-05</v>
+      </c>
+      <c r="Q45" t="n">
         <v>320.1378358</v>
       </c>
-      <c r="K45" t="n">
+      <c r="R45" t="n">
+        <v>175.5874501</v>
+      </c>
+      <c r="S45" t="n">
         <v>69.5143491</v>
       </c>
-      <c r="L45" t="n">
-        <v>26.8429464</v>
-      </c>
-      <c r="M45" t="n">
-        <v>67.5174337</v>
-      </c>
-      <c r="N45" t="n">
-        <v>20.5954587</v>
-      </c>
-      <c r="O45" t="n">
-        <v>47.0831128</v>
-      </c>
-      <c r="P45" t="n">
+      <c r="T45" t="n">
         <v>0.685231</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="U45" t="n">
         <v>0.52157</v>
       </c>
-      <c r="R45" t="n">
+      <c r="V45" t="n">
+        <v>0.119507</v>
+      </c>
+      <c r="W45" t="n">
         <v>0.085357</v>
       </c>
-      <c r="S45" t="n">
-        <v>0.034133</v>
-      </c>
-      <c r="T45" t="n">
+      <c r="X45" t="n">
         <v>0.139159</v>
       </c>
-      <c r="U45" t="n">
+      <c r="Y45" t="n">
+        <v>0.134004</v>
+      </c>
+      <c r="Z45" t="n">
         <v>19.79</v>
       </c>
     </row>
@@ -3379,54 +4054,69 @@
         <v>0.346634</v>
       </c>
       <c r="E46" t="n">
-        <v>0.111453</v>
+        <v>0.192639</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06345000000000001</v>
+        <v>0.194894</v>
       </c>
       <c r="G46" t="n">
+        <v>0.168798</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.155912</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I46" t="n">
-        <v>363.9068155</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q46" t="n">
         <v>314.6526049</v>
       </c>
-      <c r="K46" t="n">
+      <c r="R46" t="n">
+        <v>159.9286275</v>
+      </c>
+      <c r="S46" t="n">
         <v>82.2776396</v>
       </c>
-      <c r="L46" t="n">
-        <v>27.3170485</v>
-      </c>
-      <c r="M46" t="n">
-        <v>47.0049193</v>
-      </c>
-      <c r="N46" t="n">
-        <v>13.5783204</v>
-      </c>
-      <c r="O46" t="n">
-        <v>48.4430995</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="T46" t="n">
         <v>0.848569</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="U46" t="n">
         <v>0.711004</v>
       </c>
-      <c r="R46" t="n">
+      <c r="V46" t="n">
+        <v>0.185873</v>
+      </c>
+      <c r="W46" t="n">
         <v>0.110808</v>
       </c>
-      <c r="S46" t="n">
-        <v>0.027045</v>
-      </c>
-      <c r="T46" t="n">
+      <c r="X46" t="n">
         <v>0.150435</v>
       </c>
-      <c r="U46" t="n">
+      <c r="Y46" t="n">
+        <v>0.143992</v>
+      </c>
+      <c r="Z46" t="n">
         <v>13.79</v>
       </c>
     </row>
@@ -3444,54 +4134,69 @@
         <v>0.446634</v>
       </c>
       <c r="E47" t="n">
-        <v>0.211453</v>
+        <v>0.292639</v>
       </c>
       <c r="F47" t="n">
-        <v>0.16345</v>
+        <v>0.294894</v>
       </c>
       <c r="G47" t="n">
+        <v>0.268798</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.255912</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I47" t="n">
-        <v>394.6468155</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q47" t="n">
         <v>345.3926049</v>
       </c>
-      <c r="K47" t="n">
+      <c r="R47" t="n">
+        <v>190.6686275</v>
+      </c>
+      <c r="S47" t="n">
         <v>113.0176396</v>
       </c>
-      <c r="L47" t="n">
-        <v>58.0570485</v>
-      </c>
-      <c r="M47" t="n">
-        <v>77.74491930000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>44.3183204</v>
-      </c>
-      <c r="O47" t="n">
-        <v>79.1830995</v>
-      </c>
-      <c r="P47" t="n">
+      <c r="T47" t="n">
         <v>0.948569</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="U47" t="n">
         <v>0.8110039999999999</v>
       </c>
-      <c r="R47" t="n">
+      <c r="V47" t="n">
+        <v>0.285873</v>
+      </c>
+      <c r="W47" t="n">
         <v>0.210808</v>
       </c>
-      <c r="S47" t="n">
-        <v>0.127045</v>
-      </c>
-      <c r="T47" t="n">
+      <c r="X47" t="n">
         <v>0.250435</v>
       </c>
-      <c r="U47" t="n">
+      <c r="Y47" t="n">
+        <v>0.243992</v>
+      </c>
+      <c r="Z47" t="n">
         <v>15.9</v>
       </c>
     </row>
@@ -3509,54 +4214,69 @@
         <v>1.296634</v>
       </c>
       <c r="E48" t="n">
-        <v>1.061453</v>
+        <v>1.142639</v>
       </c>
       <c r="F48" t="n">
-        <v>1.01345</v>
+        <v>1.144894</v>
       </c>
       <c r="G48" t="n">
+        <v>1.118798</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.105912</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I48" t="n">
-        <v>655.9368155</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q48" t="n">
         <v>606.6826049</v>
       </c>
-      <c r="K48" t="n">
+      <c r="R48" t="n">
+        <v>451.9586275</v>
+      </c>
+      <c r="S48" t="n">
         <v>374.3076396</v>
       </c>
-      <c r="L48" t="n">
-        <v>319.3470485</v>
-      </c>
-      <c r="M48" t="n">
-        <v>339.0349193</v>
-      </c>
-      <c r="N48" t="n">
-        <v>305.6083204</v>
-      </c>
-      <c r="O48" t="n">
-        <v>340.4730995</v>
-      </c>
-      <c r="P48" t="n">
+      <c r="T48" t="n">
         <v>1.798569</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="U48" t="n">
         <v>1.661004</v>
       </c>
-      <c r="R48" t="n">
+      <c r="V48" t="n">
+        <v>1.135873</v>
+      </c>
+      <c r="W48" t="n">
         <v>1.060808</v>
       </c>
-      <c r="S48" t="n">
-        <v>0.9770450000000001</v>
-      </c>
-      <c r="T48" t="n">
+      <c r="X48" t="n">
         <v>1.100435</v>
       </c>
-      <c r="U48" t="n">
+      <c r="Y48" t="n">
+        <v>1.093992</v>
+      </c>
+      <c r="Z48" t="n">
         <v>30.71</v>
       </c>
     </row>
@@ -3574,54 +4294,69 @@
         <v>0.646634</v>
       </c>
       <c r="E49" t="n">
-        <v>0.411453</v>
+        <v>0.492639</v>
       </c>
       <c r="F49" t="n">
-        <v>0.36345</v>
+        <v>0.494894</v>
       </c>
       <c r="G49" t="n">
+        <v>0.468798</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.455912</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I49" t="n">
-        <v>456.1268155</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
+        <v>0.001664823</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.000217016</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.000389997</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.000158305</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9.02e-05</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.72e-05</v>
+      </c>
+      <c r="Q49" t="n">
         <v>406.8726049</v>
       </c>
-      <c r="K49" t="n">
+      <c r="R49" t="n">
+        <v>252.1486275</v>
+      </c>
+      <c r="S49" t="n">
         <v>174.4976396</v>
       </c>
-      <c r="L49" t="n">
-        <v>119.5370485</v>
-      </c>
-      <c r="M49" t="n">
-        <v>139.2249193</v>
-      </c>
-      <c r="N49" t="n">
-        <v>105.7983204</v>
-      </c>
-      <c r="O49" t="n">
-        <v>140.6630995</v>
-      </c>
-      <c r="P49" t="n">
+      <c r="T49" t="n">
         <v>1.148569</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="U49" t="n">
         <v>1.011004</v>
       </c>
-      <c r="R49" t="n">
+      <c r="V49" t="n">
+        <v>0.485873</v>
+      </c>
+      <c r="W49" t="n">
         <v>0.410808</v>
       </c>
-      <c r="S49" t="n">
-        <v>0.327045</v>
-      </c>
-      <c r="T49" t="n">
+      <c r="X49" t="n">
         <v>0.450435</v>
       </c>
-      <c r="U49" t="n">
+      <c r="Y49" t="n">
+        <v>0.443992</v>
+      </c>
+      <c r="Z49" t="n">
         <v>19.27</v>
       </c>
     </row>
@@ -3639,54 +4374,69 @@
         <v>0.716737</v>
       </c>
       <c r="E50" t="n">
-        <v>0.549855</v>
+        <v>0.613321</v>
       </c>
       <c r="F50" t="n">
-        <v>0.521504</v>
+        <v>0.671634</v>
       </c>
       <c r="G50" t="n">
+        <v>0.600757</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.589481</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
+        <v>0.004032057</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.003330693</v>
       </c>
-      <c r="I50" t="n">
-        <v>502.0486356</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
+        <v>0.001673209</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.000182418</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.000440319</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.000171936</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7.23e-05</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3.56e-05</v>
+      </c>
+      <c r="Q50" t="n">
         <v>432.9141027</v>
       </c>
-      <c r="K50" t="n">
+      <c r="R50" t="n">
+        <v>291.7780282</v>
+      </c>
+      <c r="S50" t="n">
         <v>200.7838844</v>
       </c>
-      <c r="L50" t="n">
-        <v>162.2536021</v>
-      </c>
-      <c r="M50" t="n">
-        <v>190.2772345</v>
-      </c>
-      <c r="N50" t="n">
-        <v>153.3612869</v>
-      </c>
-      <c r="O50" t="n">
-        <v>181.1365284</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="T50" t="n">
         <v>1.247667</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="U50" t="n">
         <v>1.077885</v>
       </c>
-      <c r="R50" t="n">
+      <c r="V50" t="n">
+        <v>0.592381</v>
+      </c>
+      <c r="W50" t="n">
         <v>0.543411</v>
       </c>
-      <c r="S50" t="n">
-        <v>0.479945</v>
-      </c>
-      <c r="T50" t="n">
+      <c r="X50" t="n">
         <v>0.580138</v>
       </c>
-      <c r="U50" t="n">
+      <c r="Y50" t="n">
+        <v>0.576595</v>
+      </c>
+      <c r="Z50" t="n">
         <v>23.16</v>
       </c>
     </row>
@@ -3704,3239 +4454,3909 @@
         <v>0.890128</v>
       </c>
       <c r="E51" t="n">
-        <v>0.265126</v>
+        <v>0.481622</v>
       </c>
       <c r="F51" t="n">
-        <v>0.194894</v>
+        <v>0.525114</v>
       </c>
       <c r="G51" t="n">
+        <v>0.257394</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.208103</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
+        <v>0.008407978999999999</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.007977097000000001</v>
       </c>
-      <c r="I51" t="n">
-        <v>719.6707989</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
+        <v>0.004645356</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.000709749</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.001377566</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.00056193</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.000340722</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.00018137</v>
+      </c>
+      <c r="Q51" t="n">
         <v>644.2043094000001</v>
       </c>
-      <c r="K51" t="n">
+      <c r="R51" t="n">
+        <v>350.4731933</v>
+      </c>
+      <c r="S51" t="n">
         <v>185.251889</v>
       </c>
-      <c r="L51" t="n">
-        <v>54.7618433</v>
-      </c>
-      <c r="M51" t="n">
-        <v>109.5836469</v>
-      </c>
-      <c r="N51" t="n">
-        <v>38.3653205</v>
-      </c>
-      <c r="O51" t="n">
-        <v>65.2008003</v>
-      </c>
-      <c r="P51" t="n">
+      <c r="T51" t="n">
         <v>1.553146</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="U51" t="n">
         <v>1.294769</v>
       </c>
-      <c r="R51" t="n">
+      <c r="V51" t="n">
+        <v>0.339224</v>
+      </c>
+      <c r="W51" t="n">
         <v>0.190383</v>
       </c>
-      <c r="S51" t="n">
-        <v>0.064094</v>
-      </c>
-      <c r="T51" t="n">
+      <c r="X51" t="n">
         <v>0.177175</v>
       </c>
-      <c r="U51" t="n">
+      <c r="Y51" t="n">
+        <v>0.161388</v>
+      </c>
+      <c r="Z51" t="n">
         <v>30.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.046383</v>
+        <v>2.025504</v>
       </c>
       <c r="B52" t="n">
-        <v>1.980339</v>
+        <v>1.855723</v>
       </c>
       <c r="C52" t="n">
-        <v>1.130464</v>
+        <v>1.217189</v>
       </c>
       <c r="D52" t="n">
-        <v>0.631429</v>
+        <v>0.896634</v>
       </c>
       <c r="E52" t="n">
-        <v>0.184262</v>
+        <v>0.742639</v>
       </c>
       <c r="F52" t="n">
-        <v>0.145925</v>
+        <v>0.7448939999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.181041</v>
+        <v>0.718798</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005035353</v>
+        <v>0.705912</v>
       </c>
       <c r="I52" t="n">
-        <v>507.199821</v>
+        <v>0.003815044</v>
       </c>
       <c r="J52" t="n">
-        <v>481.0177665</v>
+        <v>0.003352711</v>
       </c>
       <c r="K52" t="n">
-        <v>146.0077576</v>
+        <v>0.001664823</v>
       </c>
       <c r="L52" t="n">
-        <v>43.2122495</v>
+        <v>0.000217016</v>
       </c>
       <c r="M52" t="n">
-        <v>96.11748660000001</v>
+        <v>0.000389997</v>
       </c>
       <c r="N52" t="n">
-        <v>31.943004</v>
+        <v>0.000158305</v>
       </c>
       <c r="O52" t="n">
-        <v>57.8669979</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P52" t="n">
-        <v>1.16848</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.078273</v>
+        <v>483.7226049</v>
       </c>
       <c r="R52" t="n">
-        <v>0.180396</v>
+        <v>328.9986275</v>
       </c>
       <c r="S52" t="n">
-        <v>0.064739</v>
+        <v>251.3476396</v>
       </c>
       <c r="T52" t="n">
-        <v>0.166865</v>
+        <v>1.398569</v>
       </c>
       <c r="U52" t="n">
-        <v>24.76</v>
+        <v>1.261004</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.735873</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.660808</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.700435</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.6939920000000001</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>23.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.025504</v>
+        <v>2.269966</v>
       </c>
       <c r="B53" t="n">
-        <v>1.855723</v>
+        <v>2.222285</v>
       </c>
       <c r="C53" t="n">
-        <v>1.217189</v>
+        <v>1.309267</v>
       </c>
       <c r="D53" t="n">
-        <v>0.896634</v>
+        <v>0.751597</v>
       </c>
       <c r="E53" t="n">
-        <v>0.661453</v>
+        <v>0.410745</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6134500000000001</v>
+        <v>0.509006</v>
       </c>
       <c r="G53" t="n">
-        <v>0.705912</v>
+        <v>0.226788</v>
       </c>
       <c r="H53" t="n">
-        <v>0.003352711</v>
+        <v>0.184262</v>
       </c>
       <c r="I53" t="n">
-        <v>532.9768155</v>
+        <v>0.005369785</v>
       </c>
       <c r="J53" t="n">
-        <v>483.7226049</v>
+        <v>0.005138093</v>
       </c>
       <c r="K53" t="n">
-        <v>251.3476396</v>
+        <v>0.003123114</v>
       </c>
       <c r="L53" t="n">
-        <v>196.3870485</v>
+        <v>0.000481207</v>
       </c>
       <c r="M53" t="n">
-        <v>216.0749193</v>
+        <v>0.001123859</v>
       </c>
       <c r="N53" t="n">
-        <v>182.6483204</v>
+        <v>0.000436124</v>
       </c>
       <c r="O53" t="n">
-        <v>217.5130995</v>
+        <v>0.00023274</v>
       </c>
       <c r="P53" t="n">
-        <v>1.398569</v>
+        <v>0.000114273</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.261004</v>
+        <v>566.1388451</v>
       </c>
       <c r="R53" t="n">
-        <v>0.660808</v>
+        <v>322.8309536</v>
       </c>
       <c r="S53" t="n">
-        <v>0.577045</v>
+        <v>180.4031896</v>
       </c>
       <c r="T53" t="n">
-        <v>0.700435</v>
+        <v>1.458107</v>
       </c>
       <c r="U53" t="n">
-        <v>23.8</v>
+        <v>1.377888</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.410101</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.229366</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.170087</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.15269</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>27.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.269966</v>
+        <v>1.876923</v>
       </c>
       <c r="B54" t="n">
-        <v>2.222285</v>
+        <v>1.620801</v>
       </c>
       <c r="C54" t="n">
-        <v>1.309267</v>
+        <v>0.852113</v>
       </c>
       <c r="D54" t="n">
-        <v>0.751597</v>
+        <v>0.406879</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217123</v>
+        <v>0.23001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.180718</v>
+        <v>0.262227</v>
       </c>
       <c r="G54" t="n">
-        <v>0.184262</v>
+        <v>0.183296</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005138093</v>
+        <v>0.165254</v>
       </c>
       <c r="I54" t="n">
-        <v>587.6912108</v>
+        <v>0.004614953</v>
       </c>
       <c r="J54" t="n">
-        <v>566.1388451</v>
+        <v>0.004006896</v>
       </c>
       <c r="K54" t="n">
-        <v>180.4031896</v>
+        <v>0.00207998</v>
       </c>
       <c r="L54" t="n">
-        <v>52.3295515</v>
+        <v>0.000265239</v>
       </c>
       <c r="M54" t="n">
-        <v>120.4411665</v>
+        <v>0.0005504</v>
       </c>
       <c r="N54" t="n">
-        <v>41.2511903</v>
+        <v>0.000229593</v>
       </c>
       <c r="O54" t="n">
-        <v>60.6409153</v>
+        <v>0.000117416</v>
       </c>
       <c r="P54" t="n">
-        <v>1.458107</v>
+        <v>5.45e-05</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.377888</v>
+        <v>402.9192621</v>
       </c>
       <c r="R54" t="n">
-        <v>0.229366</v>
+        <v>208.5996905</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08890099999999999</v>
+        <v>98.1417532</v>
       </c>
       <c r="T54" t="n">
-        <v>0.170087</v>
+        <v>1.167836</v>
       </c>
       <c r="U54" t="n">
-        <v>27.95</v>
+        <v>0.95134</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.224533</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.132394</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.1601</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.152046</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.876923</v>
+        <v>1.974217</v>
       </c>
       <c r="B55" t="n">
-        <v>1.620801</v>
+        <v>1.797348</v>
       </c>
       <c r="C55" t="n">
-        <v>0.852113</v>
+        <v>0.990966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406879</v>
+        <v>0.528014</v>
       </c>
       <c r="E55" t="n">
-        <v>0.130461</v>
+        <v>0.291866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.089223</v>
+        <v>0.42782</v>
       </c>
       <c r="G55" t="n">
-        <v>0.165254</v>
+        <v>0.241608</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004006896</v>
+        <v>0.200371</v>
       </c>
       <c r="I55" t="n">
-        <v>479.2096811</v>
+        <v>0.005012288</v>
       </c>
       <c r="J55" t="n">
-        <v>402.9192621</v>
+        <v>0.004576163</v>
       </c>
       <c r="K55" t="n">
-        <v>98.1417532</v>
+        <v>0.002511913</v>
       </c>
       <c r="L55" t="n">
-        <v>32.0846257</v>
+        <v>0.000360641</v>
       </c>
       <c r="M55" t="n">
-        <v>62.992577</v>
+        <v>0.000952974</v>
       </c>
       <c r="N55" t="n">
-        <v>19.6582384</v>
+        <v>0.000370078</v>
       </c>
       <c r="O55" t="n">
-        <v>52.2824968</v>
+        <v>0.000262096</v>
       </c>
       <c r="P55" t="n">
-        <v>1.167836</v>
+        <v>0.000138383</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.95134</v>
+        <v>426.2864214</v>
       </c>
       <c r="R55" t="n">
-        <v>0.132394</v>
+        <v>230.3893367</v>
       </c>
       <c r="S55" t="n">
-        <v>0.03961</v>
+        <v>120.3887527</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1601</v>
+        <v>1.089227</v>
       </c>
       <c r="U55" t="n">
-        <v>20.6</v>
+        <v>0.932654</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.253528</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.148502</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.177819</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.162033</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>22.88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.974217</v>
+        <v>2.125504</v>
       </c>
       <c r="B56" t="n">
-        <v>1.797348</v>
+        <v>1.955723</v>
       </c>
       <c r="C56" t="n">
-        <v>0.990966</v>
+        <v>1.317189</v>
       </c>
       <c r="D56" t="n">
-        <v>0.528014</v>
+        <v>0.996634</v>
       </c>
       <c r="E56" t="n">
-        <v>0.159455</v>
+        <v>0.842639</v>
       </c>
       <c r="F56" t="n">
-        <v>0.145602</v>
+        <v>0.844894</v>
       </c>
       <c r="G56" t="n">
-        <v>0.200371</v>
+        <v>0.818798</v>
       </c>
       <c r="H56" t="n">
-        <v>0.004576163</v>
+        <v>0.805912</v>
       </c>
       <c r="I56" t="n">
-        <v>481.9993143</v>
+        <v>0.003815044</v>
       </c>
       <c r="J56" t="n">
-        <v>426.2864214</v>
+        <v>0.003352711</v>
       </c>
       <c r="K56" t="n">
-        <v>120.3887527</v>
+        <v>0.001664823</v>
       </c>
       <c r="L56" t="n">
-        <v>36.6805977</v>
+        <v>0.000217016</v>
       </c>
       <c r="M56" t="n">
-        <v>99.09823179999999</v>
+        <v>0.000389997</v>
       </c>
       <c r="N56" t="n">
-        <v>31.7426806</v>
+        <v>0.000158305</v>
       </c>
       <c r="O56" t="n">
-        <v>63.9407067</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P56" t="n">
-        <v>1.089227</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.932654</v>
+        <v>514.4626049</v>
       </c>
       <c r="R56" t="n">
-        <v>0.148502</v>
+        <v>359.7386275</v>
       </c>
       <c r="S56" t="n">
-        <v>0.064094</v>
+        <v>282.0876396</v>
       </c>
       <c r="T56" t="n">
-        <v>0.177819</v>
+        <v>1.498569</v>
       </c>
       <c r="U56" t="n">
-        <v>22.88</v>
+        <v>1.361004</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.835873</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.760808</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.800435</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.793992</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.125504</v>
+        <v>1.994836</v>
       </c>
       <c r="B57" t="n">
-        <v>1.955723</v>
+        <v>1.693611</v>
       </c>
       <c r="C57" t="n">
-        <v>1.317189</v>
+        <v>0.944252</v>
       </c>
       <c r="D57" t="n">
-        <v>0.996634</v>
+        <v>0.497408</v>
       </c>
       <c r="E57" t="n">
-        <v>0.761453</v>
+        <v>0.278657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.71345</v>
+        <v>0.381106</v>
       </c>
       <c r="G57" t="n">
-        <v>0.805912</v>
+        <v>0.222278</v>
       </c>
       <c r="H57" t="n">
-        <v>0.003352711</v>
+        <v>0.186195</v>
       </c>
       <c r="I57" t="n">
-        <v>563.7168155000001</v>
+        <v>0.005038497</v>
       </c>
       <c r="J57" t="n">
-        <v>514.4626049</v>
+        <v>0.004330846</v>
       </c>
       <c r="K57" t="n">
-        <v>282.0876396</v>
+        <v>0.002398689</v>
       </c>
       <c r="L57" t="n">
-        <v>227.1270485</v>
+        <v>0.000338627</v>
       </c>
       <c r="M57" t="n">
-        <v>246.8149193</v>
+        <v>0.000849186</v>
       </c>
       <c r="N57" t="n">
-        <v>213.3883204</v>
+        <v>0.000331289</v>
       </c>
       <c r="O57" t="n">
-        <v>248.2530995</v>
+        <v>0.000202336</v>
       </c>
       <c r="P57" t="n">
-        <v>1.498569</v>
+        <v>9.75e-05</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.361004</v>
+        <v>400.0648721</v>
       </c>
       <c r="R57" t="n">
-        <v>0.760808</v>
+        <v>219.2012445</v>
       </c>
       <c r="S57" t="n">
-        <v>0.677045</v>
+        <v>112.7401389</v>
       </c>
       <c r="T57" t="n">
-        <v>0.800435</v>
+        <v>1.140774</v>
       </c>
       <c r="U57" t="n">
-        <v>24.75</v>
+        <v>0.890773</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.248051</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.146891</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.174597</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.159778</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>23.46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.994836</v>
+        <v>1.627695</v>
       </c>
       <c r="B58" t="n">
-        <v>1.693611</v>
+        <v>1.371895</v>
       </c>
       <c r="C58" t="n">
-        <v>0.944252</v>
+        <v>0.762357</v>
       </c>
       <c r="D58" t="n">
-        <v>0.497408</v>
+        <v>0.366737</v>
       </c>
       <c r="E58" t="n">
-        <v>0.153012</v>
+        <v>0.263321</v>
       </c>
       <c r="F58" t="n">
-        <v>0.130461</v>
+        <v>0.321634</v>
       </c>
       <c r="G58" t="n">
-        <v>0.186195</v>
+        <v>0.250757</v>
       </c>
       <c r="H58" t="n">
-        <v>0.004330846</v>
+        <v>0.239481</v>
       </c>
       <c r="I58" t="n">
-        <v>490.3018915</v>
+        <v>0.004032057</v>
       </c>
       <c r="J58" t="n">
-        <v>400.0648721</v>
+        <v>0.003330693</v>
       </c>
       <c r="K58" t="n">
-        <v>112.7401389</v>
+        <v>0.001673209</v>
       </c>
       <c r="L58" t="n">
-        <v>35.3140616</v>
+        <v>0.000182418</v>
       </c>
       <c r="M58" t="n">
-        <v>88.3298558</v>
+        <v>0.000440319</v>
       </c>
       <c r="N58" t="n">
-        <v>28.0819638</v>
+        <v>0.000171936</v>
       </c>
       <c r="O58" t="n">
-        <v>59.9291899</v>
+        <v>7.23e-05</v>
       </c>
       <c r="P58" t="n">
-        <v>1.140774</v>
+        <v>3.56e-05</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.890773</v>
+        <v>325.3241027</v>
       </c>
       <c r="R58" t="n">
-        <v>0.146891</v>
+        <v>184.1880282</v>
       </c>
       <c r="S58" t="n">
-        <v>0.057329</v>
+        <v>93.1938844</v>
       </c>
       <c r="T58" t="n">
-        <v>0.174597</v>
+        <v>0.897667</v>
       </c>
       <c r="U58" t="n">
-        <v>23.46</v>
+        <v>0.727885</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.242381</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.193411</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.230138</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.226595</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>18.67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.627695</v>
+        <v>2.613073</v>
       </c>
       <c r="B59" t="n">
-        <v>1.371895</v>
+        <v>2.395611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.762357</v>
+        <v>1.313777</v>
       </c>
       <c r="D59" t="n">
-        <v>0.366737</v>
+        <v>0.699728</v>
       </c>
       <c r="E59" t="n">
-        <v>0.199855</v>
+        <v>0.372407</v>
       </c>
       <c r="F59" t="n">
-        <v>0.171504</v>
+        <v>0.378529</v>
       </c>
       <c r="G59" t="n">
-        <v>0.239481</v>
+        <v>0.218734</v>
       </c>
       <c r="H59" t="n">
-        <v>0.003330693</v>
+        <v>0.186517</v>
       </c>
       <c r="I59" t="n">
-        <v>394.4586356</v>
+        <v>0.006270338</v>
       </c>
       <c r="J59" t="n">
-        <v>325.3241027</v>
+        <v>0.005840504</v>
       </c>
       <c r="K59" t="n">
-        <v>93.1938844</v>
+        <v>0.003284566</v>
       </c>
       <c r="L59" t="n">
-        <v>54.6636021</v>
+        <v>0.000490641</v>
       </c>
       <c r="M59" t="n">
-        <v>82.6872345</v>
+        <v>0.000880638</v>
       </c>
       <c r="N59" t="n">
-        <v>45.7712869</v>
+        <v>0.000363788</v>
       </c>
       <c r="O59" t="n">
-        <v>73.5465284</v>
+        <v>0.000230644</v>
       </c>
       <c r="P59" t="n">
-        <v>0.897667</v>
+        <v>0.000135239</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.727885</v>
+        <v>618.2690183</v>
       </c>
       <c r="R59" t="n">
-        <v>0.193411</v>
+        <v>325.8081873</v>
       </c>
       <c r="S59" t="n">
-        <v>0.129945</v>
+        <v>168.6945714</v>
       </c>
       <c r="T59" t="n">
-        <v>0.230138</v>
+        <v>1.772864</v>
       </c>
       <c r="U59" t="n">
-        <v>18.67</v>
+        <v>1.505466</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.380784</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.207136</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.164288</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.15269</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>35.38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.613073</v>
+        <v>1.609848</v>
       </c>
       <c r="B60" t="n">
-        <v>2.395611</v>
+        <v>1.35437</v>
       </c>
       <c r="C60" t="n">
-        <v>1.313777</v>
+        <v>0.699406</v>
       </c>
       <c r="D60" t="n">
-        <v>0.699728</v>
+        <v>0.360487</v>
       </c>
       <c r="E60" t="n">
-        <v>0.210358</v>
+        <v>0.200048</v>
       </c>
       <c r="F60" t="n">
-        <v>0.136904</v>
+        <v>0.211002</v>
       </c>
       <c r="G60" t="n">
-        <v>0.186517</v>
+        <v>0.17653</v>
       </c>
       <c r="H60" t="n">
-        <v>0.005840504</v>
+        <v>0.162355</v>
       </c>
       <c r="I60" t="n">
-        <v>694.9314209</v>
+        <v>0.004337133</v>
       </c>
       <c r="J60" t="n">
-        <v>618.2690183</v>
+        <v>0.003646254</v>
       </c>
       <c r="K60" t="n">
-        <v>168.6945714</v>
+        <v>0.001831513</v>
       </c>
       <c r="L60" t="n">
-        <v>50.3970972</v>
+        <v>0.000235884</v>
       </c>
       <c r="M60" t="n">
-        <v>87.60395440000001</v>
+        <v>0.000443462</v>
       </c>
       <c r="N60" t="n">
-        <v>30.1399952</v>
+        <v>0.000183466</v>
       </c>
       <c r="O60" t="n">
-        <v>58.6410355</v>
+        <v>9.33e-05</v>
       </c>
       <c r="P60" t="n">
-        <v>1.772864</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.505466</v>
+        <v>309.0129247</v>
       </c>
       <c r="R60" t="n">
-        <v>0.207136</v>
+        <v>158.5616098</v>
       </c>
       <c r="S60" t="n">
-        <v>0.059906</v>
+        <v>80.73443020000001</v>
       </c>
       <c r="T60" t="n">
-        <v>0.164288</v>
+        <v>0.809265</v>
       </c>
       <c r="U60" t="n">
-        <v>35.38</v>
+        <v>0.628852</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.166543</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.101788</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.150113</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.147858</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>16.53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.609848</v>
+        <v>1.488713</v>
       </c>
       <c r="B61" t="n">
-        <v>1.35437</v>
+        <v>1.299279</v>
       </c>
       <c r="C61" t="n">
-        <v>0.699406</v>
+        <v>0.657847</v>
       </c>
       <c r="D61" t="n">
-        <v>0.360487</v>
+        <v>0.339224</v>
       </c>
       <c r="E61" t="n">
-        <v>0.114352</v>
+        <v>0.189739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.068927</v>
+        <v>0.190061</v>
       </c>
       <c r="G61" t="n">
-        <v>0.162355</v>
+        <v>0.168476</v>
       </c>
       <c r="H61" t="n">
-        <v>0.003646254</v>
+        <v>0.157523</v>
       </c>
       <c r="I61" t="n">
-        <v>379.8775221</v>
+        <v>0.003818187</v>
       </c>
       <c r="J61" t="n">
-        <v>309.0129247</v>
+        <v>0.003311822</v>
       </c>
       <c r="K61" t="n">
-        <v>80.73443020000001</v>
+        <v>0.001629177</v>
       </c>
       <c r="L61" t="n">
-        <v>26.5994535</v>
+        <v>0.000206531</v>
       </c>
       <c r="M61" t="n">
-        <v>48.4842077</v>
+        <v>0.000367979</v>
       </c>
       <c r="N61" t="n">
-        <v>13.8455545</v>
+        <v>0.000157257</v>
       </c>
       <c r="O61" t="n">
-        <v>49.7067616</v>
+        <v>8.6e-05</v>
       </c>
       <c r="P61" t="n">
-        <v>0.809265</v>
+        <v>4.19e-05</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.628852</v>
+        <v>315.7355025</v>
       </c>
       <c r="R61" t="n">
-        <v>0.101788</v>
+        <v>158.9500117</v>
       </c>
       <c r="S61" t="n">
-        <v>0.026723</v>
+        <v>81.03987770000001</v>
       </c>
       <c r="T61" t="n">
-        <v>0.150113</v>
+        <v>0.869188</v>
       </c>
       <c r="U61" t="n">
-        <v>16.53</v>
+        <v>0.72228</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.186517</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.110486</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.147858</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.14528</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.488713</v>
+        <v>1.502566</v>
       </c>
       <c r="B62" t="n">
-        <v>1.299279</v>
+        <v>1.377566</v>
       </c>
       <c r="C62" t="n">
-        <v>0.657847</v>
+        <v>0.704883</v>
       </c>
       <c r="D62" t="n">
-        <v>0.339224</v>
+        <v>0.364031</v>
       </c>
       <c r="E62" t="n">
-        <v>0.10952</v>
+        <v>0.204881</v>
       </c>
       <c r="F62" t="n">
-        <v>0.061195</v>
+        <v>0.208425</v>
       </c>
       <c r="G62" t="n">
-        <v>0.157523</v>
+        <v>0.165254</v>
       </c>
       <c r="H62" t="n">
-        <v>0.003311822</v>
+        <v>0.152368</v>
       </c>
       <c r="I62" t="n">
-        <v>370.0523607</v>
+        <v>0.004179876</v>
       </c>
       <c r="J62" t="n">
-        <v>315.7355025</v>
+        <v>0.003800368</v>
       </c>
       <c r="K62" t="n">
-        <v>81.03987770000001</v>
+        <v>0.00188603</v>
       </c>
       <c r="L62" t="n">
-        <v>26.8289313</v>
+        <v>0.000243225</v>
       </c>
       <c r="M62" t="n">
-        <v>46.0400643</v>
+        <v>0.000447657</v>
       </c>
       <c r="N62" t="n">
-        <v>13.2101137</v>
+        <v>0.000188708</v>
       </c>
       <c r="O62" t="n">
-        <v>48.204217</v>
+        <v>7.550000000000001e-05</v>
       </c>
       <c r="P62" t="n">
-        <v>0.869188</v>
+        <v>3.35e-05</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.72228</v>
+        <v>306.4745759</v>
       </c>
       <c r="R62" t="n">
-        <v>0.110486</v>
+        <v>156.171105</v>
       </c>
       <c r="S62" t="n">
-        <v>0.026401</v>
+        <v>79.428466</v>
       </c>
       <c r="T62" t="n">
-        <v>0.147858</v>
+        <v>0.696507</v>
       </c>
       <c r="U62" t="n">
-        <v>15.32</v>
+        <v>0.600823</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.156556</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.098888</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.145925</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.142381</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>16.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.502566</v>
+        <v>1.611458</v>
       </c>
       <c r="B63" t="n">
-        <v>1.377566</v>
+        <v>1.362102</v>
       </c>
       <c r="C63" t="n">
-        <v>0.704883</v>
+        <v>0.7116479999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.364031</v>
+        <v>0.364998</v>
       </c>
       <c r="E63" t="n">
-        <v>0.113064</v>
+        <v>0.204559</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06796000000000001</v>
+        <v>0.239675</v>
       </c>
       <c r="G63" t="n">
-        <v>0.152368</v>
+        <v>0.194894</v>
       </c>
       <c r="H63" t="n">
-        <v>0.003800368</v>
+        <v>0.175886</v>
       </c>
       <c r="I63" t="n">
-        <v>342.4671072</v>
+        <v>0.004644308</v>
       </c>
       <c r="J63" t="n">
-        <v>306.4745759</v>
+        <v>0.003920931</v>
       </c>
       <c r="K63" t="n">
-        <v>79.428466</v>
+        <v>0.001970947</v>
       </c>
       <c r="L63" t="n">
-        <v>25.8620777</v>
+        <v>0.000252659</v>
       </c>
       <c r="M63" t="n">
-        <v>47.43095</v>
+        <v>0.000535721</v>
       </c>
       <c r="N63" t="n">
-        <v>13.5451725</v>
+        <v>0.000206531</v>
       </c>
       <c r="O63" t="n">
-        <v>46.9695596</v>
+        <v>0.000153062</v>
       </c>
       <c r="P63" t="n">
-        <v>0.696507</v>
+        <v>8.7e-05</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.600823</v>
+        <v>284.6292629</v>
       </c>
       <c r="R63" t="n">
-        <v>0.098888</v>
+        <v>149.4402118</v>
       </c>
       <c r="S63" t="n">
-        <v>0.023824</v>
+        <v>75.74198749999999</v>
       </c>
       <c r="T63" t="n">
-        <v>0.145925</v>
+        <v>0.635939</v>
       </c>
       <c r="U63" t="n">
-        <v>16.31</v>
+        <v>0.486776</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.137548</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.088257</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.160422</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.156234</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>16.74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.611458</v>
+        <v>1.675504</v>
       </c>
       <c r="B64" t="n">
-        <v>1.362102</v>
+        <v>1.505723</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7116479999999999</v>
+        <v>0.867189</v>
       </c>
       <c r="D64" t="n">
-        <v>0.364998</v>
+        <v>0.546634</v>
       </c>
       <c r="E64" t="n">
-        <v>0.115963</v>
+        <v>0.392639</v>
       </c>
       <c r="F64" t="n">
-        <v>0.076014</v>
+        <v>0.394894</v>
       </c>
       <c r="G64" t="n">
-        <v>0.175886</v>
+        <v>0.368798</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003920931</v>
+        <v>0.355912</v>
       </c>
       <c r="I64" t="n">
-        <v>351.684087</v>
+        <v>0.003815044</v>
       </c>
       <c r="J64" t="n">
-        <v>284.6292629</v>
+        <v>0.003352711</v>
       </c>
       <c r="K64" t="n">
-        <v>75.74198749999999</v>
+        <v>0.001664823</v>
       </c>
       <c r="L64" t="n">
-        <v>25.3635234</v>
+        <v>0.000217016</v>
       </c>
       <c r="M64" t="n">
-        <v>53.1843222</v>
+        <v>0.000389997</v>
       </c>
       <c r="N64" t="n">
-        <v>14.7249101</v>
+        <v>0.000158305</v>
       </c>
       <c r="O64" t="n">
-        <v>53.9673957</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P64" t="n">
-        <v>0.635939</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.486776</v>
+        <v>376.1326049</v>
       </c>
       <c r="R64" t="n">
-        <v>0.088257</v>
+        <v>221.4086275</v>
       </c>
       <c r="S64" t="n">
-        <v>0.026079</v>
+        <v>143.7576396</v>
       </c>
       <c r="T64" t="n">
-        <v>0.160422</v>
+        <v>1.048569</v>
       </c>
       <c r="U64" t="n">
-        <v>16.74</v>
+        <v>0.911004</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.385873</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.310808</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.350435</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.343992</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>17.78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.675504</v>
+        <v>1.975504</v>
       </c>
       <c r="B65" t="n">
-        <v>1.505723</v>
+        <v>1.805723</v>
       </c>
       <c r="C65" t="n">
-        <v>0.867189</v>
+        <v>1.167189</v>
       </c>
       <c r="D65" t="n">
-        <v>0.546634</v>
+        <v>0.846634</v>
       </c>
       <c r="E65" t="n">
-        <v>0.311453</v>
+        <v>0.692639</v>
       </c>
       <c r="F65" t="n">
-        <v>0.26345</v>
+        <v>0.694894</v>
       </c>
       <c r="G65" t="n">
-        <v>0.355912</v>
+        <v>0.668798</v>
       </c>
       <c r="H65" t="n">
+        <v>0.6559120000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I65" t="n">
-        <v>425.3868155</v>
-      </c>
-      <c r="J65" t="n">
-        <v>376.1326049</v>
-      </c>
       <c r="K65" t="n">
-        <v>143.7576396</v>
+        <v>0.001664823</v>
       </c>
       <c r="L65" t="n">
-        <v>88.7970485</v>
+        <v>0.000217016</v>
       </c>
       <c r="M65" t="n">
-        <v>108.4849193</v>
+        <v>0.000389997</v>
       </c>
       <c r="N65" t="n">
-        <v>75.0583204</v>
+        <v>0.000158305</v>
       </c>
       <c r="O65" t="n">
-        <v>109.9230995</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P65" t="n">
-        <v>1.048569</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.911004</v>
+        <v>468.3526049</v>
       </c>
       <c r="R65" t="n">
-        <v>0.310808</v>
+        <v>313.6286275</v>
       </c>
       <c r="S65" t="n">
-        <v>0.227045</v>
+        <v>235.9776396</v>
       </c>
       <c r="T65" t="n">
-        <v>0.350435</v>
+        <v>1.348569</v>
       </c>
       <c r="U65" t="n">
-        <v>17.78</v>
+        <v>1.211004</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.685873</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.610808</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.650435</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.643992</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>22.89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.975504</v>
+        <v>1.710686</v>
       </c>
       <c r="B66" t="n">
-        <v>1.805723</v>
+        <v>1.432978</v>
       </c>
       <c r="C66" t="n">
-        <v>1.167189</v>
+        <v>0.7899350000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.846634</v>
+        <v>0.346312</v>
       </c>
       <c r="E66" t="n">
-        <v>0.611453</v>
+        <v>0.210358</v>
       </c>
       <c r="F66" t="n">
-        <v>0.56345</v>
+        <v>0.348245</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6559120000000001</v>
+        <v>0.209713</v>
       </c>
       <c r="H66" t="n">
-        <v>0.003352711</v>
+        <v>0.180396</v>
       </c>
       <c r="I66" t="n">
-        <v>517.6068155</v>
+        <v>0.004713501</v>
       </c>
       <c r="J66" t="n">
-        <v>468.3526049</v>
+        <v>0.003956573</v>
       </c>
       <c r="K66" t="n">
-        <v>235.9776396</v>
+        <v>0.002117722</v>
       </c>
       <c r="L66" t="n">
-        <v>181.0170485</v>
+        <v>0.000266287</v>
       </c>
       <c r="M66" t="n">
-        <v>200.7049193</v>
+        <v>0.000787328</v>
       </c>
       <c r="N66" t="n">
-        <v>167.2783204</v>
+        <v>0.000301933</v>
       </c>
       <c r="O66" t="n">
-        <v>202.1430995</v>
+        <v>0.000190807</v>
       </c>
       <c r="P66" t="n">
-        <v>1.348569</v>
+        <v>9.85e-05</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.211004</v>
+        <v>320.6405091</v>
       </c>
       <c r="R66" t="n">
-        <v>0.610808</v>
+        <v>175.6828098</v>
       </c>
       <c r="S66" t="n">
-        <v>0.527045</v>
+        <v>76.5259397</v>
       </c>
       <c r="T66" t="n">
-        <v>0.650435</v>
+        <v>0.820218</v>
       </c>
       <c r="U66" t="n">
-        <v>22.89</v>
+        <v>0.626597</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.157845</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.103399</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.166221</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.154945</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.710686</v>
+        <v>2.364038</v>
       </c>
       <c r="B67" t="n">
-        <v>1.432978</v>
+        <v>2.203922</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7899350000000001</v>
+        <v>1.234846</v>
       </c>
       <c r="D67" t="n">
-        <v>0.346312</v>
+        <v>0.643671</v>
       </c>
       <c r="E67" t="n">
-        <v>0.122729</v>
+        <v>0.346634</v>
       </c>
       <c r="F67" t="n">
-        <v>0.116285</v>
+        <v>0.370797</v>
       </c>
       <c r="G67" t="n">
-        <v>0.180396</v>
+        <v>0.198115</v>
       </c>
       <c r="H67" t="n">
-        <v>0.003956573</v>
+        <v>0.16912</v>
       </c>
       <c r="I67" t="n">
-        <v>398.3826436</v>
+        <v>0.005042691</v>
       </c>
       <c r="J67" t="n">
-        <v>320.6405091</v>
+        <v>0.004663176</v>
       </c>
       <c r="K67" t="n">
-        <v>76.5259397</v>
+        <v>0.002713199</v>
       </c>
       <c r="L67" t="n">
-        <v>27.677389</v>
+        <v>0.000382659</v>
       </c>
       <c r="M67" t="n">
-        <v>80.0458988</v>
+        <v>0.000756928</v>
       </c>
       <c r="N67" t="n">
-        <v>24.5946087</v>
+        <v>0.000304029</v>
       </c>
       <c r="O67" t="n">
-        <v>57.0491458</v>
+        <v>0.000140482</v>
       </c>
       <c r="P67" t="n">
-        <v>0.820218</v>
+        <v>5.45e-05</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.626597</v>
+        <v>591.1231489</v>
       </c>
       <c r="R67" t="n">
-        <v>0.103399</v>
+        <v>322.9253151</v>
       </c>
       <c r="S67" t="n">
-        <v>0.050241</v>
+        <v>165.1698541</v>
       </c>
       <c r="T67" t="n">
-        <v>0.166221</v>
+        <v>1.730982</v>
       </c>
       <c r="U67" t="n">
-        <v>14.8</v>
+        <v>1.568932</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.414933</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.226144</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.162355</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.146891</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>29.65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.364038</v>
+        <v>2.153342</v>
       </c>
       <c r="B68" t="n">
-        <v>2.203922</v>
+        <v>1.918805</v>
       </c>
       <c r="C68" t="n">
-        <v>1.234846</v>
+        <v>1.027371</v>
       </c>
       <c r="D68" t="n">
-        <v>0.643671</v>
+        <v>0.5438</v>
       </c>
       <c r="E68" t="n">
-        <v>0.193927</v>
+        <v>0.293154</v>
       </c>
       <c r="F68" t="n">
-        <v>0.135937</v>
+        <v>0.291544</v>
       </c>
       <c r="G68" t="n">
-        <v>0.16912</v>
+        <v>0.190706</v>
       </c>
       <c r="H68" t="n">
-        <v>0.004663176</v>
+        <v>0.168476</v>
       </c>
       <c r="I68" t="n">
-        <v>644.4780009</v>
+        <v>0.003952379</v>
       </c>
       <c r="J68" t="n">
-        <v>591.1231489</v>
+        <v>0.003622141</v>
       </c>
       <c r="K68" t="n">
-        <v>165.1698541</v>
+        <v>0.002005545</v>
       </c>
       <c r="L68" t="n">
-        <v>49.565717</v>
+        <v>0.000280966</v>
       </c>
       <c r="M68" t="n">
-        <v>92.75629120000001</v>
+        <v>0.000519993</v>
       </c>
       <c r="N68" t="n">
-        <v>32.5715837</v>
+        <v>0.000214917</v>
       </c>
       <c r="O68" t="n">
-        <v>55.1383082</v>
+        <v>0.000124758</v>
       </c>
       <c r="P68" t="n">
-        <v>1.730982</v>
+        <v>6.08e-05</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.568932</v>
+        <v>537.6220679</v>
       </c>
       <c r="R68" t="n">
-        <v>0.226144</v>
+        <v>283.2868321</v>
       </c>
       <c r="S68" t="n">
-        <v>0.074404</v>
+        <v>148.881065</v>
       </c>
       <c r="T68" t="n">
-        <v>0.162355</v>
+        <v>1.853405</v>
       </c>
       <c r="U68" t="n">
-        <v>29.65</v>
+        <v>1.59084</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.428786</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.236453</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.168798</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.153979</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>38.86</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.153342</v>
+        <v>1.817323</v>
       </c>
       <c r="B69" t="n">
-        <v>1.918805</v>
+        <v>1.513842</v>
       </c>
       <c r="C69" t="n">
-        <v>1.027371</v>
+        <v>0.770605</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5438</v>
+        <v>0.39657</v>
       </c>
       <c r="E69" t="n">
-        <v>0.162999</v>
+        <v>0.219378</v>
       </c>
       <c r="F69" t="n">
-        <v>0.104043</v>
+        <v>0.214546</v>
       </c>
       <c r="G69" t="n">
-        <v>0.168476</v>
+        <v>0.176852</v>
       </c>
       <c r="H69" t="n">
-        <v>0.003622141</v>
+        <v>0.162355</v>
       </c>
       <c r="I69" t="n">
-        <v>613.7432013</v>
+        <v>0.004880195</v>
       </c>
       <c r="J69" t="n">
-        <v>537.6220679</v>
+        <v>0.004080283</v>
       </c>
       <c r="K69" t="n">
-        <v>148.881065</v>
+        <v>0.002021269</v>
       </c>
       <c r="L69" t="n">
-        <v>44.3473196</v>
+        <v>0.000255802</v>
       </c>
       <c r="M69" t="n">
-        <v>77.5387774</v>
+        <v>0.000450804</v>
       </c>
       <c r="N69" t="n">
-        <v>26.3239994</v>
+        <v>0.000185565</v>
       </c>
       <c r="O69" t="n">
-        <v>54.8188513</v>
+        <v>9.119999999999999e-05</v>
       </c>
       <c r="P69" t="n">
-        <v>1.853405</v>
+        <v>4.4e-05</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.59084</v>
+        <v>349.7715521</v>
       </c>
       <c r="R69" t="n">
-        <v>0.236453</v>
+        <v>176.0958281</v>
       </c>
       <c r="S69" t="n">
-        <v>0.071504</v>
+        <v>89.45466860000001</v>
       </c>
       <c r="T69" t="n">
-        <v>0.168798</v>
+        <v>0.953273</v>
       </c>
       <c r="U69" t="n">
-        <v>38.86</v>
+        <v>0.727757</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.185229</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.110486</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.151079</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.146569</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>19.75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.817323</v>
+        <v>2.275504</v>
       </c>
       <c r="B70" t="n">
-        <v>1.513842</v>
+        <v>2.105723</v>
       </c>
       <c r="C70" t="n">
-        <v>0.770605</v>
+        <v>1.467189</v>
       </c>
       <c r="D70" t="n">
-        <v>0.39657</v>
+        <v>1.146634</v>
       </c>
       <c r="E70" t="n">
-        <v>0.12144</v>
+        <v>0.992639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.070215</v>
+        <v>0.9948939999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.162355</v>
+        <v>0.968798</v>
       </c>
       <c r="H70" t="n">
-        <v>0.004080283</v>
+        <v>0.955912</v>
       </c>
       <c r="I70" t="n">
-        <v>435.7226031</v>
+        <v>0.003815044</v>
       </c>
       <c r="J70" t="n">
-        <v>349.7715521</v>
+        <v>0.003352711</v>
       </c>
       <c r="K70" t="n">
-        <v>89.45466860000001</v>
+        <v>0.001664823</v>
       </c>
       <c r="L70" t="n">
-        <v>28.531841</v>
+        <v>0.000217016</v>
       </c>
       <c r="M70" t="n">
-        <v>49.2649129</v>
+        <v>0.000389997</v>
       </c>
       <c r="N70" t="n">
-        <v>14.3606678</v>
+        <v>0.000158305</v>
       </c>
       <c r="O70" t="n">
-        <v>49.7010211</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P70" t="n">
-        <v>0.953273</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.727757</v>
+        <v>560.5726049</v>
       </c>
       <c r="R70" t="n">
-        <v>0.110486</v>
+        <v>405.8486275</v>
       </c>
       <c r="S70" t="n">
-        <v>0.02479</v>
+        <v>328.1976396</v>
       </c>
       <c r="T70" t="n">
-        <v>0.151079</v>
+        <v>1.648569</v>
       </c>
       <c r="U70" t="n">
-        <v>19.75</v>
+        <v>1.511004</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.985873</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.910808</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.950435</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.9439920000000001</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>33.77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.275504</v>
+        <v>1.019961</v>
       </c>
       <c r="B71" t="n">
-        <v>2.105723</v>
+        <v>0.873698</v>
       </c>
       <c r="C71" t="n">
-        <v>1.467189</v>
+        <v>0.45456</v>
       </c>
       <c r="D71" t="n">
-        <v>1.146634</v>
+        <v>0.234198</v>
       </c>
       <c r="E71" t="n">
-        <v>0.911453</v>
+        <v>0.137548</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8634500000000001</v>
+        <v>0.145925</v>
       </c>
       <c r="G71" t="n">
-        <v>0.955912</v>
+        <v>0.162355</v>
       </c>
       <c r="H71" t="n">
-        <v>0.003352711</v>
+        <v>0.153657</v>
       </c>
       <c r="I71" t="n">
-        <v>609.8268155</v>
+        <v>0.002690133</v>
       </c>
       <c r="J71" t="n">
-        <v>560.5726049</v>
+        <v>0.002270784</v>
       </c>
       <c r="K71" t="n">
-        <v>328.1976396</v>
+        <v>0.001113378</v>
       </c>
       <c r="L71" t="n">
-        <v>273.2370485</v>
+        <v>0.000142581</v>
       </c>
       <c r="M71" t="n">
-        <v>292.9249193</v>
+        <v>0.000265239</v>
       </c>
       <c r="N71" t="n">
-        <v>259.4983204</v>
+        <v>0.000105884</v>
       </c>
       <c r="O71" t="n">
-        <v>294.3630995</v>
+        <v>7.76e-05</v>
       </c>
       <c r="P71" t="n">
-        <v>1.648569</v>
+        <v>4.61e-05</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.511004</v>
+        <v>202.1220557</v>
       </c>
       <c r="R71" t="n">
-        <v>0.910808</v>
+        <v>106.1248696</v>
       </c>
       <c r="S71" t="n">
-        <v>0.827045</v>
+        <v>54.3285287</v>
       </c>
       <c r="T71" t="n">
-        <v>0.950435</v>
+        <v>0.541867</v>
       </c>
       <c r="U71" t="n">
-        <v>33.77</v>
+        <v>0.449727</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.124984</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.07988000000000001</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.147213</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.144636</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>12.19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.019961</v>
+        <v>1.92557</v>
       </c>
       <c r="B72" t="n">
-        <v>0.873698</v>
+        <v>1.666549</v>
       </c>
       <c r="C72" t="n">
-        <v>0.45456</v>
+        <v>0.8720869999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.234198</v>
+        <v>0.441995</v>
       </c>
       <c r="E72" t="n">
-        <v>0.082458</v>
+        <v>0.240964</v>
       </c>
       <c r="F72" t="n">
-        <v>0.042509</v>
+        <v>0.251273</v>
       </c>
       <c r="G72" t="n">
-        <v>0.153657</v>
+        <v>0.189739</v>
       </c>
       <c r="H72" t="n">
-        <v>0.002270784</v>
+        <v>0.171053</v>
       </c>
       <c r="I72" t="n">
-        <v>240.2860885</v>
+        <v>0.005235594</v>
       </c>
       <c r="J72" t="n">
-        <v>202.1220557</v>
+        <v>0.004558344</v>
       </c>
       <c r="K72" t="n">
-        <v>54.3285287</v>
+        <v>0.002329492</v>
       </c>
       <c r="L72" t="n">
-        <v>20.1795715</v>
+        <v>0.000294595</v>
       </c>
       <c r="M72" t="n">
-        <v>35.6589064</v>
+        <v>0.000552496</v>
       </c>
       <c r="N72" t="n">
-        <v>8.7046633</v>
+        <v>0.000223303</v>
       </c>
       <c r="O72" t="n">
-        <v>47.2244879</v>
+        <v>0.000124754</v>
       </c>
       <c r="P72" t="n">
-        <v>0.541867</v>
+        <v>6.71e-05</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.449727</v>
+        <v>387.5955907</v>
       </c>
       <c r="R72" t="n">
-        <v>0.07988000000000001</v>
+        <v>199.9763338</v>
       </c>
       <c r="S72" t="n">
-        <v>0.015769</v>
+        <v>99.79443209999999</v>
       </c>
       <c r="T72" t="n">
-        <v>0.147213</v>
+        <v>0.999665</v>
       </c>
       <c r="U72" t="n">
-        <v>12.19</v>
+        <v>0.793156</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.201981</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.121118</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.151401</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.145602</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>24.15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.92557</v>
+        <v>2.073445</v>
       </c>
       <c r="B73" t="n">
-        <v>1.666549</v>
+        <v>1.801214</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8720869999999999</v>
+        <v>0.957139</v>
       </c>
       <c r="D73" t="n">
-        <v>0.441995</v>
+        <v>0.441351</v>
       </c>
       <c r="E73" t="n">
-        <v>0.134004</v>
+        <v>0.249662</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08439099999999999</v>
+        <v>0.291866</v>
       </c>
       <c r="G73" t="n">
-        <v>0.171053</v>
+        <v>0.18684</v>
       </c>
       <c r="H73" t="n">
-        <v>0.004558344</v>
+        <v>0.166543</v>
       </c>
       <c r="I73" t="n">
-        <v>464.2372332</v>
+        <v>0.004619147</v>
       </c>
       <c r="J73" t="n">
-        <v>387.5955907</v>
+        <v>0.004076089</v>
       </c>
       <c r="K73" t="n">
-        <v>99.79443209999999</v>
+        <v>0.002184816</v>
       </c>
       <c r="L73" t="n">
-        <v>31.263653</v>
+        <v>0.000278868</v>
       </c>
       <c r="M73" t="n">
-        <v>57.3856312</v>
+        <v>0.000596528</v>
       </c>
       <c r="N73" t="n">
-        <v>17.4216349</v>
+        <v>0.000240078</v>
       </c>
       <c r="O73" t="n">
-        <v>52.2035495</v>
+        <v>0.000128949</v>
       </c>
       <c r="P73" t="n">
-        <v>0.999665</v>
+        <v>6.71e-05</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.793156</v>
+        <v>469.3185066</v>
       </c>
       <c r="R73" t="n">
-        <v>0.121118</v>
+        <v>244.6560163</v>
       </c>
       <c r="S73" t="n">
-        <v>0.031233</v>
+        <v>112.2585609</v>
       </c>
       <c r="T73" t="n">
-        <v>0.151401</v>
+        <v>1.435556</v>
       </c>
       <c r="U73" t="n">
-        <v>24.15</v>
+        <v>1.185233</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.275758</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.160422</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.156234</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.147213</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>25.11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.073445</v>
+        <v>2.527054</v>
       </c>
       <c r="B74" t="n">
-        <v>1.801214</v>
+        <v>2.250636</v>
       </c>
       <c r="C74" t="n">
-        <v>0.957139</v>
+        <v>1.265774</v>
       </c>
       <c r="D74" t="n">
-        <v>0.441351</v>
+        <v>0.483555</v>
       </c>
       <c r="E74" t="n">
-        <v>0.142059</v>
+        <v>0.291221</v>
       </c>
       <c r="F74" t="n">
-        <v>0.100821</v>
+        <v>0.445217</v>
       </c>
       <c r="G74" t="n">
-        <v>0.166543</v>
+        <v>0.202626</v>
       </c>
       <c r="H74" t="n">
-        <v>0.004076089</v>
+        <v>0.167187</v>
       </c>
       <c r="I74" t="n">
-        <v>553.6728269</v>
+        <v>0.006171793</v>
       </c>
       <c r="J74" t="n">
-        <v>469.3185066</v>
+        <v>0.005562688</v>
       </c>
       <c r="K74" t="n">
-        <v>112.2585609</v>
+        <v>0.003174487</v>
       </c>
       <c r="L74" t="n">
-        <v>36.0843946</v>
+        <v>0.000391045</v>
       </c>
       <c r="M74" t="n">
-        <v>72.2136548</v>
+        <v>0.001025314</v>
       </c>
       <c r="N74" t="n">
-        <v>23.5535584</v>
+        <v>0.000415158</v>
       </c>
       <c r="O74" t="n">
-        <v>52.3530186</v>
+        <v>0.000203384</v>
       </c>
       <c r="P74" t="n">
-        <v>1.435556</v>
+        <v>9.75e-05</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.185233</v>
+        <v>565.5684855</v>
       </c>
       <c r="R74" t="n">
-        <v>0.160422</v>
+        <v>308.6390213</v>
       </c>
       <c r="S74" t="n">
-        <v>0.053785</v>
+        <v>119.8732789</v>
       </c>
       <c r="T74" t="n">
-        <v>0.156234</v>
+        <v>1.586652</v>
       </c>
       <c r="U74" t="n">
-        <v>25.11</v>
+        <v>1.3083</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.275113</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.165899</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.154301</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.138837</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>34.24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.527054</v>
+        <v>1.899475</v>
       </c>
       <c r="B75" t="n">
-        <v>2.250636</v>
+        <v>1.724861</v>
       </c>
       <c r="C75" t="n">
-        <v>1.265774</v>
+        <v>0.914613</v>
       </c>
       <c r="D75" t="n">
-        <v>0.483555</v>
+        <v>0.463903</v>
       </c>
       <c r="E75" t="n">
-        <v>0.177819</v>
+        <v>0.25385</v>
       </c>
       <c r="F75" t="n">
-        <v>0.159455</v>
+        <v>0.264482</v>
       </c>
       <c r="G75" t="n">
-        <v>0.167187</v>
+        <v>0.178141</v>
       </c>
       <c r="H75" t="n">
-        <v>0.005562688</v>
+        <v>0.1601</v>
       </c>
       <c r="I75" t="n">
-        <v>656.8467917</v>
+        <v>0.004457699</v>
       </c>
       <c r="J75" t="n">
-        <v>565.5684855</v>
+        <v>0.004013186</v>
       </c>
       <c r="K75" t="n">
-        <v>119.8732789</v>
+        <v>0.002126108</v>
       </c>
       <c r="L75" t="n">
-        <v>42.8546137</v>
+        <v>0.000270482</v>
       </c>
       <c r="M75" t="n">
-        <v>102.8277232</v>
+        <v>0.000532577</v>
       </c>
       <c r="N75" t="n">
-        <v>35.2831641</v>
+        <v>0.000215965</v>
       </c>
       <c r="O75" t="n">
-        <v>54.7033262</v>
+        <v>0.000105887</v>
       </c>
       <c r="P75" t="n">
-        <v>1.586652</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.3083</v>
+        <v>439.9100544</v>
       </c>
       <c r="R75" t="n">
-        <v>0.165899</v>
+        <v>229.8844996</v>
       </c>
       <c r="S75" t="n">
-        <v>0.068927</v>
+        <v>114.9400789</v>
       </c>
       <c r="T75" t="n">
-        <v>0.154301</v>
+        <v>1.247089</v>
       </c>
       <c r="U75" t="n">
-        <v>34.24</v>
+        <v>1.09116</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.278979</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.157523</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.153334</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.144636</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>21.32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.899475</v>
+        <v>1.827695</v>
       </c>
       <c r="B76" t="n">
-        <v>1.724861</v>
+        <v>1.571895</v>
       </c>
       <c r="C76" t="n">
-        <v>0.914613</v>
+        <v>0.962357</v>
       </c>
       <c r="D76" t="n">
-        <v>0.463903</v>
+        <v>0.566737</v>
       </c>
       <c r="E76" t="n">
-        <v>0.14077</v>
+        <v>0.463321</v>
       </c>
       <c r="F76" t="n">
-        <v>0.092445</v>
+        <v>0.521634</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1601</v>
+        <v>0.450757</v>
       </c>
       <c r="H76" t="n">
-        <v>0.004013186</v>
+        <v>0.439481</v>
       </c>
       <c r="I76" t="n">
-        <v>494.1135353</v>
+        <v>0.004032057</v>
       </c>
       <c r="J76" t="n">
-        <v>439.9100544</v>
+        <v>0.003330693</v>
       </c>
       <c r="K76" t="n">
-        <v>114.9400789</v>
+        <v>0.001673209</v>
       </c>
       <c r="L76" t="n">
-        <v>35.3369967</v>
+        <v>0.000182418</v>
       </c>
       <c r="M76" t="n">
-        <v>65.12026299999999</v>
+        <v>0.000440319</v>
       </c>
       <c r="N76" t="n">
-        <v>21.2031904</v>
+        <v>0.000171936</v>
       </c>
       <c r="O76" t="n">
-        <v>50.4970287</v>
+        <v>7.23e-05</v>
       </c>
       <c r="P76" t="n">
-        <v>1.247089</v>
+        <v>3.56e-05</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.09116</v>
+        <v>386.8041027</v>
       </c>
       <c r="R76" t="n">
-        <v>0.157523</v>
+        <v>245.6680282</v>
       </c>
       <c r="S76" t="n">
-        <v>0.047342</v>
+        <v>154.6738844</v>
       </c>
       <c r="T76" t="n">
-        <v>0.153334</v>
+        <v>1.097667</v>
       </c>
       <c r="U76" t="n">
-        <v>21.32</v>
+        <v>0.927885</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.442381</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.393411</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.430138</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.426595</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>25.86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.827695</v>
+        <v>1.777374</v>
       </c>
       <c r="B77" t="n">
-        <v>1.571895</v>
+        <v>1.521252</v>
       </c>
       <c r="C77" t="n">
-        <v>0.962357</v>
+        <v>0.797345</v>
       </c>
       <c r="D77" t="n">
-        <v>0.566737</v>
+        <v>0.382072</v>
       </c>
       <c r="E77" t="n">
-        <v>0.399855</v>
+        <v>0.215835</v>
       </c>
       <c r="F77" t="n">
-        <v>0.371504</v>
+        <v>0.244507</v>
       </c>
       <c r="G77" t="n">
-        <v>0.439481</v>
+        <v>0.180396</v>
       </c>
       <c r="H77" t="n">
-        <v>0.003330693</v>
+        <v>0.162999</v>
       </c>
       <c r="I77" t="n">
-        <v>455.9386356</v>
+        <v>0.004396892</v>
       </c>
       <c r="J77" t="n">
-        <v>386.8041027</v>
+        <v>0.00377206</v>
       </c>
       <c r="K77" t="n">
-        <v>154.6738844</v>
+        <v>0.001947885</v>
       </c>
       <c r="L77" t="n">
-        <v>116.1436021</v>
+        <v>0.000248464</v>
       </c>
       <c r="M77" t="n">
-        <v>144.1672345</v>
+        <v>0.000494836</v>
       </c>
       <c r="N77" t="n">
-        <v>107.2512869</v>
+        <v>0.000194998</v>
       </c>
       <c r="O77" t="n">
-        <v>135.0265284</v>
+        <v>0.000115324</v>
       </c>
       <c r="P77" t="n">
-        <v>1.097667</v>
+        <v>6.08e-05</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.927885</v>
+        <v>374.6768276</v>
       </c>
       <c r="R77" t="n">
-        <v>0.393411</v>
+        <v>193.9284341</v>
       </c>
       <c r="S77" t="n">
-        <v>0.329945</v>
+        <v>92.250266</v>
       </c>
       <c r="T77" t="n">
-        <v>0.430138</v>
+        <v>1.085361</v>
       </c>
       <c r="U77" t="n">
-        <v>25.86</v>
+        <v>0.874987</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.211969</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.126917</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.155267</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.147213</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>18.94</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.777374</v>
+        <v>2.132723</v>
       </c>
       <c r="B78" t="n">
-        <v>1.521252</v>
+        <v>1.984527</v>
       </c>
       <c r="C78" t="n">
-        <v>0.797345</v>
+        <v>1.128531</v>
       </c>
       <c r="D78" t="n">
-        <v>0.382072</v>
+        <v>0.6156430000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.123051</v>
+        <v>0.339546</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08116900000000001</v>
+        <v>0.5489540000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>0.162999</v>
+        <v>0.293154</v>
       </c>
       <c r="H78" t="n">
-        <v>0.00377206</v>
+        <v>0.236131</v>
       </c>
       <c r="I78" t="n">
-        <v>449.4939491</v>
+        <v>0.005530185</v>
       </c>
       <c r="J78" t="n">
-        <v>374.6768276</v>
+        <v>0.005148575</v>
       </c>
       <c r="K78" t="n">
-        <v>92.250266</v>
+        <v>0.002935454</v>
       </c>
       <c r="L78" t="n">
-        <v>30.3570118</v>
+        <v>0.000449753</v>
       </c>
       <c r="M78" t="n">
-        <v>58.9691062</v>
+        <v>0.001236036</v>
       </c>
       <c r="N78" t="n">
-        <v>18.0139368</v>
+        <v>0.000468623</v>
       </c>
       <c r="O78" t="n">
-        <v>50.9430029</v>
+        <v>0.000409915</v>
       </c>
       <c r="P78" t="n">
-        <v>1.085361</v>
+        <v>0.000252659</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.874987</v>
+        <v>476.745299</v>
       </c>
       <c r="R78" t="n">
-        <v>0.126917</v>
+        <v>265.1010328</v>
       </c>
       <c r="S78" t="n">
-        <v>0.036388</v>
+        <v>141.213635</v>
       </c>
       <c r="T78" t="n">
-        <v>0.155267</v>
+        <v>1.198441</v>
       </c>
       <c r="U78" t="n">
-        <v>18.94</v>
+        <v>1.034781</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.292188</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.171376</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.199082</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.175886</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>25.85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.132723</v>
+        <v>2.050571</v>
       </c>
       <c r="B79" t="n">
-        <v>1.984527</v>
+        <v>1.877568</v>
       </c>
       <c r="C79" t="n">
-        <v>1.128531</v>
+        <v>1.013518</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6156430000000001</v>
+        <v>0.516416</v>
       </c>
       <c r="E79" t="n">
-        <v>0.185551</v>
+        <v>0.280912</v>
       </c>
       <c r="F79" t="n">
-        <v>0.18684</v>
+        <v>0.296376</v>
       </c>
       <c r="G79" t="n">
-        <v>0.236131</v>
+        <v>0.181363</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005148575</v>
+        <v>0.1601</v>
       </c>
       <c r="I79" t="n">
-        <v>529.4779588</v>
+        <v>0.004735519</v>
       </c>
       <c r="J79" t="n">
-        <v>476.745299</v>
+        <v>0.004313023</v>
       </c>
       <c r="K79" t="n">
-        <v>141.213635</v>
+        <v>0.002352558</v>
       </c>
       <c r="L79" t="n">
-        <v>42.5356066</v>
+        <v>0.000314514</v>
       </c>
       <c r="M79" t="n">
-        <v>129.8355651</v>
+        <v>0.000609108</v>
       </c>
       <c r="N79" t="n">
-        <v>42.1652724</v>
+        <v>0.000257901</v>
       </c>
       <c r="O79" t="n">
-        <v>74.4525218</v>
+        <v>0.000120563</v>
       </c>
       <c r="P79" t="n">
-        <v>1.198441</v>
+        <v>5.66e-05</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.034781</v>
+        <v>488.6895115</v>
       </c>
       <c r="R79" t="n">
-        <v>0.171376</v>
+        <v>258.5254612</v>
       </c>
       <c r="S79" t="n">
-        <v>0.086002</v>
+        <v>129.3504798</v>
       </c>
       <c r="T79" t="n">
-        <v>0.199082</v>
+        <v>1.376599</v>
       </c>
       <c r="U79" t="n">
-        <v>25.85</v>
+        <v>1.211006</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.307652</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.172986</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.15269</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.142381</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>25.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.050571</v>
+        <v>1.802503</v>
       </c>
       <c r="B80" t="n">
-        <v>1.877568</v>
+        <v>1.625634</v>
       </c>
       <c r="C80" t="n">
-        <v>1.013518</v>
+        <v>0.855335</v>
       </c>
       <c r="D80" t="n">
-        <v>0.516416</v>
+        <v>0.432008</v>
       </c>
       <c r="E80" t="n">
-        <v>0.155267</v>
+        <v>0.236775</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104687</v>
+        <v>0.247407</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1601</v>
+        <v>0.182651</v>
       </c>
       <c r="H80" t="n">
-        <v>0.004313023</v>
+        <v>0.166221</v>
       </c>
       <c r="I80" t="n">
-        <v>543.8774957000001</v>
+        <v>0.004451409</v>
       </c>
       <c r="J80" t="n">
-        <v>488.6895115</v>
+        <v>0.004004797</v>
       </c>
       <c r="K80" t="n">
-        <v>129.3504798</v>
+        <v>0.002081028</v>
       </c>
       <c r="L80" t="n">
-        <v>39.2655628</v>
+        <v>0.000266287</v>
       </c>
       <c r="M80" t="n">
-        <v>73.3540203</v>
+        <v>0.0005095120000000001</v>
       </c>
       <c r="N80" t="n">
-        <v>24.4870333</v>
+        <v>0.000209675</v>
       </c>
       <c r="O80" t="n">
-        <v>51.0795697</v>
+        <v>0.000125802</v>
       </c>
       <c r="P80" t="n">
-        <v>1.376599</v>
+        <v>7.02e-05</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.211006</v>
+        <v>405.4548719</v>
       </c>
       <c r="R80" t="n">
-        <v>0.172986</v>
+        <v>210.5549834</v>
       </c>
       <c r="S80" t="n">
-        <v>0.053463</v>
+        <v>105.5560848</v>
       </c>
       <c r="T80" t="n">
-        <v>0.15269</v>
+        <v>1.119511</v>
       </c>
       <c r="U80" t="n">
-        <v>25.1</v>
+        <v>0.958106</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.243219</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.139159</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.154945</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.148824</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>19.64</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.802503</v>
+        <v>2.175504</v>
       </c>
       <c r="B81" t="n">
-        <v>1.625634</v>
+        <v>2.005723</v>
       </c>
       <c r="C81" t="n">
-        <v>0.855335</v>
+        <v>1.367189</v>
       </c>
       <c r="D81" t="n">
-        <v>0.432008</v>
+        <v>1.046634</v>
       </c>
       <c r="E81" t="n">
-        <v>0.132394</v>
+        <v>0.892639</v>
       </c>
       <c r="F81" t="n">
-        <v>0.084069</v>
+        <v>0.894894</v>
       </c>
       <c r="G81" t="n">
-        <v>0.166221</v>
+        <v>0.868798</v>
       </c>
       <c r="H81" t="n">
-        <v>0.004004797</v>
+        <v>0.855912</v>
       </c>
       <c r="I81" t="n">
-        <v>460.3298453</v>
+        <v>0.003815044</v>
       </c>
       <c r="J81" t="n">
-        <v>405.4548719</v>
+        <v>0.003352711</v>
       </c>
       <c r="K81" t="n">
-        <v>105.5560848</v>
+        <v>0.001664823</v>
       </c>
       <c r="L81" t="n">
-        <v>33.0301237</v>
+        <v>0.000217016</v>
       </c>
       <c r="M81" t="n">
-        <v>60.1573247</v>
+        <v>0.000389997</v>
       </c>
       <c r="N81" t="n">
-        <v>18.9744114</v>
+        <v>0.000158305</v>
       </c>
       <c r="O81" t="n">
-        <v>51.673772</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P81" t="n">
-        <v>1.119511</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.958106</v>
+        <v>529.8326049</v>
       </c>
       <c r="R81" t="n">
-        <v>0.139159</v>
+        <v>375.1086275</v>
       </c>
       <c r="S81" t="n">
-        <v>0.039287</v>
+        <v>297.4576396</v>
       </c>
       <c r="T81" t="n">
-        <v>0.154945</v>
+        <v>1.548569</v>
       </c>
       <c r="U81" t="n">
-        <v>19.64</v>
+        <v>1.411004</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.885873</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.810808</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.8504350000000001</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.843992</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>25.94</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.175504</v>
+        <v>1.725504</v>
       </c>
       <c r="B82" t="n">
-        <v>2.005723</v>
+        <v>1.555723</v>
       </c>
       <c r="C82" t="n">
-        <v>1.367189</v>
+        <v>0.917189</v>
       </c>
       <c r="D82" t="n">
-        <v>1.046634</v>
+        <v>0.596634</v>
       </c>
       <c r="E82" t="n">
-        <v>0.811453</v>
+        <v>0.442639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.76345</v>
+        <v>0.444894</v>
       </c>
       <c r="G82" t="n">
-        <v>0.855912</v>
+        <v>0.418798</v>
       </c>
       <c r="H82" t="n">
+        <v>0.405912</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.003815044</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.003352711</v>
       </c>
-      <c r="I82" t="n">
-        <v>579.0868154999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>529.8326049</v>
-      </c>
       <c r="K82" t="n">
-        <v>297.4576396</v>
+        <v>0.001664823</v>
       </c>
       <c r="L82" t="n">
-        <v>242.4970485</v>
+        <v>0.000217016</v>
       </c>
       <c r="M82" t="n">
-        <v>262.1849193</v>
+        <v>0.000389997</v>
       </c>
       <c r="N82" t="n">
-        <v>228.7583204</v>
+        <v>0.000158305</v>
       </c>
       <c r="O82" t="n">
-        <v>263.6230995</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P82" t="n">
-        <v>1.548569</v>
+        <v>4.72e-05</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.411004</v>
+        <v>391.5026049</v>
       </c>
       <c r="R82" t="n">
-        <v>0.810808</v>
+        <v>236.7786275</v>
       </c>
       <c r="S82" t="n">
-        <v>0.7270450000000001</v>
+        <v>159.1276396</v>
       </c>
       <c r="T82" t="n">
-        <v>0.8504350000000001</v>
+        <v>1.098569</v>
       </c>
       <c r="U82" t="n">
-        <v>25.94</v>
+        <v>0.961004</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.435873</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.360808</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.400435</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.393992</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>18.96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.725504</v>
+        <v>1.648508</v>
       </c>
       <c r="B83" t="n">
-        <v>1.555723</v>
+        <v>1.377566</v>
       </c>
       <c r="C83" t="n">
-        <v>0.917189</v>
+        <v>0.727757</v>
       </c>
       <c r="D83" t="n">
-        <v>0.596634</v>
+        <v>0.31635</v>
       </c>
       <c r="E83" t="n">
-        <v>0.361453</v>
+        <v>0.191672</v>
       </c>
       <c r="F83" t="n">
-        <v>0.31345</v>
+        <v>0.24483</v>
       </c>
       <c r="G83" t="n">
-        <v>0.405912</v>
+        <v>0.158489</v>
       </c>
       <c r="H83" t="n">
-        <v>0.003352711</v>
+        <v>0.146891</v>
       </c>
       <c r="I83" t="n">
-        <v>440.7568155</v>
+        <v>0.004384312</v>
       </c>
       <c r="J83" t="n">
-        <v>391.5026049</v>
+        <v>0.003638916</v>
       </c>
       <c r="K83" t="n">
-        <v>159.1276396</v>
+        <v>0.001808451</v>
       </c>
       <c r="L83" t="n">
-        <v>104.1670485</v>
+        <v>0.000171933</v>
       </c>
       <c r="M83" t="n">
-        <v>123.8549193</v>
+        <v>0.000474914</v>
       </c>
       <c r="N83" t="n">
-        <v>90.4283204</v>
+        <v>0.000167738</v>
       </c>
       <c r="O83" t="n">
-        <v>125.2930995</v>
+        <v>9.02e-05</v>
       </c>
       <c r="P83" t="n">
-        <v>1.098569</v>
+        <v>3.46e-05</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.961004</v>
+        <v>318.4110582</v>
       </c>
       <c r="R83" t="n">
-        <v>0.360808</v>
+        <v>166.4303611</v>
       </c>
       <c r="S83" t="n">
-        <v>0.277045</v>
+        <v>66.64646329999999</v>
       </c>
       <c r="T83" t="n">
-        <v>0.400435</v>
+        <v>0.845347</v>
       </c>
       <c r="U83" t="n">
-        <v>18.96</v>
+        <v>0.669445</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.167187</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.107909</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.131427</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.127239</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>17.58</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.648508</v>
+        <v>1.927374</v>
       </c>
       <c r="B84" t="n">
-        <v>1.377566</v>
+        <v>1.671252</v>
       </c>
       <c r="C84" t="n">
-        <v>0.727757</v>
+        <v>0.947345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.31635</v>
+        <v>0.532072</v>
       </c>
       <c r="E84" t="n">
-        <v>0.114997</v>
+        <v>0.365835</v>
       </c>
       <c r="F84" t="n">
-        <v>0.086968</v>
+        <v>0.394507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.146891</v>
+        <v>0.330396</v>
       </c>
       <c r="H84" t="n">
-        <v>0.003638916</v>
+        <v>0.312999</v>
       </c>
       <c r="I84" t="n">
-        <v>391.7689</v>
+        <v>0.004396892</v>
       </c>
       <c r="J84" t="n">
-        <v>318.4110582</v>
+        <v>0.00377206</v>
       </c>
       <c r="K84" t="n">
-        <v>66.64646329999999</v>
+        <v>0.001947885</v>
       </c>
       <c r="L84" t="n">
-        <v>25.0907778</v>
+        <v>0.000248464</v>
       </c>
       <c r="M84" t="n">
-        <v>55.5501514</v>
+        <v>0.000494836</v>
       </c>
       <c r="N84" t="n">
-        <v>16.2224676</v>
+        <v>0.000194998</v>
       </c>
       <c r="O84" t="n">
-        <v>44.4672979</v>
+        <v>0.000115324</v>
       </c>
       <c r="P84" t="n">
-        <v>0.845347</v>
+        <v>6.08e-05</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.669445</v>
+        <v>420.7868276</v>
       </c>
       <c r="R84" t="n">
-        <v>0.107909</v>
+        <v>240.0384341</v>
       </c>
       <c r="S84" t="n">
-        <v>0.036388</v>
+        <v>138.360266</v>
       </c>
       <c r="T84" t="n">
-        <v>0.131427</v>
+        <v>1.235361</v>
       </c>
       <c r="U84" t="n">
-        <v>17.58</v>
+        <v>1.024987</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.361969</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.276917</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.305267</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.297213</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>22.71</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.927374</v>
+        <v>1.915261</v>
       </c>
       <c r="B85" t="n">
-        <v>1.671252</v>
+        <v>1.726794</v>
       </c>
       <c r="C85" t="n">
-        <v>0.947345</v>
+        <v>0.916224</v>
       </c>
       <c r="D85" t="n">
-        <v>0.532072</v>
+        <v>0.471312</v>
       </c>
       <c r="E85" t="n">
-        <v>0.273051</v>
+        <v>0.256105</v>
       </c>
       <c r="F85" t="n">
-        <v>0.231169</v>
+        <v>0.269636</v>
       </c>
       <c r="G85" t="n">
-        <v>0.312999</v>
+        <v>0.184262</v>
       </c>
       <c r="H85" t="n">
-        <v>0.00377206</v>
+        <v>0.16461</v>
       </c>
       <c r="I85" t="n">
-        <v>495.6039491</v>
+        <v>0.004343427</v>
       </c>
       <c r="J85" t="n">
-        <v>420.7868276</v>
+        <v>0.003903108</v>
       </c>
       <c r="K85" t="n">
-        <v>138.360266</v>
+        <v>0.002081025</v>
       </c>
       <c r="L85" t="n">
-        <v>76.46701179999999</v>
+        <v>0.000278868</v>
       </c>
       <c r="M85" t="n">
-        <v>105.0791062</v>
+        <v>0.000543059</v>
       </c>
       <c r="N85" t="n">
-        <v>64.1239368</v>
+        <v>0.000224354</v>
       </c>
       <c r="O85" t="n">
-        <v>97.0530029</v>
+        <v>0.000105887</v>
       </c>
       <c r="P85" t="n">
-        <v>1.235361</v>
+        <v>3.77e-05</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.024987</v>
+        <v>442.0661205</v>
       </c>
       <c r="R85" t="n">
-        <v>0.276917</v>
+        <v>230.4407845</v>
       </c>
       <c r="S85" t="n">
-        <v>0.186388</v>
+        <v>116.762604</v>
       </c>
       <c r="T85" t="n">
-        <v>0.305267</v>
+        <v>1.281882</v>
       </c>
       <c r="U85" t="n">
-        <v>22.71</v>
+        <v>1.117256</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.286711</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.161388</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.156556</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.150435</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.915261</v>
+        <v>1.982594</v>
       </c>
       <c r="B86" t="n">
-        <v>1.726794</v>
+        <v>1.742258</v>
       </c>
       <c r="C86" t="n">
-        <v>0.916224</v>
+        <v>0.9561730000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.471312</v>
+        <v>0.423954</v>
       </c>
       <c r="E86" t="n">
-        <v>0.142703</v>
+        <v>0.24934</v>
       </c>
       <c r="F86" t="n">
-        <v>0.092123</v>
+        <v>0.376273</v>
       </c>
       <c r="G86" t="n">
-        <v>0.16461</v>
+        <v>0.220667</v>
       </c>
       <c r="H86" t="n">
-        <v>0.003903108</v>
+        <v>0.189095</v>
       </c>
       <c r="I86" t="n">
-        <v>498.6720232</v>
+        <v>0.004646407</v>
       </c>
       <c r="J86" t="n">
-        <v>442.0661205</v>
+        <v>0.00410754</v>
       </c>
       <c r="K86" t="n">
-        <v>116.762604</v>
+        <v>0.002262398</v>
       </c>
       <c r="L86" t="n">
-        <v>36.1208937</v>
+        <v>0.000291448</v>
       </c>
       <c r="M86" t="n">
-        <v>66.0490011</v>
+        <v>0.000791523</v>
       </c>
       <c r="N86" t="n">
-        <v>21.4004897</v>
+        <v>0.000309271</v>
       </c>
       <c r="O86" t="n">
-        <v>52.167517</v>
+        <v>0.000220159</v>
       </c>
       <c r="P86" t="n">
-        <v>1.281882</v>
+        <v>0.000117419</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.117256</v>
+        <v>440.2753928</v>
       </c>
       <c r="R86" t="n">
-        <v>0.161388</v>
+        <v>237.6205176</v>
       </c>
       <c r="S86" t="n">
-        <v>0.046697</v>
+        <v>105.4597595</v>
       </c>
       <c r="T86" t="n">
-        <v>0.156556</v>
+        <v>1.299602</v>
       </c>
       <c r="U86" t="n">
-        <v>21.5</v>
+        <v>1.089549</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.258361</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.155267</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.173309</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.1601</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>23.18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.982594</v>
+        <v>2.810883</v>
       </c>
       <c r="B87" t="n">
-        <v>1.742258</v>
+        <v>2.67074</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9561730000000001</v>
+        <v>1.688778</v>
       </c>
       <c r="D87" t="n">
-        <v>0.423954</v>
+        <v>0.610488</v>
       </c>
       <c r="E87" t="n">
-        <v>0.147213</v>
+        <v>0.406557</v>
       </c>
       <c r="F87" t="n">
-        <v>0.130138</v>
+        <v>0.735167</v>
       </c>
       <c r="G87" t="n">
-        <v>0.189095</v>
+        <v>0.279624</v>
       </c>
       <c r="H87" t="n">
-        <v>0.00410754</v>
+        <v>0.211324</v>
       </c>
       <c r="I87" t="n">
-        <v>513.5955272</v>
+        <v>0.006758884</v>
       </c>
       <c r="J87" t="n">
-        <v>440.2753928</v>
+        <v>0.006545015</v>
       </c>
       <c r="K87" t="n">
-        <v>105.4597595</v>
+        <v>0.004248021</v>
       </c>
       <c r="L87" t="n">
-        <v>36.3329759</v>
+        <v>0.000665721</v>
       </c>
       <c r="M87" t="n">
-        <v>91.58099989999999</v>
+        <v>0.001679502</v>
       </c>
       <c r="N87" t="n">
-        <v>29.9989216</v>
+        <v>0.000672011</v>
       </c>
       <c r="O87" t="n">
-        <v>60.3596313</v>
+        <v>0.00036903</v>
       </c>
       <c r="P87" t="n">
-        <v>1.299602</v>
+        <v>0.000186612</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.089549</v>
+        <v>698.0489564</v>
       </c>
       <c r="R87" t="n">
-        <v>0.155267</v>
+        <v>425.6427661</v>
       </c>
       <c r="S87" t="n">
-        <v>0.067316</v>
+        <v>156.9887974</v>
       </c>
       <c r="T87" t="n">
-        <v>0.173309</v>
+        <v>1.90624</v>
       </c>
       <c r="U87" t="n">
-        <v>23.18</v>
+        <v>1.681046</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.37273</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.24193</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.203914</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.172986</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>38.92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.810883</v>
+        <v>2.274798</v>
       </c>
       <c r="B88" t="n">
-        <v>2.67074</v>
+        <v>2.15753</v>
       </c>
       <c r="C88" t="n">
-        <v>1.688778</v>
+        <v>1.186199</v>
       </c>
       <c r="D88" t="n">
-        <v>0.610488</v>
+        <v>0.64206</v>
       </c>
       <c r="E88" t="n">
-        <v>0.276724</v>
+        <v>0.347278</v>
       </c>
       <c r="F88" t="n">
-        <v>0.272214</v>
+        <v>0.339546</v>
       </c>
       <c r="G88" t="n">
-        <v>0.211324</v>
+        <v>0.198115</v>
       </c>
       <c r="H88" t="n">
-        <v>0.006545015</v>
+        <v>0.172986</v>
       </c>
       <c r="I88" t="n">
-        <v>755.799956</v>
+        <v>0.005687442</v>
       </c>
       <c r="J88" t="n">
-        <v>698.0489564</v>
+        <v>0.005362444</v>
       </c>
       <c r="K88" t="n">
-        <v>156.9887974</v>
+        <v>0.002967953</v>
       </c>
       <c r="L88" t="n">
-        <v>66.67500819999999</v>
+        <v>0.000417253</v>
       </c>
       <c r="M88" t="n">
-        <v>177.6001502</v>
+        <v>0.000762171</v>
       </c>
       <c r="N88" t="n">
-        <v>63.8407782</v>
+        <v>0.000315561</v>
       </c>
       <c r="O88" t="n">
-        <v>74.0170492</v>
+        <v>0.00017508</v>
       </c>
       <c r="P88" t="n">
-        <v>1.90624</v>
+        <v>9.96e-05</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.681046</v>
+        <v>535.8828491</v>
       </c>
       <c r="R88" t="n">
-        <v>0.24193</v>
+        <v>286.1270444</v>
       </c>
       <c r="S88" t="n">
-        <v>0.13626</v>
+        <v>150.9849992</v>
       </c>
       <c r="T88" t="n">
-        <v>0.203914</v>
+        <v>1.386909</v>
       </c>
       <c r="U88" t="n">
-        <v>38.92</v>
+        <v>1.241934</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.330526</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.185229</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.158167</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.147213</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>28.58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.274798</v>
+        <v>3.212301</v>
       </c>
       <c r="B89" t="n">
-        <v>2.15753</v>
+        <v>3.060239</v>
       </c>
       <c r="C89" t="n">
-        <v>1.186199</v>
+        <v>1.960364</v>
       </c>
       <c r="D89" t="n">
-        <v>0.64206</v>
+        <v>0.707782</v>
       </c>
       <c r="E89" t="n">
-        <v>0.184584</v>
+        <v>0.462614</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121762</v>
+        <v>0.784458</v>
       </c>
       <c r="G89" t="n">
-        <v>0.172986</v>
+        <v>0.291544</v>
       </c>
       <c r="H89" t="n">
-        <v>0.005362444</v>
+        <v>0.211002</v>
       </c>
       <c r="I89" t="n">
-        <v>578.6070949</v>
+        <v>0.009626193</v>
       </c>
       <c r="J89" t="n">
-        <v>535.8828491</v>
+        <v>0.009192166999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>150.9849992</v>
+        <v>0.005885584</v>
       </c>
       <c r="L89" t="n">
-        <v>44.0924413</v>
+        <v>0.000851282</v>
       </c>
       <c r="M89" t="n">
-        <v>78.78297259999999</v>
+        <v>0.002133449</v>
       </c>
       <c r="N89" t="n">
-        <v>26.5785141</v>
+        <v>0.000876443</v>
       </c>
       <c r="O89" t="n">
-        <v>54.4771948</v>
+        <v>0.000461285</v>
       </c>
       <c r="P89" t="n">
-        <v>1.386909</v>
+        <v>0.000214917</v>
       </c>
       <c r="Q89" t="n">
+        <v>712.8662277</v>
+      </c>
+      <c r="R89" t="n">
+        <v>427.7805252</v>
+      </c>
+      <c r="S89" t="n">
+        <v>158.5719792</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.521574</v>
+      </c>
+      <c r="U89" t="n">
         <v>1.241934</v>
       </c>
-      <c r="R89" t="n">
-        <v>0.185229</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.052818</v>
-      </c>
-      <c r="T89" t="n">
-        <v>0.158167</v>
-      </c>
-      <c r="U89" t="n">
-        <v>28.58</v>
+      <c r="V89" t="n">
+        <v>0.271247</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.175564</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.181363</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.15559</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>48.79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.212301</v>
+        <v>1.877374</v>
       </c>
       <c r="B90" t="n">
-        <v>3.060239</v>
+        <v>1.621252</v>
       </c>
       <c r="C90" t="n">
-        <v>1.960364</v>
+        <v>0.8973449999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.707782</v>
+        <v>0.482072</v>
       </c>
       <c r="E90" t="n">
-        <v>0.306363</v>
+        <v>0.315835</v>
       </c>
       <c r="F90" t="n">
-        <v>0.298953</v>
+        <v>0.344507</v>
       </c>
       <c r="G90" t="n">
-        <v>0.211002</v>
+        <v>0.280396</v>
       </c>
       <c r="H90" t="n">
-        <v>0.009192166999999999</v>
+        <v>0.262999</v>
       </c>
       <c r="I90" t="n">
-        <v>789.7460841</v>
+        <v>0.004396892</v>
       </c>
       <c r="J90" t="n">
-        <v>712.8662277</v>
+        <v>0.00377206</v>
       </c>
       <c r="K90" t="n">
-        <v>158.5719792</v>
+        <v>0.001947885</v>
       </c>
       <c r="L90" t="n">
-        <v>62.2142244</v>
+        <v>0.000248464</v>
       </c>
       <c r="M90" t="n">
-        <v>162.0925176</v>
+        <v>0.000494836</v>
       </c>
       <c r="N90" t="n">
-        <v>58.9045508</v>
+        <v>0.000194998</v>
       </c>
       <c r="O90" t="n">
-        <v>70.73816619999999</v>
+        <v>0.000115324</v>
       </c>
       <c r="P90" t="n">
-        <v>1.521574</v>
+        <v>6.08e-05</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.241934</v>
+        <v>405.4168276</v>
       </c>
       <c r="R90" t="n">
-        <v>0.175564</v>
+        <v>224.6684341</v>
       </c>
       <c r="S90" t="n">
-        <v>0.094056</v>
+        <v>122.990266</v>
       </c>
       <c r="T90" t="n">
-        <v>0.181363</v>
+        <v>1.185361</v>
       </c>
       <c r="U90" t="n">
-        <v>48.79</v>
+        <v>0.974987</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.311969</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.226917</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.255267</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.247213</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>21.13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.498382</v>
+        <v>1.827374</v>
       </c>
       <c r="B91" t="n">
-        <v>2.394322</v>
+        <v>1.571252</v>
       </c>
       <c r="C91" t="n">
-        <v>1.355014</v>
+        <v>0.847345</v>
       </c>
       <c r="D91" t="n">
-        <v>0.752241</v>
+        <v>0.432072</v>
       </c>
       <c r="E91" t="n">
-        <v>0.214224</v>
+        <v>0.265835</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143669</v>
+        <v>0.294507</v>
       </c>
       <c r="G91" t="n">
-        <v>0.171698</v>
+        <v>0.230396</v>
       </c>
       <c r="H91" t="n">
-        <v>0.005479863</v>
+        <v>0.212999</v>
       </c>
       <c r="I91" t="n">
-        <v>666.3679929</v>
+        <v>0.004396892</v>
       </c>
       <c r="J91" t="n">
-        <v>625.8938875</v>
+        <v>0.00377206</v>
       </c>
       <c r="K91" t="n">
-        <v>184.4585877</v>
+        <v>0.001947885</v>
       </c>
       <c r="L91" t="n">
-        <v>52.5284857</v>
+        <v>0.000248464</v>
       </c>
       <c r="M91" t="n">
-        <v>93.17688200000001</v>
+        <v>0.000494836</v>
       </c>
       <c r="N91" t="n">
-        <v>32.5724534</v>
+        <v>0.000194998</v>
       </c>
       <c r="O91" t="n">
-        <v>54.6730089</v>
+        <v>0.000115324</v>
       </c>
       <c r="P91" t="n">
-        <v>1.722606</v>
+        <v>6.08e-05</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.570543</v>
+        <v>390.0468276</v>
       </c>
       <c r="R91" t="n">
-        <v>0.235809</v>
+        <v>209.2984341</v>
       </c>
       <c r="S91" t="n">
-        <v>0.06796000000000001</v>
+        <v>107.620266</v>
       </c>
       <c r="T91" t="n">
-        <v>0.157523</v>
+        <v>1.135361</v>
       </c>
       <c r="U91" t="n">
-        <v>28.62</v>
+        <v>0.924987</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.261969</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.176917</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.205267</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.197213</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>20.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.827374</v>
+        <v>1.662361</v>
       </c>
       <c r="B92" t="n">
-        <v>1.571252</v>
+        <v>1.403661</v>
       </c>
       <c r="C92" t="n">
-        <v>0.847345</v>
+        <v>0.723569</v>
       </c>
       <c r="D92" t="n">
-        <v>0.432072</v>
+        <v>0.37273</v>
       </c>
       <c r="E92" t="n">
-        <v>0.173051</v>
+        <v>0.205847</v>
       </c>
       <c r="F92" t="n">
-        <v>0.131169</v>
+        <v>0.216801</v>
       </c>
       <c r="G92" t="n">
-        <v>0.212999</v>
+        <v>0.178785</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00377206</v>
+        <v>0.164288</v>
       </c>
       <c r="I92" t="n">
-        <v>464.8639491</v>
+        <v>0.004483908</v>
       </c>
       <c r="J92" t="n">
-        <v>390.0468276</v>
+        <v>0.003783593</v>
       </c>
       <c r="K92" t="n">
-        <v>107.620266</v>
+        <v>0.001897563</v>
       </c>
       <c r="L92" t="n">
-        <v>45.7270118</v>
+        <v>0.000245321</v>
       </c>
       <c r="M92" t="n">
-        <v>74.3391062</v>
+        <v>0.000458142</v>
       </c>
       <c r="N92" t="n">
-        <v>33.3839368</v>
+        <v>0.000188708</v>
       </c>
       <c r="O92" t="n">
-        <v>66.3130029</v>
+        <v>0.000103791</v>
       </c>
       <c r="P92" t="n">
-        <v>1.135361</v>
+        <v>4.93e-05</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.924987</v>
+        <v>322.826217</v>
       </c>
       <c r="R92" t="n">
-        <v>0.176917</v>
+        <v>165.3210071</v>
       </c>
       <c r="S92" t="n">
-        <v>0.08638800000000001</v>
+        <v>83.8919501</v>
       </c>
       <c r="T92" t="n">
-        <v>0.205267</v>
+        <v>0.8524350000000001</v>
       </c>
       <c r="U92" t="n">
-        <v>20.01</v>
+        <v>0.669122</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.174919</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.105009</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.15269</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.150113</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>17.78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.662361</v>
+        <v>1.302501</v>
       </c>
       <c r="B93" t="n">
-        <v>1.403661</v>
+        <v>1.075052</v>
       </c>
       <c r="C93" t="n">
-        <v>0.723569</v>
+        <v>0.558297</v>
       </c>
       <c r="D93" t="n">
-        <v>0.37273</v>
+        <v>0.239675</v>
       </c>
       <c r="E93" t="n">
-        <v>0.116607</v>
+        <v>0.144958</v>
       </c>
       <c r="F93" t="n">
-        <v>0.070538</v>
+        <v>0.183618</v>
       </c>
       <c r="G93" t="n">
-        <v>0.164288</v>
+        <v>0.161066</v>
       </c>
       <c r="H93" t="n">
-        <v>0.003783593</v>
+        <v>0.151401</v>
       </c>
       <c r="I93" t="n">
-        <v>394.578029</v>
+        <v>0.003540368</v>
       </c>
       <c r="J93" t="n">
-        <v>322.826217</v>
+        <v>0.002889326</v>
       </c>
       <c r="K93" t="n">
-        <v>83.8919501</v>
+        <v>0.001434182</v>
       </c>
       <c r="L93" t="n">
-        <v>27.3923399</v>
+        <v>0.000156209</v>
       </c>
       <c r="M93" t="n">
-        <v>50.2351173</v>
+        <v>0.000362737</v>
       </c>
       <c r="N93" t="n">
-        <v>14.5480704</v>
+        <v>0.000135239</v>
       </c>
       <c r="O93" t="n">
-        <v>50.3752772</v>
+        <v>8.7e-05</v>
       </c>
       <c r="P93" t="n">
-        <v>0.8524350000000001</v>
+        <v>4.19e-05</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.669122</v>
+        <v>240.4230418</v>
       </c>
       <c r="R93" t="n">
-        <v>0.105009</v>
+        <v>125.7443108</v>
       </c>
       <c r="S93" t="n">
-        <v>0.027045</v>
+        <v>54.067411</v>
       </c>
       <c r="T93" t="n">
-        <v>0.15269</v>
+        <v>0.614032</v>
       </c>
       <c r="U93" t="n">
-        <v>17.78</v>
+        <v>0.4813</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.111453</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.076014</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.144636</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.141736</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>13.64</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.302501</v>
+        <v>1.877695</v>
       </c>
       <c r="B94" t="n">
-        <v>1.075052</v>
+        <v>1.621895</v>
       </c>
       <c r="C94" t="n">
-        <v>0.558297</v>
+        <v>1.012357</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239675</v>
+        <v>0.616737</v>
       </c>
       <c r="E94" t="n">
-        <v>0.086968</v>
+        <v>0.513321</v>
       </c>
       <c r="F94" t="n">
-        <v>0.055718</v>
+        <v>0.571634</v>
       </c>
       <c r="G94" t="n">
-        <v>0.151401</v>
+        <v>0.500757</v>
       </c>
       <c r="H94" t="n">
-        <v>0.002889326</v>
+        <v>0.489481</v>
       </c>
       <c r="I94" t="n">
-        <v>299.3798353</v>
+        <v>0.004032057</v>
       </c>
       <c r="J94" t="n">
-        <v>240.4230418</v>
+        <v>0.003330693</v>
       </c>
       <c r="K94" t="n">
-        <v>54.067411</v>
+        <v>0.001673209</v>
       </c>
       <c r="L94" t="n">
-        <v>20.8809623</v>
+        <v>0.000182418</v>
       </c>
       <c r="M94" t="n">
-        <v>43.0588026</v>
+        <v>0.000440319</v>
       </c>
       <c r="N94" t="n">
-        <v>11.4581801</v>
+        <v>0.000171936</v>
       </c>
       <c r="O94" t="n">
-        <v>46.363247</v>
+        <v>7.23e-05</v>
       </c>
       <c r="P94" t="n">
-        <v>0.614032</v>
+        <v>3.56e-05</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.4813</v>
+        <v>402.1741027</v>
       </c>
       <c r="R94" t="n">
-        <v>0.076014</v>
+        <v>261.0380282</v>
       </c>
       <c r="S94" t="n">
-        <v>0.018991</v>
+        <v>170.0438844</v>
       </c>
       <c r="T94" t="n">
-        <v>0.144636</v>
+        <v>1.147667</v>
       </c>
       <c r="U94" t="n">
-        <v>13.64</v>
+        <v>0.977885</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.492381</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.443411</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.480138</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.476595</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>21.28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.877695</v>
+        <v>1.442966</v>
       </c>
       <c r="B95" t="n">
-        <v>1.621895</v>
+        <v>1.241934</v>
       </c>
       <c r="C95" t="n">
-        <v>1.012357</v>
+        <v>0.627241</v>
       </c>
       <c r="D95" t="n">
-        <v>0.616737</v>
+        <v>0.320861</v>
       </c>
       <c r="E95" t="n">
-        <v>0.449855</v>
+        <v>0.181041</v>
       </c>
       <c r="F95" t="n">
-        <v>0.421504</v>
+        <v>0.178463</v>
       </c>
       <c r="G95" t="n">
-        <v>0.489481</v>
+        <v>0.157523</v>
       </c>
       <c r="H95" t="n">
-        <v>0.003330693</v>
+        <v>0.147535</v>
       </c>
       <c r="I95" t="n">
-        <v>471.3086356</v>
+        <v>0.003620046</v>
       </c>
       <c r="J95" t="n">
-        <v>402.1741027</v>
+        <v>0.003110537</v>
       </c>
       <c r="K95" t="n">
-        <v>170.0438844</v>
+        <v>0.001515955</v>
       </c>
       <c r="L95" t="n">
-        <v>131.5136021</v>
+        <v>0.000187657</v>
       </c>
       <c r="M95" t="n">
-        <v>159.5372345</v>
+        <v>0.000332333</v>
       </c>
       <c r="N95" t="n">
-        <v>122.6212869</v>
+        <v>0.000140482</v>
       </c>
       <c r="O95" t="n">
-        <v>150.3965284</v>
+        <v>6.499999999999999e-05</v>
       </c>
       <c r="P95" t="n">
-        <v>1.147667</v>
+        <v>2.62e-05</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.977885</v>
+        <v>300.3554157</v>
       </c>
       <c r="R95" t="n">
-        <v>0.443411</v>
+        <v>151.0717954</v>
       </c>
       <c r="S95" t="n">
-        <v>0.379945</v>
+        <v>76.5387322</v>
       </c>
       <c r="T95" t="n">
-        <v>0.480138</v>
+        <v>0.847925</v>
       </c>
       <c r="U95" t="n">
-        <v>21.28</v>
+        <v>0.689097</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.172986</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.103399</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.141736</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.136582</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>14.72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.442966</v>
+        <v>1.777695</v>
       </c>
       <c r="B96" t="n">
-        <v>1.241934</v>
+        <v>1.521895</v>
       </c>
       <c r="C96" t="n">
-        <v>0.627241</v>
+        <v>0.912357</v>
       </c>
       <c r="D96" t="n">
-        <v>0.320861</v>
+        <v>0.516737</v>
       </c>
       <c r="E96" t="n">
-        <v>0.103399</v>
+        <v>0.413321</v>
       </c>
       <c r="F96" t="n">
-        <v>0.056684</v>
+        <v>0.471634</v>
       </c>
       <c r="G96" t="n">
-        <v>0.147535</v>
+        <v>0.400757</v>
       </c>
       <c r="H96" t="n">
-        <v>0.003110537</v>
+        <v>0.389481</v>
       </c>
       <c r="I96" t="n">
-        <v>358.2116603</v>
+        <v>0.004032057</v>
       </c>
       <c r="J96" t="n">
-        <v>300.3554157</v>
+        <v>0.003330693</v>
       </c>
       <c r="K96" t="n">
-        <v>76.5387322</v>
+        <v>0.001673209</v>
       </c>
       <c r="L96" t="n">
-        <v>25.3978016</v>
+        <v>0.000182418</v>
       </c>
       <c r="M96" t="n">
-        <v>43.258224</v>
+        <v>0.000440319</v>
       </c>
       <c r="N96" t="n">
-        <v>12.1118494</v>
+        <v>0.000171936</v>
       </c>
       <c r="O96" t="n">
-        <v>45.5301224</v>
+        <v>7.23e-05</v>
       </c>
       <c r="P96" t="n">
-        <v>0.847925</v>
+        <v>3.56e-05</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.689097</v>
+        <v>371.4341027</v>
       </c>
       <c r="R96" t="n">
-        <v>0.103399</v>
+        <v>230.2980282</v>
       </c>
       <c r="S96" t="n">
-        <v>0.023179</v>
+        <v>139.3038844</v>
       </c>
       <c r="T96" t="n">
-        <v>0.141736</v>
+        <v>1.047667</v>
       </c>
       <c r="U96" t="n">
-        <v>14.72</v>
+        <v>0.877885</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.392381</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.343411</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.380138</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.376595</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>19.37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.777695</v>
+        <v>1.51352</v>
       </c>
       <c r="B97" t="n">
-        <v>1.521895</v>
+        <v>1.327952</v>
       </c>
       <c r="C97" t="n">
-        <v>0.912357</v>
+        <v>0.672666</v>
       </c>
       <c r="D97" t="n">
-        <v>0.516737</v>
+        <v>0.345023</v>
       </c>
       <c r="E97" t="n">
-        <v>0.349855</v>
+        <v>0.194249</v>
       </c>
       <c r="F97" t="n">
-        <v>0.321504</v>
+        <v>0.194572</v>
       </c>
       <c r="G97" t="n">
-        <v>0.389481</v>
+        <v>0.16912</v>
       </c>
       <c r="H97" t="n">
-        <v>0.003330693</v>
+        <v>0.1572</v>
       </c>
       <c r="I97" t="n">
-        <v>440.5686356</v>
+        <v>0.003732219</v>
       </c>
       <c r="J97" t="n">
-        <v>371.4341027</v>
+        <v>0.003260452</v>
       </c>
       <c r="K97" t="n">
-        <v>139.3038844</v>
+        <v>0.001606115</v>
       </c>
       <c r="L97" t="n">
-        <v>100.7736021</v>
+        <v>0.000215965</v>
       </c>
       <c r="M97" t="n">
-        <v>128.7972345</v>
+        <v>0.000376365</v>
       </c>
       <c r="N97" t="n">
-        <v>91.88128690000001</v>
+        <v>0.000163547</v>
       </c>
       <c r="O97" t="n">
-        <v>119.6565284</v>
+        <v>6.81e-05</v>
       </c>
       <c r="P97" t="n">
-        <v>1.047667</v>
+        <v>3.25e-05</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.877885</v>
+        <v>328.2880596</v>
       </c>
       <c r="R97" t="n">
-        <v>0.343411</v>
+        <v>164.9845416</v>
       </c>
       <c r="S97" t="n">
-        <v>0.279945</v>
+        <v>84.21176560000001</v>
       </c>
       <c r="T97" t="n">
-        <v>0.380138</v>
+        <v>0.933299</v>
       </c>
       <c r="U97" t="n">
-        <v>19.37</v>
+        <v>0.785424</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.200048</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.119185</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.152368</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.147535</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>15.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.51352</v>
+        <v>1.527695</v>
       </c>
       <c r="B98" t="n">
-        <v>1.327952</v>
+        <v>1.271895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.672666</v>
+        <v>0.662357</v>
       </c>
       <c r="D98" t="n">
-        <v>0.345023</v>
+        <v>0.266737</v>
       </c>
       <c r="E98" t="n">
-        <v>0.111453</v>
+        <v>0.163321</v>
       </c>
       <c r="F98" t="n">
-        <v>0.064094</v>
+        <v>0.221634</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1572</v>
+        <v>0.150757</v>
       </c>
       <c r="H98" t="n">
-        <v>0.003260452</v>
+        <v>0.139481</v>
       </c>
       <c r="I98" t="n">
-        <v>381.8933487</v>
+        <v>0.004032057</v>
       </c>
       <c r="J98" t="n">
-        <v>328.2880596</v>
+        <v>0.003330693</v>
       </c>
       <c r="K98" t="n">
-        <v>84.21176560000001</v>
+        <v>0.001673209</v>
       </c>
       <c r="L98" t="n">
-        <v>27.6852817</v>
+        <v>0.000182418</v>
       </c>
       <c r="M98" t="n">
-        <v>47.7323009</v>
+        <v>0.000440319</v>
       </c>
       <c r="N98" t="n">
-        <v>13.9032873</v>
+        <v>0.000171936</v>
       </c>
       <c r="O98" t="n">
-        <v>48.7544074</v>
+        <v>7.23e-05</v>
       </c>
       <c r="P98" t="n">
-        <v>0.933299</v>
+        <v>3.56e-05</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.785424</v>
+        <v>294.5841027</v>
       </c>
       <c r="R98" t="n">
-        <v>0.119185</v>
+        <v>153.4480282</v>
       </c>
       <c r="S98" t="n">
-        <v>0.029945</v>
+        <v>62.4538844</v>
       </c>
       <c r="T98" t="n">
-        <v>0.152368</v>
+        <v>0.797667</v>
       </c>
       <c r="U98" t="n">
-        <v>15.59</v>
+        <v>0.627885</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.142381</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.09341099999999999</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.130138</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.126595</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>15.71</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.527695</v>
+        <v>2.532531</v>
       </c>
       <c r="B99" t="n">
-        <v>1.271895</v>
+        <v>2.517389</v>
       </c>
       <c r="C99" t="n">
-        <v>0.662357</v>
+        <v>1.574087</v>
       </c>
       <c r="D99" t="n">
-        <v>0.266737</v>
+        <v>0.960361</v>
       </c>
       <c r="E99" t="n">
-        <v>0.099855</v>
+        <v>0.527691</v>
       </c>
       <c r="F99" t="n">
-        <v>0.071504</v>
+        <v>0.694574</v>
       </c>
       <c r="G99" t="n">
-        <v>0.139481</v>
+        <v>0.265126</v>
       </c>
       <c r="H99" t="n">
-        <v>0.003330693</v>
+        <v>0.205847</v>
       </c>
       <c r="I99" t="n">
-        <v>363.7186356</v>
+        <v>0.005499782</v>
       </c>
       <c r="J99" t="n">
-        <v>294.5841027</v>
+        <v>0.005314217</v>
       </c>
       <c r="K99" t="n">
-        <v>62.4538844</v>
+        <v>0.003544562</v>
       </c>
       <c r="L99" t="n">
-        <v>23.9236021</v>
+        <v>0.000592333</v>
       </c>
       <c r="M99" t="n">
-        <v>51.9472345</v>
+        <v>0.001487647</v>
       </c>
       <c r="N99" t="n">
-        <v>15.0312869</v>
+        <v>0.000565073</v>
       </c>
       <c r="O99" t="n">
-        <v>42.8065284</v>
+        <v>0.000301933</v>
       </c>
       <c r="P99" t="n">
-        <v>0.797667</v>
+        <v>0.000147823</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.627885</v>
+        <v>666.1518834</v>
       </c>
       <c r="R99" t="n">
-        <v>0.09341099999999999</v>
+        <v>400.5861366</v>
       </c>
       <c r="S99" t="n">
-        <v>0.029945</v>
+        <v>236.1656781</v>
       </c>
       <c r="T99" t="n">
-        <v>0.130138</v>
+        <v>1.794771</v>
       </c>
       <c r="U99" t="n">
-        <v>15.71</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2.532531</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.517389</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.574087</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.960361</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.274147</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.251273</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.205847</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.005314217</v>
-      </c>
-      <c r="I100" t="n">
-        <v>680.2320214</v>
-      </c>
-      <c r="J100" t="n">
-        <v>666.1518834</v>
-      </c>
-      <c r="K100" t="n">
-        <v>236.1656781</v>
-      </c>
-      <c r="L100" t="n">
-        <v>66.9621538</v>
-      </c>
-      <c r="M100" t="n">
-        <v>167.400946</v>
-      </c>
-      <c r="N100" t="n">
-        <v>58.8235534</v>
-      </c>
-      <c r="O100" t="n">
-        <v>69.3484076</v>
-      </c>
-      <c r="P100" t="n">
-        <v>1.794771</v>
-      </c>
-      <c r="Q100" t="n">
         <v>1.725505</v>
       </c>
-      <c r="R100" t="n">
+      <c r="V99" t="n">
+        <v>0.559586</v>
+      </c>
+      <c r="W99" t="n">
         <v>0.310874</v>
       </c>
-      <c r="S100" t="n">
-        <v>0.132394</v>
-      </c>
-      <c r="T100" t="n">
+      <c r="X99" t="n">
         <v>0.189095</v>
       </c>
-      <c r="U100" t="n">
+      <c r="Y99" t="n">
+        <v>0.162355</v>
+      </c>
+      <c r="Z99" t="n">
         <v>0</v>
       </c>
     </row>

--- a/svr-dimension-reduce.xlsx
+++ b/svr-dimension-reduce.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,5601 +442,5101 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.216161</v>
+        <v>0.483555</v>
       </c>
       <c r="B1" t="n">
-        <v>0.931688</v>
+        <v>0.07827000000000001</v>
       </c>
       <c r="C1" t="n">
-        <v>0.173953</v>
+        <v>0.141092</v>
       </c>
       <c r="D1" t="n">
-        <v>0.151079</v>
+        <v>0.003326499</v>
       </c>
       <c r="E1" t="n">
-        <v>0.003326499</v>
+        <v>0.001244426</v>
       </c>
       <c r="F1" t="n">
-        <v>0.002522395</v>
+        <v>0.000282014</v>
       </c>
       <c r="G1" t="n">
-        <v>0.001244426</v>
+        <v>0.000141533</v>
       </c>
       <c r="H1" t="n">
-        <v>0.000137338</v>
+        <v>0.000351207</v>
       </c>
       <c r="I1" t="n">
-        <v>2.2e-05</v>
+        <v>270.7666116</v>
       </c>
       <c r="J1" t="n">
-        <v>270.7666116</v>
+        <v>44.4795506</v>
       </c>
       <c r="K1" t="n">
-        <v>44.4795506</v>
+        <v>30.0045257</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5489540000000001</v>
+        <v>10.2377857</v>
       </c>
       <c r="M1" t="n">
-        <v>0.403013</v>
+        <v>0.098244</v>
       </c>
       <c r="N1" t="n">
-        <v>0.098244</v>
+        <v>0.046053</v>
       </c>
       <c r="O1" t="n">
-        <v>0.09760000000000001</v>
+        <v>0.019635</v>
       </c>
       <c r="P1" t="n">
-        <v>0.13626</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>0.133682</v>
-      </c>
-      <c r="R1" t="n">
         <v>20.51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.225507</v>
+        <v>1.280272</v>
       </c>
       <c r="B2" t="n">
-        <v>2.026086</v>
+        <v>0.24483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.814742</v>
+        <v>0.35501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.453593</v>
+        <v>0.006012441</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006012441</v>
+        <v>0.003478516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005571074</v>
+        <v>0.001063052</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003478516</v>
+        <v>0.000659427</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000676202</v>
+        <v>0.001810547</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000505317</v>
+        <v>556.1054986</v>
       </c>
       <c r="J2" t="n">
-        <v>556.1054986</v>
+        <v>162.9423585</v>
       </c>
       <c r="K2" t="n">
-        <v>162.9423585</v>
+        <v>92.25274880000001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.20424</v>
+        <v>64.0397179</v>
       </c>
       <c r="M2" t="n">
-        <v>0.975502</v>
+        <v>0.312807</v>
       </c>
       <c r="N2" t="n">
-        <v>0.312807</v>
+        <v>0.104043</v>
       </c>
       <c r="O2" t="n">
-        <v>0.450372</v>
+        <v>0.130783</v>
       </c>
       <c r="P2" t="n">
-        <v>0.291221</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.245796</v>
-      </c>
-      <c r="R2" t="n">
         <v>27.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.475504</v>
+        <v>1.667189</v>
       </c>
       <c r="B3" t="n">
-        <v>2.305723</v>
+        <v>1.111453</v>
       </c>
       <c r="C3" t="n">
-        <v>1.194894</v>
+        <v>1.155912</v>
       </c>
       <c r="D3" t="n">
-        <v>1.168798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I3" t="n">
-        <v>4.72e-05</v>
+        <v>671.3068155</v>
       </c>
       <c r="J3" t="n">
-        <v>671.3068155</v>
+        <v>389.6776396</v>
       </c>
       <c r="K3" t="n">
-        <v>389.6776396</v>
+        <v>354.1838468</v>
       </c>
       <c r="L3" t="n">
-        <v>1.848569</v>
+        <v>320.9783204</v>
       </c>
       <c r="M3" t="n">
-        <v>1.711004</v>
+        <v>1.185873</v>
       </c>
       <c r="N3" t="n">
-        <v>1.185873</v>
+        <v>1.066672</v>
       </c>
       <c r="O3" t="n">
-        <v>1.112097</v>
+        <v>1.027045</v>
       </c>
       <c r="P3" t="n">
-        <v>1.150435</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.143992</v>
-      </c>
-      <c r="R3" t="n">
         <v>33.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.828598</v>
+        <v>0.813453</v>
       </c>
       <c r="B4" t="n">
-        <v>1.562811</v>
+        <v>0.127883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235809</v>
+        <v>0.167832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.184262</v>
+        <v>0.00486971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00486971</v>
+        <v>0.002126108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004167296</v>
+        <v>0.000542011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002126108</v>
+        <v>0.000274676</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000206531</v>
+        <v>0.00051685</v>
       </c>
       <c r="I4" t="n">
-        <v>5.35e-05</v>
+        <v>440.2243267</v>
       </c>
       <c r="J4" t="n">
-        <v>440.2243267</v>
+        <v>93.96712460000001</v>
       </c>
       <c r="K4" t="n">
-        <v>93.96712460000001</v>
+        <v>52.7167335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.968093</v>
+        <v>16.2563253</v>
       </c>
       <c r="M4" t="n">
-        <v>0.767061</v>
+        <v>0.196505</v>
       </c>
       <c r="N4" t="n">
-        <v>0.196505</v>
+        <v>0.06957099999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0.122084</v>
+        <v>0.029622</v>
       </c>
       <c r="P4" t="n">
-        <v>0.153334</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.147535</v>
-      </c>
-      <c r="R4" t="n">
         <v>20.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.977374</v>
+        <v>0.997345</v>
       </c>
       <c r="B5" t="n">
-        <v>1.721252</v>
+        <v>0.323051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.444507</v>
+        <v>0.362999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.380396</v>
+        <v>0.004396892</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004396892</v>
+        <v>0.001947885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00377206</v>
+        <v>0.000480156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001947885</v>
+        <v>0.000248464</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000194998</v>
+        <v>0.000494836</v>
       </c>
       <c r="I5" t="n">
-        <v>6.08e-05</v>
+        <v>510.9739491</v>
       </c>
       <c r="J5" t="n">
-        <v>510.9739491</v>
+        <v>153.730266</v>
       </c>
       <c r="K5" t="n">
-        <v>153.730266</v>
+        <v>114.4209226</v>
       </c>
       <c r="L5" t="n">
-        <v>1.285361</v>
+        <v>79.4939368</v>
       </c>
       <c r="M5" t="n">
-        <v>1.074987</v>
+        <v>0.411969</v>
       </c>
       <c r="N5" t="n">
-        <v>0.411969</v>
+        <v>0.273759</v>
       </c>
       <c r="O5" t="n">
-        <v>0.340448</v>
+        <v>0.236388</v>
       </c>
       <c r="P5" t="n">
-        <v>0.355267</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.347213</v>
-      </c>
-      <c r="R5" t="n">
         <v>23.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.044836</v>
+        <v>0.994252</v>
       </c>
       <c r="B6" t="n">
-        <v>1.743611</v>
+        <v>0.203012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431106</v>
+        <v>0.236195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.272278</v>
+        <v>0.005038497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005038497</v>
+        <v>0.002398689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004330846</v>
+        <v>0.000663622</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002398689</v>
+        <v>0.000338627</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000331289</v>
+        <v>0.000849186</v>
       </c>
       <c r="I6" t="n">
-        <v>9.75e-05</v>
+        <v>505.6718915</v>
       </c>
       <c r="J6" t="n">
-        <v>505.6718915</v>
+        <v>128.1101389</v>
       </c>
       <c r="K6" t="n">
-        <v>128.1101389</v>
+        <v>79.74737810000001</v>
       </c>
       <c r="L6" t="n">
-        <v>1.190774</v>
+        <v>43.4519638</v>
       </c>
       <c r="M6" t="n">
-        <v>0.940773</v>
+        <v>0.298051</v>
       </c>
       <c r="N6" t="n">
-        <v>0.298051</v>
+        <v>0.132136</v>
       </c>
       <c r="O6" t="n">
-        <v>0.251015</v>
+        <v>0.107329</v>
       </c>
       <c r="P6" t="n">
-        <v>0.224597</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.209778</v>
-      </c>
-      <c r="R6" t="n">
         <v>24.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.335043</v>
+        <v>1.37821</v>
       </c>
       <c r="B7" t="n">
-        <v>2.300249</v>
+        <v>0.233232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.557009</v>
+        <v>0.197149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245474</v>
+        <v>0.005514461</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005514461</v>
+        <v>0.003304484</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005357201</v>
+        <v>0.001041038</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003304484</v>
+        <v>0.000526287</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000479108</v>
+        <v>0.001238132</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000131048</v>
+        <v>606.9029073</v>
       </c>
       <c r="J7" t="n">
-        <v>606.9029073</v>
+        <v>192.5788165</v>
       </c>
       <c r="K7" t="n">
-        <v>192.5788165</v>
+        <v>105.9040267</v>
       </c>
       <c r="L7" t="n">
-        <v>1.506754</v>
+        <v>45.2311675</v>
       </c>
       <c r="M7" t="n">
-        <v>1.422991</v>
+        <v>0.43233</v>
       </c>
       <c r="N7" t="n">
-        <v>0.43233</v>
+        <v>0.127239</v>
       </c>
       <c r="O7" t="n">
-        <v>0.296376</v>
+        <v>0.094378</v>
       </c>
       <c r="P7" t="n">
-        <v>0.182974</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.162999</v>
-      </c>
-      <c r="R7" t="n">
         <v>28.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.215198</v>
+        <v>1.287359</v>
       </c>
       <c r="B8" t="n">
-        <v>1.756111</v>
+        <v>0.196827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.817319</v>
+        <v>0.309585</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432975</v>
+        <v>0.006367839</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006367839</v>
+        <v>0.003615854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005110836</v>
+        <v>0.000646847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003615854</v>
+        <v>0.000500078</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000802008</v>
+        <v>0.001901754</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000432981</v>
+        <v>533.7589958</v>
       </c>
       <c r="J8" t="n">
-        <v>533.7589958</v>
+        <v>103.2605868</v>
       </c>
       <c r="K8" t="n">
-        <v>103.2605868</v>
+        <v>58.4934308</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01674</v>
+        <v>68.5669271</v>
       </c>
       <c r="M8" t="n">
-        <v>0.668156</v>
+        <v>0.194894</v>
       </c>
       <c r="N8" t="n">
-        <v>0.194894</v>
+        <v>0.072148</v>
       </c>
       <c r="O8" t="n">
-        <v>0.403013</v>
+        <v>0.132716</v>
       </c>
       <c r="P8" t="n">
-        <v>0.267381</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.198115</v>
-      </c>
-      <c r="R8" t="n">
         <v>26.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.417837</v>
+        <v>0.610166</v>
       </c>
       <c r="B9" t="n">
-        <v>1.209073</v>
+        <v>0.09921000000000001</v>
       </c>
       <c r="C9" t="n">
+        <v>0.151401</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.003618998</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001485552</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000376368</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.000188708</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000324998</v>
+      </c>
+      <c r="I9" t="n">
+        <v>348.5832412</v>
+      </c>
+      <c r="J9" t="n">
+        <v>73.962112</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42.8207232</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.5065959</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.171376</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.161066</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.003618998</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.003065454</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.001485552</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.000140482</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.09e-05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>348.5832412</v>
-      </c>
-      <c r="K9" t="n">
-        <v>73.962112</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8153860000000001</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.661068</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.171376</v>
+        <v>0.062483</v>
       </c>
       <c r="O9" t="n">
-        <v>0.103721</v>
+        <v>0.023501</v>
       </c>
       <c r="P9" t="n">
-        <v>0.147535</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.144314</v>
-      </c>
-      <c r="R9" t="n">
         <v>18.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.225504</v>
+        <v>1.417189</v>
       </c>
       <c r="B10" t="n">
-        <v>2.055723</v>
+        <v>0.861453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.944894</v>
+        <v>0.9059120000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.918798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I10" t="n">
-        <v>4.72e-05</v>
+        <v>594.4568154999999</v>
       </c>
       <c r="J10" t="n">
-        <v>594.4568154999999</v>
+        <v>312.8276396</v>
       </c>
       <c r="K10" t="n">
-        <v>312.8276396</v>
+        <v>277.3338468</v>
       </c>
       <c r="L10" t="n">
-        <v>1.598569</v>
+        <v>244.1283204</v>
       </c>
       <c r="M10" t="n">
-        <v>1.461004</v>
+        <v>0.935873</v>
       </c>
       <c r="N10" t="n">
-        <v>0.935873</v>
+        <v>0.816672</v>
       </c>
       <c r="O10" t="n">
-        <v>0.862097</v>
+        <v>0.777045</v>
       </c>
       <c r="P10" t="n">
-        <v>0.900435</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.893992</v>
-      </c>
-      <c r="R10" t="n">
         <v>26.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.48227</v>
+        <v>0.71938</v>
       </c>
       <c r="B11" t="n">
-        <v>1.315388</v>
+        <v>0.126917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.278657</v>
+        <v>0.177497</v>
       </c>
       <c r="D11" t="n">
-        <v>0.204559</v>
+        <v>0.003639961</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003639961</v>
+        <v>0.001714097</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00321013</v>
+        <v>0.000454998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001714097</v>
+        <v>0.000250563</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000213869</v>
+        <v>0.000548301</v>
       </c>
       <c r="I11" t="n">
-        <v>9.119999999999999e-05</v>
+        <v>369.8227197</v>
       </c>
       <c r="J11" t="n">
-        <v>369.8227197</v>
+        <v>90.4165295</v>
       </c>
       <c r="K11" t="n">
-        <v>90.4165295</v>
+        <v>51.8436586</v>
       </c>
       <c r="L11" t="n">
-        <v>0.910425</v>
+        <v>20.9071201</v>
       </c>
       <c r="M11" t="n">
-        <v>0.783169</v>
+        <v>0.216479</v>
       </c>
       <c r="N11" t="n">
-        <v>0.216479</v>
+        <v>0.077947</v>
       </c>
       <c r="O11" t="n">
-        <v>0.170087</v>
+        <v>0.047342</v>
       </c>
       <c r="P11" t="n">
-        <v>0.166865</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.153334</v>
-      </c>
-      <c r="R11" t="n">
         <v>14.97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.84664</v>
+        <v>0.822796</v>
       </c>
       <c r="B12" t="n">
-        <v>1.579242</v>
+        <v>0.127561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23742</v>
+        <v>0.164932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.181685</v>
+        <v>0.005000758</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005000758</v>
+        <v>0.002186912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004291006</v>
+        <v>0.000550397</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002186912</v>
+        <v>0.000280966</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000209675</v>
+        <v>0.000524188</v>
       </c>
       <c r="I12" t="n">
-        <v>6.19e-05</v>
+        <v>439.8187509</v>
       </c>
       <c r="J12" t="n">
-        <v>439.8187509</v>
+        <v>93.43735359999999</v>
       </c>
       <c r="K12" t="n">
-        <v>93.43735359999999</v>
+        <v>52.4884112</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9461850000000001</v>
+        <v>16.1474004</v>
       </c>
       <c r="M12" t="n">
-        <v>0.741932</v>
+        <v>0.189417</v>
       </c>
       <c r="N12" t="n">
-        <v>0.189417</v>
+        <v>0.066994</v>
       </c>
       <c r="O12" t="n">
-        <v>0.119185</v>
+        <v>0.030267</v>
       </c>
       <c r="P12" t="n">
-        <v>0.154301</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.149146</v>
-      </c>
-      <c r="R12" t="n">
         <v>20.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.254498</v>
+        <v>0.518027</v>
       </c>
       <c r="B13" t="n">
-        <v>0.973892</v>
+        <v>0.085035</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197149</v>
+        <v>0.153012</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166865</v>
+        <v>0.00359698</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00359698</v>
+        <v>0.001393293</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002767716</v>
+        <v>0.000312418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001393293</v>
+        <v>0.000157257</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000153062</v>
+        <v>0.000402577</v>
       </c>
       <c r="I13" t="n">
-        <v>5.03e-05</v>
+        <v>275.3163042</v>
       </c>
       <c r="J13" t="n">
-        <v>275.3163042</v>
+        <v>47.1710233</v>
       </c>
       <c r="K13" t="n">
-        <v>47.1710233</v>
+        <v>31.8184532</v>
       </c>
       <c r="L13" t="n">
-        <v>0.486776</v>
+        <v>12.0652353</v>
       </c>
       <c r="M13" t="n">
-        <v>0.358232</v>
+        <v>0.089545</v>
       </c>
       <c r="N13" t="n">
-        <v>0.089545</v>
+        <v>0.043798</v>
       </c>
       <c r="O13" t="n">
-        <v>0.104043</v>
+        <v>0.021246</v>
       </c>
       <c r="P13" t="n">
-        <v>0.138515</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.132716</v>
-      </c>
-      <c r="R13" t="n">
         <v>17.69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.388519</v>
+        <v>0.662035</v>
       </c>
       <c r="B14" t="n">
-        <v>1.221637</v>
+        <v>0.116285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243219</v>
+        <v>0.175564</v>
       </c>
       <c r="D14" t="n">
-        <v>0.197471</v>
+        <v>0.003514159</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003514159</v>
+        <v>0.001619743</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003066502</v>
+        <v>0.000424592</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001619743</v>
+        <v>0.000223306</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000192903</v>
+        <v>0.000483303</v>
       </c>
       <c r="I14" t="n">
-        <v>8.49e-05</v>
+        <v>346.4718959</v>
       </c>
       <c r="J14" t="n">
-        <v>346.4718959</v>
+        <v>83.21662430000001</v>
       </c>
       <c r="K14" t="n">
-        <v>83.21662430000001</v>
+        <v>48.1280861</v>
       </c>
       <c r="L14" t="n">
-        <v>0.84277</v>
+        <v>17.9419959</v>
       </c>
       <c r="M14" t="n">
-        <v>0.718414</v>
+        <v>0.199726</v>
       </c>
       <c r="N14" t="n">
-        <v>0.199726</v>
+        <v>0.071504</v>
       </c>
       <c r="O14" t="n">
-        <v>0.147858</v>
+        <v>0.037677</v>
       </c>
       <c r="P14" t="n">
-        <v>0.165899</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.154945</v>
-      </c>
-      <c r="R14" t="n">
         <v>13.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.6891</v>
+        <v>0.739355</v>
       </c>
       <c r="B15" t="n">
-        <v>1.428146</v>
+        <v>0.11693</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217123</v>
+        <v>0.164288</v>
       </c>
       <c r="D15" t="n">
-        <v>0.178785</v>
+        <v>0.004541568</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004541568</v>
+        <v>0.001942642</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003843349</v>
+        <v>0.00049274</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001942642</v>
+        <v>0.000247419</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000186612</v>
+        <v>0.000467579</v>
       </c>
       <c r="I15" t="n">
-        <v>5.24e-05</v>
+        <v>400.5030182</v>
       </c>
       <c r="J15" t="n">
-        <v>400.5030182</v>
+        <v>84.385316</v>
       </c>
       <c r="K15" t="n">
-        <v>84.385316</v>
+        <v>47.8569195</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8604889999999999</v>
+        <v>14.4719443</v>
       </c>
       <c r="M15" t="n">
-        <v>0.673633</v>
+        <v>0.174919</v>
       </c>
       <c r="N15" t="n">
-        <v>0.174919</v>
+        <v>0.063128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.111775</v>
+        <v>0.026079</v>
       </c>
       <c r="P15" t="n">
-        <v>0.153012</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.148502</v>
-      </c>
-      <c r="R15" t="n">
         <v>17.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.825504</v>
+        <v>1.017189</v>
       </c>
       <c r="B16" t="n">
-        <v>1.655723</v>
+        <v>0.461453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.544894</v>
+        <v>0.505912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.518798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I16" t="n">
-        <v>4.72e-05</v>
+        <v>471.4968155</v>
       </c>
       <c r="J16" t="n">
-        <v>471.4968155</v>
+        <v>189.8676396</v>
       </c>
       <c r="K16" t="n">
-        <v>189.8676396</v>
+        <v>154.3738468</v>
       </c>
       <c r="L16" t="n">
-        <v>1.198569</v>
+        <v>121.1683204</v>
       </c>
       <c r="M16" t="n">
-        <v>1.061004</v>
+        <v>0.535873</v>
       </c>
       <c r="N16" t="n">
-        <v>0.535873</v>
+        <v>0.416672</v>
       </c>
       <c r="O16" t="n">
-        <v>0.462097</v>
+        <v>0.377045</v>
       </c>
       <c r="P16" t="n">
-        <v>0.500435</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.493992</v>
-      </c>
-      <c r="R16" t="n">
         <v>19.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.464232</v>
+        <v>1.212617</v>
       </c>
       <c r="B17" t="n">
-        <v>2.211009</v>
+        <v>0.179752</v>
       </c>
       <c r="C17" t="n">
-        <v>0.386583</v>
+        <v>0.178141</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209069</v>
+        <v>0.004694631</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004694631</v>
+        <v>0.002522395</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004356004</v>
+        <v>0.000630075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002522395</v>
+        <v>0.000351207</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000319756</v>
+        <v>0.000786281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00010903</v>
+        <v>681.9206205</v>
       </c>
       <c r="J17" t="n">
-        <v>681.9206205</v>
+        <v>140.9911492</v>
       </c>
       <c r="K17" t="n">
-        <v>140.9911492</v>
+        <v>80.50038170000001</v>
       </c>
       <c r="L17" t="n">
-        <v>1.902052</v>
+        <v>33.2503266</v>
       </c>
       <c r="M17" t="n">
-        <v>1.637876</v>
+        <v>0.36983</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36983</v>
+        <v>0.119507</v>
       </c>
       <c r="O17" t="n">
-        <v>0.234842</v>
+        <v>0.07698099999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>0.165577</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.151724</v>
-      </c>
-      <c r="R17" t="n">
         <v>32.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.749993</v>
+        <v>1.880467</v>
       </c>
       <c r="B18" t="n">
-        <v>2.798962</v>
+        <v>0.354044</v>
       </c>
       <c r="C18" t="n">
-        <v>0.97518</v>
+        <v>0.240641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33568</v>
+        <v>0.006236791</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006236791</v>
+        <v>0.004417859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006213729</v>
+        <v>0.001641757</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004417859</v>
+        <v>0.000837654</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000824022</v>
+        <v>0.002100947</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000242174</v>
+        <v>752.2903421</v>
       </c>
       <c r="J18" t="n">
-        <v>752.2903421</v>
+        <v>303.0534306</v>
       </c>
       <c r="K18" t="n">
-        <v>303.0534306</v>
+        <v>169.1160323</v>
       </c>
       <c r="L18" t="n">
-        <v>1.996769</v>
+        <v>86.4061354</v>
       </c>
       <c r="M18" t="n">
-        <v>1.958431</v>
+        <v>0.709071</v>
       </c>
       <c r="N18" t="n">
-        <v>0.709071</v>
+        <v>0.201337</v>
       </c>
       <c r="O18" t="n">
-        <v>0.578916</v>
+        <v>0.199404</v>
       </c>
       <c r="P18" t="n">
-        <v>0.233876</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.186517</v>
-      </c>
-      <c r="R18" t="n">
         <v>29.87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.325504</v>
+        <v>1.517189</v>
       </c>
       <c r="B19" t="n">
-        <v>2.155723</v>
+        <v>0.961453</v>
       </c>
       <c r="C19" t="n">
-        <v>1.044894</v>
+        <v>1.005912</v>
       </c>
       <c r="D19" t="n">
-        <v>1.018798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I19" t="n">
-        <v>4.72e-05</v>
+        <v>625.1968155</v>
       </c>
       <c r="J19" t="n">
-        <v>625.1968155</v>
+        <v>343.5676396</v>
       </c>
       <c r="K19" t="n">
-        <v>343.5676396</v>
+        <v>308.0738468</v>
       </c>
       <c r="L19" t="n">
-        <v>1.698569</v>
+        <v>274.8683204</v>
       </c>
       <c r="M19" t="n">
-        <v>1.561004</v>
+        <v>1.035873</v>
       </c>
       <c r="N19" t="n">
-        <v>1.035873</v>
+        <v>0.916672</v>
       </c>
       <c r="O19" t="n">
-        <v>0.962097</v>
+        <v>0.877045</v>
       </c>
       <c r="P19" t="n">
-        <v>1.000435</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.993992</v>
-      </c>
-      <c r="R19" t="n">
         <v>28.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.087301</v>
+        <v>1.724539</v>
       </c>
       <c r="B20" t="n">
-        <v>2.919775</v>
+        <v>0.29541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.526403</v>
+        <v>0.215835</v>
       </c>
       <c r="D20" t="n">
-        <v>0.267381</v>
+        <v>0.008709909</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008709909</v>
+        <v>0.004965112</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008339834000000001</v>
+        <v>0.0014541</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004965112</v>
+        <v>0.000803056</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000571363</v>
+        <v>0.001389099</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000208627</v>
+        <v>781.4709356</v>
       </c>
       <c r="J20" t="n">
-        <v>781.4709356</v>
+        <v>208.2784915</v>
       </c>
       <c r="K20" t="n">
-        <v>208.2784915</v>
+        <v>112.6359164</v>
       </c>
       <c r="L20" t="n">
-        <v>1.788328</v>
+        <v>39.6027944</v>
       </c>
       <c r="M20" t="n">
-        <v>1.49419</v>
+        <v>0.393026</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393026</v>
+        <v>0.119185</v>
       </c>
       <c r="O20" t="n">
-        <v>0.215512</v>
+        <v>0.069249</v>
       </c>
       <c r="P20" t="n">
-        <v>0.177819</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.165899</v>
-      </c>
-      <c r="R20" t="n">
         <v>39.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.10308</v>
+        <v>0.497408</v>
       </c>
       <c r="B21" t="n">
-        <v>0.942964</v>
+        <v>0.087612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165577</v>
+        <v>0.153657</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16461</v>
+        <v>0.002936502</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002936502</v>
+        <v>0.001238132</v>
       </c>
       <c r="F21" t="n">
-        <v>0.002471025</v>
+        <v>0.000322899</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001238132</v>
+        <v>0.0001604</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000135239</v>
+        <v>0.000316609</v>
       </c>
       <c r="I21" t="n">
-        <v>4.82e-05</v>
+        <v>258.5614457</v>
       </c>
       <c r="J21" t="n">
-        <v>258.5614457</v>
+        <v>58.9431416</v>
       </c>
       <c r="K21" t="n">
-        <v>58.9431416</v>
+        <v>35.6719232</v>
       </c>
       <c r="L21" t="n">
-        <v>0.569573</v>
+        <v>10.457726</v>
       </c>
       <c r="M21" t="n">
-        <v>0.474212</v>
+        <v>0.132716</v>
       </c>
       <c r="N21" t="n">
-        <v>0.132716</v>
+        <v>0.055718</v>
       </c>
       <c r="O21" t="n">
-        <v>0.099855</v>
+        <v>0.019958</v>
       </c>
       <c r="P21" t="n">
-        <v>0.147858</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.143347</v>
-      </c>
-      <c r="R21" t="n">
         <v>12.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.625504</v>
+        <v>0.8171890000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>1.455723</v>
+        <v>0.261453</v>
       </c>
       <c r="C22" t="n">
-        <v>0.344894</v>
+        <v>0.305912</v>
       </c>
       <c r="D22" t="n">
-        <v>0.318798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H22" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I22" t="n">
-        <v>4.72e-05</v>
+        <v>410.0168155</v>
       </c>
       <c r="J22" t="n">
-        <v>410.0168155</v>
+        <v>128.3876396</v>
       </c>
       <c r="K22" t="n">
-        <v>128.3876396</v>
+        <v>92.89384680000001</v>
       </c>
       <c r="L22" t="n">
-        <v>0.998569</v>
+        <v>59.6883204</v>
       </c>
       <c r="M22" t="n">
-        <v>0.861004</v>
+        <v>0.335873</v>
       </c>
       <c r="N22" t="n">
-        <v>0.335873</v>
+        <v>0.216672</v>
       </c>
       <c r="O22" t="n">
-        <v>0.262097</v>
+        <v>0.177045</v>
       </c>
       <c r="P22" t="n">
-        <v>0.300435</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.293992</v>
-      </c>
-      <c r="R22" t="n">
         <v>17.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.427824</v>
+        <v>0.693285</v>
       </c>
       <c r="B23" t="n">
-        <v>1.245478</v>
+        <v>0.124662</v>
       </c>
       <c r="C23" t="n">
-        <v>0.316028</v>
+        <v>0.193927</v>
       </c>
       <c r="D23" t="n">
-        <v>0.228399</v>
+        <v>0.004150524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004150524</v>
+        <v>0.001929014</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003606417</v>
+        <v>0.0005095120000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001929014</v>
+        <v>0.000291448</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000278868</v>
+        <v>0.000717091</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000137335</v>
+        <v>309.2847645</v>
       </c>
       <c r="J23" t="n">
-        <v>309.2847645</v>
+        <v>75.83264200000001</v>
       </c>
       <c r="K23" t="n">
-        <v>75.83264200000001</v>
+        <v>45.1821339</v>
       </c>
       <c r="L23" t="n">
-        <v>0.543478</v>
+        <v>21.4555801</v>
       </c>
       <c r="M23" t="n">
-        <v>0.439418</v>
+        <v>0.138837</v>
       </c>
       <c r="N23" t="n">
-        <v>0.138837</v>
+        <v>0.059906</v>
       </c>
       <c r="O23" t="n">
-        <v>0.162999</v>
+        <v>0.039932</v>
       </c>
       <c r="P23" t="n">
-        <v>0.177497</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.163644</v>
-      </c>
-      <c r="R23" t="n">
         <v>14.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.959076</v>
+        <v>0.969059</v>
       </c>
       <c r="B24" t="n">
-        <v>1.834397</v>
+        <v>0.151401</v>
       </c>
       <c r="C24" t="n">
-        <v>0.278335</v>
+        <v>0.165254</v>
       </c>
       <c r="D24" t="n">
-        <v>0.185551</v>
+        <v>0.005402284</v>
       </c>
       <c r="E24" t="n">
-        <v>0.005402284</v>
+        <v>0.002620944</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005057367</v>
+        <v>0.000699268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002620944</v>
+        <v>0.000350156</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000268386</v>
+        <v>0.000645799</v>
       </c>
       <c r="I24" t="n">
-        <v>6.92e-05</v>
+        <v>466.54752</v>
       </c>
       <c r="J24" t="n">
-        <v>466.54752</v>
+        <v>113.6284443</v>
       </c>
       <c r="K24" t="n">
-        <v>113.6284443</v>
+        <v>63.8198406</v>
       </c>
       <c r="L24" t="n">
-        <v>0.993222</v>
+        <v>19.8498701</v>
       </c>
       <c r="M24" t="n">
-        <v>0.861456</v>
+        <v>0.22711</v>
       </c>
       <c r="N24" t="n">
-        <v>0.22711</v>
+        <v>0.076337</v>
       </c>
       <c r="O24" t="n">
-        <v>0.134971</v>
+        <v>0.03671</v>
       </c>
       <c r="P24" t="n">
-        <v>0.153012</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.149468</v>
-      </c>
-      <c r="R24" t="n">
         <v>22.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.578597</v>
+        <v>0.699084</v>
       </c>
       <c r="B25" t="n">
-        <v>1.340839</v>
+        <v>0.113386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227433</v>
+        <v>0.168154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.185551</v>
+        <v>0.004463986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004463986</v>
+        <v>0.001906996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003788835</v>
+        <v>0.000489593</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001906996</v>
+        <v>0.000251611</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000203384</v>
+        <v>0.000504269</v>
       </c>
       <c r="I25" t="n">
-        <v>7.23e-05</v>
+        <v>351.068491</v>
       </c>
       <c r="J25" t="n">
-        <v>351.068491</v>
+        <v>75.7070291</v>
       </c>
       <c r="K25" t="n">
-        <v>75.7070291</v>
+        <v>43.998267</v>
       </c>
       <c r="L25" t="n">
-        <v>0.666223</v>
+        <v>14.0218125</v>
       </c>
       <c r="M25" t="n">
-        <v>0.51706</v>
+        <v>0.139803</v>
       </c>
       <c r="N25" t="n">
-        <v>0.139803</v>
+        <v>0.054751</v>
       </c>
       <c r="O25" t="n">
-        <v>0.109198</v>
+        <v>0.021891</v>
       </c>
       <c r="P25" t="n">
-        <v>0.151724</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.147213</v>
-      </c>
-      <c r="R25" t="n">
         <v>15.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.927695</v>
+        <v>1.062357</v>
       </c>
       <c r="B26" t="n">
-        <v>1.671895</v>
+        <v>0.499855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.621634</v>
+        <v>0.539481</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5507570000000001</v>
+        <v>0.004032057</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004032057</v>
+        <v>0.001673209</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003330693</v>
+        <v>0.000338627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001673209</v>
+        <v>0.000182418</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000171936</v>
+        <v>0.000440319</v>
       </c>
       <c r="I26" t="n">
-        <v>3.56e-05</v>
+        <v>486.6786356</v>
       </c>
       <c r="J26" t="n">
-        <v>486.6786356</v>
+        <v>185.4138844</v>
       </c>
       <c r="K26" t="n">
-        <v>185.4138844</v>
+        <v>162.0077112</v>
       </c>
       <c r="L26" t="n">
-        <v>1.197667</v>
+        <v>137.9912869</v>
       </c>
       <c r="M26" t="n">
-        <v>1.027885</v>
+        <v>0.542381</v>
       </c>
       <c r="N26" t="n">
-        <v>0.542381</v>
+        <v>0.459584</v>
       </c>
       <c r="O26" t="n">
-        <v>0.52144</v>
+        <v>0.429945</v>
       </c>
       <c r="P26" t="n">
-        <v>0.530138</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.526595</v>
-      </c>
-      <c r="R26" t="n">
         <v>22.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.100571</v>
+        <v>1.063518</v>
       </c>
       <c r="B27" t="n">
-        <v>1.927568</v>
+        <v>0.205267</v>
       </c>
       <c r="C27" t="n">
-        <v>0.346376</v>
+        <v>0.2101</v>
       </c>
       <c r="D27" t="n">
-        <v>0.231363</v>
+        <v>0.004735519</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004735519</v>
+        <v>0.002352558</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004313023</v>
+        <v>0.000616446</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002352558</v>
+        <v>0.000314514</v>
       </c>
       <c r="H27" t="n">
-        <v>0.000257901</v>
+        <v>0.000609108</v>
       </c>
       <c r="I27" t="n">
-        <v>5.66e-05</v>
+        <v>559.2474956999999</v>
       </c>
       <c r="J27" t="n">
-        <v>559.2474956999999</v>
+        <v>144.7204798</v>
       </c>
       <c r="K27" t="n">
-        <v>144.7204798</v>
+        <v>86.41519169999999</v>
       </c>
       <c r="L27" t="n">
-        <v>1.426599</v>
+        <v>39.8570333</v>
       </c>
       <c r="M27" t="n">
-        <v>1.261006</v>
+        <v>0.357652</v>
       </c>
       <c r="N27" t="n">
-        <v>0.357652</v>
+        <v>0.146311</v>
       </c>
       <c r="O27" t="n">
-        <v>0.224919</v>
+        <v>0.103463</v>
       </c>
       <c r="P27" t="n">
-        <v>0.20269</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.192381</v>
-      </c>
-      <c r="R27" t="n">
         <v>25.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.036718</v>
+        <v>0.945541</v>
       </c>
       <c r="B28" t="n">
-        <v>1.74258</v>
+        <v>0.13626</v>
       </c>
       <c r="C28" t="n">
-        <v>0.323116</v>
+        <v>0.15269</v>
       </c>
       <c r="D28" t="n">
-        <v>0.176208</v>
+        <v>0.005169544</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005169544</v>
+        <v>0.002386105</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004435682</v>
+        <v>0.000495884</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002386105</v>
+        <v>0.000276772</v>
       </c>
       <c r="H28" t="n">
-        <v>0.000285158</v>
+        <v>0.000713944</v>
       </c>
       <c r="I28" t="n">
-        <v>5.45e-05</v>
+        <v>503.6845081</v>
       </c>
       <c r="J28" t="n">
-        <v>503.6845081</v>
+        <v>88.46474689999999</v>
       </c>
       <c r="K28" t="n">
-        <v>88.46474689999999</v>
+        <v>53.3273638</v>
       </c>
       <c r="L28" t="n">
-        <v>1.132397</v>
+        <v>23.7361974</v>
       </c>
       <c r="M28" t="n">
-        <v>0.906881</v>
+        <v>0.192639</v>
       </c>
       <c r="N28" t="n">
-        <v>0.192639</v>
+        <v>0.071504</v>
       </c>
       <c r="O28" t="n">
-        <v>0.158167</v>
+        <v>0.042509</v>
       </c>
       <c r="P28" t="n">
-        <v>0.151079</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.143025</v>
-      </c>
-      <c r="R28" t="n">
         <v>22.55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.677695</v>
+        <v>0.812357</v>
       </c>
       <c r="B29" t="n">
-        <v>1.421895</v>
+        <v>0.249855</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371634</v>
+        <v>0.289481</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300757</v>
+        <v>0.004032057</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004032057</v>
+        <v>0.001673209</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003330693</v>
+        <v>0.000338627</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001673209</v>
+        <v>0.000182418</v>
       </c>
       <c r="H29" t="n">
-        <v>0.000171936</v>
+        <v>0.000440319</v>
       </c>
       <c r="I29" t="n">
-        <v>3.56e-05</v>
+        <v>409.8286356</v>
       </c>
       <c r="J29" t="n">
-        <v>409.8286356</v>
+        <v>108.5638844</v>
       </c>
       <c r="K29" t="n">
-        <v>108.5638844</v>
+        <v>85.15771119999999</v>
       </c>
       <c r="L29" t="n">
-        <v>0.947667</v>
+        <v>61.1412869</v>
       </c>
       <c r="M29" t="n">
-        <v>0.777885</v>
+        <v>0.292381</v>
       </c>
       <c r="N29" t="n">
-        <v>0.292381</v>
+        <v>0.209584</v>
       </c>
       <c r="O29" t="n">
-        <v>0.27144</v>
+        <v>0.179945</v>
       </c>
       <c r="P29" t="n">
-        <v>0.280138</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.276595</v>
-      </c>
-      <c r="R29" t="n">
         <v>18.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.875504</v>
+        <v>1.067189</v>
       </c>
       <c r="B30" t="n">
-        <v>1.705723</v>
+        <v>0.511453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.594894</v>
+        <v>0.555912</v>
       </c>
       <c r="D30" t="n">
-        <v>0.568798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I30" t="n">
-        <v>4.72e-05</v>
+        <v>486.8668155</v>
       </c>
       <c r="J30" t="n">
-        <v>486.8668155</v>
+        <v>205.2376396</v>
       </c>
       <c r="K30" t="n">
-        <v>205.2376396</v>
+        <v>169.7438468</v>
       </c>
       <c r="L30" t="n">
-        <v>1.248569</v>
+        <v>136.5383204</v>
       </c>
       <c r="M30" t="n">
-        <v>1.111004</v>
+        <v>0.585873</v>
       </c>
       <c r="N30" t="n">
-        <v>0.585873</v>
+        <v>0.466672</v>
       </c>
       <c r="O30" t="n">
-        <v>0.512097</v>
+        <v>0.427045</v>
       </c>
       <c r="P30" t="n">
-        <v>0.550435</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.543992</v>
-      </c>
-      <c r="R30" t="n">
         <v>20.52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.075504</v>
+        <v>1.267189</v>
       </c>
       <c r="B31" t="n">
-        <v>1.905723</v>
+        <v>0.711453</v>
       </c>
       <c r="C31" t="n">
-        <v>0.794894</v>
+        <v>0.755912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.768798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I31" t="n">
-        <v>4.72e-05</v>
+        <v>548.3468155</v>
       </c>
       <c r="J31" t="n">
-        <v>548.3468155</v>
+        <v>266.7176396</v>
       </c>
       <c r="K31" t="n">
-        <v>266.7176396</v>
+        <v>231.2238468</v>
       </c>
       <c r="L31" t="n">
-        <v>1.448569</v>
+        <v>198.0183204</v>
       </c>
       <c r="M31" t="n">
-        <v>1.311004</v>
+        <v>0.785873</v>
       </c>
       <c r="N31" t="n">
-        <v>0.785873</v>
+        <v>0.666672</v>
       </c>
       <c r="O31" t="n">
-        <v>0.712097</v>
+        <v>0.627045</v>
       </c>
       <c r="P31" t="n">
-        <v>0.750435</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.743992</v>
-      </c>
-      <c r="R31" t="n">
         <v>25.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.024217</v>
+        <v>1.040966</v>
       </c>
       <c r="B32" t="n">
-        <v>1.847348</v>
+        <v>0.209455</v>
       </c>
       <c r="C32" t="n">
-        <v>0.47782</v>
+        <v>0.250371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.291608</v>
+        <v>0.005012288</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005012288</v>
+        <v>0.002511913</v>
       </c>
       <c r="F32" t="n">
-        <v>0.004576163</v>
+        <v>0.000706606</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002511913</v>
+        <v>0.000360641</v>
       </c>
       <c r="H32" t="n">
-        <v>0.000370078</v>
+        <v>0.000952974</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000138383</v>
+        <v>497.3693143</v>
       </c>
       <c r="J32" t="n">
-        <v>497.3693143</v>
+        <v>135.7587527</v>
       </c>
       <c r="K32" t="n">
-        <v>135.7587527</v>
+        <v>83.1045792</v>
       </c>
       <c r="L32" t="n">
-        <v>1.139227</v>
+        <v>47.1126806</v>
       </c>
       <c r="M32" t="n">
-        <v>0.982654</v>
+        <v>0.303528</v>
       </c>
       <c r="N32" t="n">
-        <v>0.303528</v>
+        <v>0.133102</v>
       </c>
       <c r="O32" t="n">
-        <v>0.270667</v>
+        <v>0.114094</v>
       </c>
       <c r="P32" t="n">
-        <v>0.227819</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.212033</v>
-      </c>
-      <c r="R32" t="n">
         <v>23.72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.651085</v>
+        <v>0.7174469999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.387231</v>
+        <v>0.115319</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213902</v>
+        <v>0.16461</v>
       </c>
       <c r="D33" t="n">
-        <v>0.178463</v>
+        <v>0.004505923</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004505923</v>
+        <v>0.001902802</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003791979</v>
+        <v>0.000488545</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001902802</v>
+        <v>0.000240078</v>
       </c>
       <c r="H33" t="n">
-        <v>0.000185565</v>
+        <v>0.000458142</v>
       </c>
       <c r="I33" t="n">
-        <v>5.45e-05</v>
+        <v>385.7349231</v>
       </c>
       <c r="J33" t="n">
-        <v>385.7349231</v>
+        <v>81.1147193</v>
       </c>
       <c r="K33" t="n">
-        <v>81.1147193</v>
+        <v>46.2098101</v>
       </c>
       <c r="L33" t="n">
-        <v>0.813131</v>
+        <v>13.9570566</v>
       </c>
       <c r="M33" t="n">
-        <v>0.629174</v>
+        <v>0.165577</v>
       </c>
       <c r="N33" t="n">
-        <v>0.165577</v>
+        <v>0.061195</v>
       </c>
       <c r="O33" t="n">
-        <v>0.110808</v>
+        <v>0.02479</v>
       </c>
       <c r="P33" t="n">
-        <v>0.153657</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.149146</v>
-      </c>
-      <c r="R33" t="n">
         <v>13.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.577695</v>
+        <v>0.712357</v>
       </c>
       <c r="B34" t="n">
-        <v>1.321895</v>
+        <v>0.149855</v>
       </c>
       <c r="C34" t="n">
-        <v>0.271634</v>
+        <v>0.189481</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200757</v>
+        <v>0.004032057</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004032057</v>
+        <v>0.001673209</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003330693</v>
+        <v>0.000338627</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001673209</v>
+        <v>0.000182418</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000171936</v>
+        <v>0.000440319</v>
       </c>
       <c r="I34" t="n">
-        <v>3.56e-05</v>
+        <v>379.0886356</v>
       </c>
       <c r="J34" t="n">
-        <v>379.0886356</v>
+        <v>77.8238844</v>
       </c>
       <c r="K34" t="n">
-        <v>77.8238844</v>
+        <v>54.4177112</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8476669999999999</v>
+        <v>30.4012869</v>
       </c>
       <c r="M34" t="n">
-        <v>0.677885</v>
+        <v>0.192381</v>
       </c>
       <c r="N34" t="n">
-        <v>0.192381</v>
+        <v>0.109584</v>
       </c>
       <c r="O34" t="n">
-        <v>0.17144</v>
+        <v>0.079945</v>
       </c>
       <c r="P34" t="n">
-        <v>0.180138</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.176595</v>
-      </c>
-      <c r="R34" t="n">
         <v>16.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.525504</v>
+        <v>0.717189</v>
       </c>
       <c r="B35" t="n">
-        <v>1.355723</v>
+        <v>0.161453</v>
       </c>
       <c r="C35" t="n">
-        <v>0.244894</v>
+        <v>0.205912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.218798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H35" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I35" t="n">
-        <v>4.72e-05</v>
+        <v>379.2768155</v>
       </c>
       <c r="J35" t="n">
-        <v>379.2768155</v>
+        <v>97.64763960000001</v>
       </c>
       <c r="K35" t="n">
-        <v>97.64763960000001</v>
+        <v>62.1538468</v>
       </c>
       <c r="L35" t="n">
-        <v>0.898569</v>
+        <v>28.9483204</v>
       </c>
       <c r="M35" t="n">
-        <v>0.761004</v>
+        <v>0.235873</v>
       </c>
       <c r="N35" t="n">
-        <v>0.235873</v>
+        <v>0.116672</v>
       </c>
       <c r="O35" t="n">
-        <v>0.162097</v>
+        <v>0.077045</v>
       </c>
       <c r="P35" t="n">
-        <v>0.200435</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.193992</v>
-      </c>
-      <c r="R35" t="n">
         <v>15.67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.414038</v>
+        <v>1.284846</v>
       </c>
       <c r="B36" t="n">
-        <v>2.253922</v>
+        <v>0.243927</v>
       </c>
       <c r="C36" t="n">
-        <v>0.420797</v>
+        <v>0.21912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248115</v>
+        <v>0.005042691</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005042691</v>
+        <v>0.002713199</v>
       </c>
       <c r="F36" t="n">
-        <v>0.004663176</v>
+        <v>0.000731767</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002713199</v>
+        <v>0.000382659</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000304029</v>
+        <v>0.000756928</v>
       </c>
       <c r="I36" t="n">
-        <v>5.45e-05</v>
+        <v>659.8480009</v>
       </c>
       <c r="J36" t="n">
-        <v>659.8480009</v>
+        <v>180.5398541</v>
       </c>
       <c r="K36" t="n">
-        <v>180.5398541</v>
+        <v>104.6554648</v>
       </c>
       <c r="L36" t="n">
-        <v>1.780982</v>
+        <v>47.9415837</v>
       </c>
       <c r="M36" t="n">
-        <v>1.618932</v>
+        <v>0.464933</v>
       </c>
       <c r="N36" t="n">
-        <v>0.464933</v>
+        <v>0.17595</v>
       </c>
       <c r="O36" t="n">
-        <v>0.276788</v>
+        <v>0.124404</v>
       </c>
       <c r="P36" t="n">
-        <v>0.212355</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.196891</v>
-      </c>
-      <c r="R36" t="n">
         <v>41.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.925504</v>
+        <v>1.117189</v>
       </c>
       <c r="B37" t="n">
-        <v>1.755723</v>
+        <v>0.561453</v>
       </c>
       <c r="C37" t="n">
-        <v>0.644894</v>
+        <v>0.605912</v>
       </c>
       <c r="D37" t="n">
-        <v>0.618798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H37" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I37" t="n">
-        <v>4.72e-05</v>
+        <v>502.2368155</v>
       </c>
       <c r="J37" t="n">
-        <v>502.2368155</v>
+        <v>220.6076396</v>
       </c>
       <c r="K37" t="n">
-        <v>220.6076396</v>
+        <v>185.1138468</v>
       </c>
       <c r="L37" t="n">
-        <v>1.298569</v>
+        <v>151.9083204</v>
       </c>
       <c r="M37" t="n">
-        <v>1.161004</v>
+        <v>0.635873</v>
       </c>
       <c r="N37" t="n">
-        <v>0.635873</v>
+        <v>0.516672</v>
       </c>
       <c r="O37" t="n">
-        <v>0.562097</v>
+        <v>0.477045</v>
       </c>
       <c r="P37" t="n">
-        <v>0.6004350000000001</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.593992</v>
-      </c>
-      <c r="R37" t="n">
         <v>22.31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.375504</v>
+        <v>1.567189</v>
       </c>
       <c r="B38" t="n">
-        <v>2.205723</v>
+        <v>1.011453</v>
       </c>
       <c r="C38" t="n">
-        <v>1.094894</v>
+        <v>1.055912</v>
       </c>
       <c r="D38" t="n">
-        <v>1.068798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H38" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I38" t="n">
-        <v>4.72e-05</v>
+        <v>640.5668155</v>
       </c>
       <c r="J38" t="n">
-        <v>640.5668155</v>
+        <v>358.9376396</v>
       </c>
       <c r="K38" t="n">
-        <v>358.9376396</v>
+        <v>323.4438468</v>
       </c>
       <c r="L38" t="n">
-        <v>1.748569</v>
+        <v>290.2383204</v>
       </c>
       <c r="M38" t="n">
-        <v>1.611004</v>
+        <v>1.085873</v>
       </c>
       <c r="N38" t="n">
-        <v>1.085873</v>
+        <v>0.966672</v>
       </c>
       <c r="O38" t="n">
-        <v>1.012097</v>
+        <v>0.927045</v>
       </c>
       <c r="P38" t="n">
-        <v>1.050435</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.043992</v>
-      </c>
-      <c r="R38" t="n">
         <v>20.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.867323</v>
+        <v>0.820605</v>
       </c>
       <c r="B39" t="n">
-        <v>1.563842</v>
+        <v>0.17144</v>
       </c>
       <c r="C39" t="n">
-        <v>0.264546</v>
+        <v>0.212355</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226852</v>
+        <v>0.004880195</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004880195</v>
+        <v>0.002021269</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004080283</v>
+        <v>0.0005137059999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.002021269</v>
+        <v>0.000255802</v>
       </c>
       <c r="H39" t="n">
-        <v>0.000185565</v>
+        <v>0.000450804</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4e-05</v>
+        <v>451.0926031</v>
       </c>
       <c r="J39" t="n">
-        <v>451.0926031</v>
+        <v>104.8246686</v>
       </c>
       <c r="K39" t="n">
-        <v>104.8246686</v>
+        <v>66.0053099</v>
       </c>
       <c r="L39" t="n">
-        <v>1.003273</v>
+        <v>29.7306678</v>
       </c>
       <c r="M39" t="n">
-        <v>0.777757</v>
+        <v>0.235229</v>
       </c>
       <c r="N39" t="n">
-        <v>0.235229</v>
+        <v>0.115061</v>
       </c>
       <c r="O39" t="n">
-        <v>0.160164</v>
+        <v>0.07479</v>
       </c>
       <c r="P39" t="n">
-        <v>0.201079</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.196569</v>
-      </c>
-      <c r="R39" t="n">
         <v>13.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.782206</v>
+        <v>0.753208</v>
       </c>
       <c r="B40" t="n">
-        <v>1.479692</v>
+        <v>0.119507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207458</v>
+        <v>0.165254</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178785</v>
+        <v>0.004715597</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004715597</v>
+        <v>0.001955223</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003928266</v>
+        <v>0.000511608</v>
       </c>
       <c r="G40" t="n">
-        <v>0.001955223</v>
+        <v>0.000246368</v>
       </c>
       <c r="H40" t="n">
-        <v>0.000172981</v>
+        <v>0.000432981</v>
       </c>
       <c r="I40" t="n">
-        <v>5.56e-05</v>
+        <v>432.0847338</v>
       </c>
       <c r="J40" t="n">
-        <v>432.0847338</v>
+        <v>88.3899723</v>
       </c>
       <c r="K40" t="n">
-        <v>88.3899723</v>
+        <v>50.0175896</v>
       </c>
       <c r="L40" t="n">
-        <v>0.968093</v>
+        <v>13.8327651</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7390330000000001</v>
+        <v>0.187162</v>
       </c>
       <c r="N40" t="n">
-        <v>0.187162</v>
+        <v>0.06506099999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>0.110164</v>
+        <v>0.025112</v>
       </c>
       <c r="P40" t="n">
-        <v>0.153012</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.148824</v>
-      </c>
-      <c r="R40" t="n">
         <v>19.54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.646578</v>
+        <v>1.054111</v>
       </c>
       <c r="B41" t="n">
-        <v>2.642712</v>
+        <v>0.1572</v>
       </c>
       <c r="C41" t="n">
-        <v>0.785102</v>
+        <v>0.175886</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287355</v>
+        <v>0.004937852</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005246075</v>
+        <v>0.00240917</v>
       </c>
       <c r="F41" t="n">
-        <v>0.005115028</v>
+        <v>0.000558786</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003605366</v>
+        <v>0.000289352</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000640556</v>
+        <v>0.000666769</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000183469</v>
+        <v>597.0601849</v>
       </c>
       <c r="J41" t="n">
-        <v>724.2471466</v>
+        <v>121.6195841</v>
       </c>
       <c r="K41" t="n">
-        <v>265.9010997</v>
+        <v>69.20297960000001</v>
       </c>
       <c r="L41" t="n">
-        <v>1.985171</v>
+        <v>27.1293187</v>
       </c>
       <c r="M41" t="n">
-        <v>1.92847</v>
+        <v>0.29541</v>
       </c>
       <c r="N41" t="n">
-        <v>0.651081</v>
+        <v>0.097922</v>
       </c>
       <c r="O41" t="n">
-        <v>0.456171</v>
+        <v>0.060228</v>
       </c>
       <c r="P41" t="n">
-        <v>0.20778</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.174919</v>
-      </c>
-      <c r="R41" t="n">
-        <v>36.28</v>
+        <v>35.55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.035754</v>
+        <v>1.697155</v>
       </c>
       <c r="B42" t="n">
-        <v>2.826669</v>
+        <v>0.302497</v>
       </c>
       <c r="C42" t="n">
-        <v>0.581493</v>
+        <v>0.215835</v>
       </c>
       <c r="D42" t="n">
-        <v>0.266737</v>
+        <v>0.005246075</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008205643</v>
+        <v>0.003605366</v>
       </c>
       <c r="F42" t="n">
-        <v>0.007696131</v>
+        <v>0.001285311</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004697774</v>
+        <v>0.000646847</v>
       </c>
       <c r="H42" t="n">
-        <v>0.000610156</v>
+        <v>0.001660628</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000206531</v>
+        <v>724.2471466</v>
       </c>
       <c r="J42" t="n">
-        <v>779.7912619</v>
+        <v>265.9010997</v>
       </c>
       <c r="K42" t="n">
-        <v>176.0978917</v>
+        <v>146.2235141</v>
       </c>
       <c r="L42" t="n">
-        <v>1.874346</v>
+        <v>67.74846530000001</v>
       </c>
       <c r="M42" t="n">
-        <v>1.57892</v>
+        <v>0.651081</v>
       </c>
       <c r="N42" t="n">
-        <v>0.373696</v>
+        <v>0.182651</v>
       </c>
       <c r="O42" t="n">
-        <v>0.269959</v>
+        <v>0.156234</v>
       </c>
       <c r="P42" t="n">
-        <v>0.18394</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.162677</v>
-      </c>
-      <c r="R42" t="n">
-        <v>43.85</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.727695</v>
+        <v>1.692966</v>
       </c>
       <c r="B43" t="n">
-        <v>1.471895</v>
+        <v>0.267703</v>
       </c>
       <c r="C43" t="n">
-        <v>0.421634</v>
+        <v>0.212291</v>
       </c>
       <c r="D43" t="n">
-        <v>0.350757</v>
+        <v>0.008205643</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004032057</v>
+        <v>0.004697774</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003330693</v>
+        <v>0.001216118</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001673209</v>
+        <v>0.000690882</v>
       </c>
       <c r="H43" t="n">
-        <v>0.000171936</v>
+        <v>0.001487647</v>
       </c>
       <c r="I43" t="n">
-        <v>3.56e-05</v>
+        <v>779.7912619</v>
       </c>
       <c r="J43" t="n">
-        <v>425.1986356</v>
+        <v>176.0978917</v>
       </c>
       <c r="K43" t="n">
-        <v>123.9338844</v>
+        <v>102.9010808</v>
       </c>
       <c r="L43" t="n">
-        <v>0.997667</v>
+        <v>46.247506</v>
       </c>
       <c r="M43" t="n">
-        <v>0.827885</v>
+        <v>0.373696</v>
       </c>
       <c r="N43" t="n">
-        <v>0.342381</v>
+        <v>0.122084</v>
       </c>
       <c r="O43" t="n">
-        <v>0.32144</v>
+        <v>0.089223</v>
       </c>
       <c r="P43" t="n">
-        <v>0.330138</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.326595</v>
-      </c>
-      <c r="R43" t="n">
-        <v>19.14</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.045738</v>
+        <v>0.862357</v>
       </c>
       <c r="B44" t="n">
-        <v>1.980661</v>
+        <v>0.299855</v>
       </c>
       <c r="C44" t="n">
-        <v>0.416544</v>
+        <v>0.339481</v>
       </c>
       <c r="D44" t="n">
-        <v>0.214868</v>
+        <v>0.004032057</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005249219</v>
+        <v>0.001673209</v>
       </c>
       <c r="F44" t="n">
-        <v>0.005021725</v>
+        <v>0.000338627</v>
       </c>
       <c r="G44" t="n">
-        <v>0.002871507</v>
+        <v>0.000182418</v>
       </c>
       <c r="H44" t="n">
-        <v>0.000373222</v>
+        <v>0.000440319</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000104836</v>
+        <v>425.1986356</v>
       </c>
       <c r="J44" t="n">
-        <v>507.2455375</v>
+        <v>123.9338844</v>
       </c>
       <c r="K44" t="n">
-        <v>146.0195185</v>
+        <v>100.5277112</v>
       </c>
       <c r="L44" t="n">
-        <v>1.169124</v>
+        <v>76.5112869</v>
       </c>
       <c r="M44" t="n">
-        <v>1.078596</v>
+        <v>0.342381</v>
       </c>
       <c r="N44" t="n">
-        <v>0.311518</v>
+        <v>0.259584</v>
       </c>
       <c r="O44" t="n">
-        <v>0.214546</v>
+        <v>0.229945</v>
       </c>
       <c r="P44" t="n">
-        <v>0.166865</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.152368</v>
-      </c>
-      <c r="R44" t="n">
-        <v>25.42</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.823766</v>
+        <v>1.130787</v>
       </c>
       <c r="B45" t="n">
-        <v>1.532528</v>
+        <v>0.184262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.303786</v>
+        <v>0.182007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.170087</v>
+        <v>0.005249219</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005303739</v>
+        <v>0.002871507</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004455604</v>
+        <v>0.000837654</v>
       </c>
       <c r="G45" t="n">
-        <v>0.002331591</v>
+        <v>0.000416206</v>
       </c>
       <c r="H45" t="n">
-        <v>0.000274673</v>
+        <v>0.000933056</v>
       </c>
       <c r="I45" t="n">
-        <v>5.03e-05</v>
+        <v>507.2455375</v>
       </c>
       <c r="J45" t="n">
-        <v>397.7070627</v>
+        <v>146.0195185</v>
       </c>
       <c r="K45" t="n">
-        <v>69.5143491</v>
+        <v>81.0856553</v>
       </c>
       <c r="L45" t="n">
-        <v>0.685231</v>
+        <v>31.9442939</v>
       </c>
       <c r="M45" t="n">
-        <v>0.52157</v>
+        <v>0.311518</v>
       </c>
       <c r="N45" t="n">
-        <v>0.119507</v>
+        <v>0.097922</v>
       </c>
       <c r="O45" t="n">
-        <v>0.140448</v>
+        <v>0.063772</v>
       </c>
       <c r="P45" t="n">
-        <v>0.139159</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.134004</v>
-      </c>
-      <c r="R45" t="n">
-        <v>19.79</v>
+        <v>25.42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.475504</v>
+        <v>0.834394</v>
       </c>
       <c r="B46" t="n">
-        <v>1.305723</v>
+        <v>0.12144</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194894</v>
+        <v>0.151079</v>
       </c>
       <c r="D46" t="n">
-        <v>0.168798</v>
+        <v>0.005303739</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003815044</v>
+        <v>0.002331591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003352711</v>
+        <v>0.000482252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001664823</v>
+        <v>0.000264191</v>
       </c>
       <c r="H46" t="n">
-        <v>0.000158305</v>
+        <v>0.000699268</v>
       </c>
       <c r="I46" t="n">
-        <v>4.72e-05</v>
+        <v>397.7070627</v>
       </c>
       <c r="J46" t="n">
-        <v>363.9068155</v>
+        <v>69.5143491</v>
       </c>
       <c r="K46" t="n">
-        <v>82.2776396</v>
+        <v>44.235029</v>
       </c>
       <c r="L46" t="n">
-        <v>0.848569</v>
+        <v>20.5954587</v>
       </c>
       <c r="M46" t="n">
-        <v>0.711004</v>
+        <v>0.119507</v>
       </c>
       <c r="N46" t="n">
-        <v>0.185873</v>
+        <v>0.053463</v>
       </c>
       <c r="O46" t="n">
-        <v>0.112097</v>
+        <v>0.034133</v>
       </c>
       <c r="P46" t="n">
-        <v>0.150435</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.143992</v>
-      </c>
-      <c r="R46" t="n">
-        <v>13.79</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.575504</v>
+        <v>0.667189</v>
       </c>
       <c r="B47" t="n">
-        <v>1.405723</v>
+        <v>0.111453</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294894</v>
+        <v>0.155912</v>
       </c>
       <c r="D47" t="n">
-        <v>0.268798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G47" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H47" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I47" t="n">
-        <v>4.72e-05</v>
+        <v>363.9068155</v>
       </c>
       <c r="J47" t="n">
-        <v>394.6468155</v>
+        <v>82.2776396</v>
       </c>
       <c r="K47" t="n">
-        <v>113.0176396</v>
+        <v>46.7838468</v>
       </c>
       <c r="L47" t="n">
-        <v>0.948569</v>
+        <v>13.5783204</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8110039999999999</v>
+        <v>0.185873</v>
       </c>
       <c r="N47" t="n">
-        <v>0.285873</v>
+        <v>0.066672</v>
       </c>
       <c r="O47" t="n">
-        <v>0.212097</v>
+        <v>0.027045</v>
       </c>
       <c r="P47" t="n">
-        <v>0.250435</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.243992</v>
-      </c>
-      <c r="R47" t="n">
-        <v>15.9</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.425504</v>
+        <v>0.767189</v>
       </c>
       <c r="B48" t="n">
-        <v>2.255723</v>
+        <v>0.211453</v>
       </c>
       <c r="C48" t="n">
-        <v>1.144894</v>
+        <v>0.255912</v>
       </c>
       <c r="D48" t="n">
-        <v>1.118798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G48" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H48" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I48" t="n">
-        <v>4.72e-05</v>
+        <v>394.6468155</v>
       </c>
       <c r="J48" t="n">
-        <v>655.9368155</v>
+        <v>113.0176396</v>
       </c>
       <c r="K48" t="n">
-        <v>374.3076396</v>
+        <v>77.5238468</v>
       </c>
       <c r="L48" t="n">
-        <v>1.798569</v>
+        <v>44.3183204</v>
       </c>
       <c r="M48" t="n">
-        <v>1.661004</v>
+        <v>0.285873</v>
       </c>
       <c r="N48" t="n">
-        <v>1.135873</v>
+        <v>0.166672</v>
       </c>
       <c r="O48" t="n">
-        <v>1.062097</v>
+        <v>0.127045</v>
       </c>
       <c r="P48" t="n">
-        <v>1.100435</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.093992</v>
-      </c>
-      <c r="R48" t="n">
-        <v>30.71</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.775504</v>
+        <v>1.617189</v>
       </c>
       <c r="B49" t="n">
-        <v>1.605723</v>
+        <v>1.061453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.494894</v>
+        <v>1.105912</v>
       </c>
       <c r="D49" t="n">
-        <v>0.468798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H49" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I49" t="n">
-        <v>4.72e-05</v>
+        <v>655.9368155</v>
       </c>
       <c r="J49" t="n">
-        <v>456.1268155</v>
+        <v>374.3076396</v>
       </c>
       <c r="K49" t="n">
-        <v>174.4976396</v>
+        <v>338.8138468</v>
       </c>
       <c r="L49" t="n">
-        <v>1.148569</v>
+        <v>305.6083204</v>
       </c>
       <c r="M49" t="n">
-        <v>1.011004</v>
+        <v>1.135873</v>
       </c>
       <c r="N49" t="n">
-        <v>0.485873</v>
+        <v>1.016672</v>
       </c>
       <c r="O49" t="n">
-        <v>0.412097</v>
+        <v>0.9770450000000001</v>
       </c>
       <c r="P49" t="n">
-        <v>0.450435</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.443992</v>
-      </c>
-      <c r="R49" t="n">
-        <v>19.27</v>
+        <v>30.71</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.977695</v>
+        <v>0.967189</v>
       </c>
       <c r="B50" t="n">
-        <v>1.721895</v>
+        <v>0.411453</v>
       </c>
       <c r="C50" t="n">
-        <v>0.671634</v>
+        <v>0.455912</v>
       </c>
       <c r="D50" t="n">
-        <v>0.600757</v>
+        <v>0.003815044</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004032057</v>
+        <v>0.001664823</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003330693</v>
+        <v>0.000424592</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001673209</v>
+        <v>0.000217016</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000171936</v>
+        <v>0.000389997</v>
       </c>
       <c r="I50" t="n">
-        <v>3.56e-05</v>
+        <v>456.1268155</v>
       </c>
       <c r="J50" t="n">
-        <v>502.0486356</v>
+        <v>174.4976396</v>
       </c>
       <c r="K50" t="n">
-        <v>200.7838844</v>
+        <v>139.0038468</v>
       </c>
       <c r="L50" t="n">
-        <v>1.247667</v>
+        <v>105.7983204</v>
       </c>
       <c r="M50" t="n">
-        <v>1.077885</v>
+        <v>0.485873</v>
       </c>
       <c r="N50" t="n">
-        <v>0.592381</v>
+        <v>0.366672</v>
       </c>
       <c r="O50" t="n">
-        <v>0.5714399999999999</v>
+        <v>0.327045</v>
       </c>
       <c r="P50" t="n">
-        <v>0.580138</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.576595</v>
-      </c>
-      <c r="R50" t="n">
-        <v>23.16</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.970677</v>
+        <v>1.112357</v>
       </c>
       <c r="B51" t="n">
-        <v>2.79864</v>
+        <v>0.549855</v>
       </c>
       <c r="C51" t="n">
-        <v>0.525114</v>
+        <v>0.589481</v>
       </c>
       <c r="D51" t="n">
-        <v>0.257394</v>
+        <v>0.004032057</v>
       </c>
       <c r="E51" t="n">
-        <v>0.008407978999999999</v>
+        <v>0.001673209</v>
       </c>
       <c r="F51" t="n">
-        <v>0.007977097000000001</v>
+        <v>0.000338627</v>
       </c>
       <c r="G51" t="n">
-        <v>0.004645356</v>
+        <v>0.000182418</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00056193</v>
+        <v>0.000440319</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00018137</v>
+        <v>502.0486356</v>
       </c>
       <c r="J51" t="n">
-        <v>719.6707989</v>
+        <v>200.7838844</v>
       </c>
       <c r="K51" t="n">
-        <v>185.251889</v>
+        <v>177.3777112</v>
       </c>
       <c r="L51" t="n">
-        <v>1.553146</v>
+        <v>153.3612869</v>
       </c>
       <c r="M51" t="n">
-        <v>1.294769</v>
+        <v>0.592381</v>
       </c>
       <c r="N51" t="n">
-        <v>0.339224</v>
+        <v>0.509584</v>
       </c>
       <c r="O51" t="n">
-        <v>0.214868</v>
+        <v>0.479945</v>
       </c>
       <c r="P51" t="n">
-        <v>0.177175</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.161388</v>
-      </c>
-      <c r="R51" t="n">
-        <v>30.14</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.046383</v>
+        <v>1.616291</v>
       </c>
       <c r="B52" t="n">
-        <v>1.980339</v>
+        <v>0.265126</v>
       </c>
       <c r="C52" t="n">
-        <v>0.415255</v>
+        <v>0.208103</v>
       </c>
       <c r="D52" t="n">
-        <v>0.21519</v>
+        <v>0.008407978999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.005271237</v>
+        <v>0.004645356</v>
       </c>
       <c r="F52" t="n">
-        <v>0.005035353</v>
+        <v>0.001344019</v>
       </c>
       <c r="G52" t="n">
-        <v>0.002885132</v>
+        <v>0.000709749</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000365887</v>
+        <v>0.001377566</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000104836</v>
+        <v>719.6707989</v>
       </c>
       <c r="J52" t="n">
-        <v>507.199821</v>
+        <v>185.251889</v>
       </c>
       <c r="K52" t="n">
-        <v>146.0077576</v>
+        <v>101.4540378</v>
       </c>
       <c r="L52" t="n">
-        <v>1.16848</v>
+        <v>38.3653205</v>
       </c>
       <c r="M52" t="n">
-        <v>1.078273</v>
+        <v>0.339224</v>
       </c>
       <c r="N52" t="n">
-        <v>0.311518</v>
+        <v>0.103076</v>
       </c>
       <c r="O52" t="n">
-        <v>0.214546</v>
+        <v>0.064094</v>
       </c>
       <c r="P52" t="n">
-        <v>0.166865</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.151401</v>
-      </c>
-      <c r="R52" t="n">
-        <v>24.76</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.025504</v>
+        <v>1.130464</v>
       </c>
       <c r="B53" t="n">
-        <v>1.855723</v>
+        <v>0.184262</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7448939999999999</v>
+        <v>0.181041</v>
       </c>
       <c r="D53" t="n">
-        <v>0.718798</v>
+        <v>0.005271237</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003815044</v>
+        <v>0.002885132</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003352711</v>
+        <v>0.000839749</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001664823</v>
+        <v>0.000413059</v>
       </c>
       <c r="H53" t="n">
-        <v>0.000158305</v>
+        <v>0.000938295</v>
       </c>
       <c r="I53" t="n">
-        <v>4.72e-05</v>
+        <v>507.199821</v>
       </c>
       <c r="J53" t="n">
-        <v>532.9768155</v>
+        <v>146.0077576</v>
       </c>
       <c r="K53" t="n">
-        <v>251.3476396</v>
+        <v>81.0672934</v>
       </c>
       <c r="L53" t="n">
-        <v>1.398569</v>
+        <v>31.943004</v>
       </c>
       <c r="M53" t="n">
-        <v>1.261004</v>
+        <v>0.311518</v>
       </c>
       <c r="N53" t="n">
-        <v>0.735873</v>
+        <v>0.097277</v>
       </c>
       <c r="O53" t="n">
-        <v>0.662097</v>
+        <v>0.064739</v>
       </c>
       <c r="P53" t="n">
-        <v>0.700435</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.6939920000000001</v>
-      </c>
-      <c r="R53" t="n">
-        <v>23.8</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.269966</v>
+        <v>1.217189</v>
       </c>
       <c r="B54" t="n">
-        <v>2.222285</v>
+        <v>0.661453</v>
       </c>
       <c r="C54" t="n">
-        <v>0.509006</v>
+        <v>0.705912</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226788</v>
+        <v>0.003815044</v>
       </c>
       <c r="E54" t="n">
-        <v>0.005369785</v>
+        <v>0.001664823</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005138093</v>
+        <v>0.000424592</v>
       </c>
       <c r="G54" t="n">
-        <v>0.003123114</v>
+        <v>0.000217016</v>
       </c>
       <c r="H54" t="n">
-        <v>0.000436124</v>
+        <v>0.000389997</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000114273</v>
+        <v>532.9768155</v>
       </c>
       <c r="J54" t="n">
-        <v>587.6912108</v>
+        <v>251.3476396</v>
       </c>
       <c r="K54" t="n">
-        <v>180.4031896</v>
+        <v>215.8538468</v>
       </c>
       <c r="L54" t="n">
-        <v>1.458107</v>
+        <v>182.6483204</v>
       </c>
       <c r="M54" t="n">
-        <v>1.377888</v>
+        <v>0.735873</v>
       </c>
       <c r="N54" t="n">
-        <v>0.410101</v>
+        <v>0.616672</v>
       </c>
       <c r="O54" t="n">
-        <v>0.274147</v>
+        <v>0.577045</v>
       </c>
       <c r="P54" t="n">
-        <v>0.170087</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.15269</v>
-      </c>
-      <c r="R54" t="n">
-        <v>27.95</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.876923</v>
+        <v>1.309267</v>
       </c>
       <c r="B55" t="n">
-        <v>1.620801</v>
+        <v>0.217123</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262227</v>
+        <v>0.184262</v>
       </c>
       <c r="D55" t="n">
-        <v>0.183296</v>
+        <v>0.005369785</v>
       </c>
       <c r="E55" t="n">
-        <v>0.004614953</v>
+        <v>0.003123114</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004006896</v>
+        <v>0.000964507</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00207998</v>
+        <v>0.000481207</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000229593</v>
+        <v>0.001123859</v>
       </c>
       <c r="I55" t="n">
-        <v>5.45e-05</v>
+        <v>587.6912108</v>
       </c>
       <c r="J55" t="n">
-        <v>479.2096811</v>
+        <v>180.4031896</v>
       </c>
       <c r="K55" t="n">
-        <v>98.1417532</v>
+        <v>99.2219169</v>
       </c>
       <c r="L55" t="n">
-        <v>1.167836</v>
+        <v>41.2511903</v>
       </c>
       <c r="M55" t="n">
-        <v>0.95134</v>
+        <v>0.410101</v>
       </c>
       <c r="N55" t="n">
-        <v>0.224533</v>
+        <v>0.123051</v>
       </c>
       <c r="O55" t="n">
-        <v>0.147213</v>
+        <v>0.08890099999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1601</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.152046</v>
-      </c>
-      <c r="R55" t="n">
-        <v>20.6</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.974217</v>
+        <v>0.852113</v>
       </c>
       <c r="B56" t="n">
-        <v>1.797348</v>
+        <v>0.130461</v>
       </c>
       <c r="C56" t="n">
-        <v>0.42782</v>
+        <v>0.165254</v>
       </c>
       <c r="D56" t="n">
-        <v>0.241608</v>
+        <v>0.004614953</v>
       </c>
       <c r="E56" t="n">
-        <v>0.005012288</v>
+        <v>0.00207998</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004576163</v>
+        <v>0.000512655</v>
       </c>
       <c r="G56" t="n">
-        <v>0.002511913</v>
+        <v>0.000265239</v>
       </c>
       <c r="H56" t="n">
-        <v>0.000370078</v>
+        <v>0.0005504</v>
       </c>
       <c r="I56" t="n">
-        <v>0.000138383</v>
+        <v>479.2096811</v>
       </c>
       <c r="J56" t="n">
-        <v>481.9993143</v>
+        <v>98.1417532</v>
       </c>
       <c r="K56" t="n">
-        <v>120.3887527</v>
+        <v>56.1715422</v>
       </c>
       <c r="L56" t="n">
-        <v>1.089227</v>
+        <v>19.6582384</v>
       </c>
       <c r="M56" t="n">
-        <v>0.932654</v>
+        <v>0.224533</v>
       </c>
       <c r="N56" t="n">
-        <v>0.253528</v>
+        <v>0.077303</v>
       </c>
       <c r="O56" t="n">
-        <v>0.220667</v>
+        <v>0.03961</v>
       </c>
       <c r="P56" t="n">
-        <v>0.177819</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.162033</v>
-      </c>
-      <c r="R56" t="n">
-        <v>22.88</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.125504</v>
+        <v>0.990966</v>
       </c>
       <c r="B57" t="n">
-        <v>1.955723</v>
+        <v>0.159455</v>
       </c>
       <c r="C57" t="n">
-        <v>0.844894</v>
+        <v>0.200371</v>
       </c>
       <c r="D57" t="n">
-        <v>0.818798</v>
+        <v>0.005012288</v>
       </c>
       <c r="E57" t="n">
-        <v>0.003815044</v>
+        <v>0.002511913</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003352711</v>
+        <v>0.000706606</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001664823</v>
+        <v>0.000360641</v>
       </c>
       <c r="H57" t="n">
-        <v>0.000158305</v>
+        <v>0.000952974</v>
       </c>
       <c r="I57" t="n">
-        <v>4.72e-05</v>
+        <v>481.9993143</v>
       </c>
       <c r="J57" t="n">
-        <v>563.7168155000001</v>
+        <v>120.3887527</v>
       </c>
       <c r="K57" t="n">
-        <v>282.0876396</v>
+        <v>67.7345792</v>
       </c>
       <c r="L57" t="n">
-        <v>1.498569</v>
+        <v>31.7426806</v>
       </c>
       <c r="M57" t="n">
-        <v>1.361004</v>
+        <v>0.253528</v>
       </c>
       <c r="N57" t="n">
-        <v>0.835873</v>
+        <v>0.083102</v>
       </c>
       <c r="O57" t="n">
-        <v>0.762097</v>
+        <v>0.064094</v>
       </c>
       <c r="P57" t="n">
-        <v>0.800435</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.793992</v>
-      </c>
-      <c r="R57" t="n">
-        <v>24.75</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.994836</v>
+        <v>1.317189</v>
       </c>
       <c r="B58" t="n">
-        <v>1.693611</v>
+        <v>0.761453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.381106</v>
+        <v>0.805912</v>
       </c>
       <c r="D58" t="n">
-        <v>0.222278</v>
+        <v>0.003815044</v>
       </c>
       <c r="E58" t="n">
-        <v>0.005038497</v>
+        <v>0.001664823</v>
       </c>
       <c r="F58" t="n">
-        <v>0.004330846</v>
+        <v>0.000424592</v>
       </c>
       <c r="G58" t="n">
-        <v>0.002398689</v>
+        <v>0.000217016</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000331289</v>
+        <v>0.000389997</v>
       </c>
       <c r="I58" t="n">
-        <v>9.75e-05</v>
+        <v>563.7168155000001</v>
       </c>
       <c r="J58" t="n">
-        <v>490.3018915</v>
+        <v>282.0876396</v>
       </c>
       <c r="K58" t="n">
-        <v>112.7401389</v>
+        <v>246.5938468</v>
       </c>
       <c r="L58" t="n">
-        <v>1.140774</v>
+        <v>213.3883204</v>
       </c>
       <c r="M58" t="n">
-        <v>0.890773</v>
+        <v>0.835873</v>
       </c>
       <c r="N58" t="n">
-        <v>0.248051</v>
+        <v>0.716672</v>
       </c>
       <c r="O58" t="n">
-        <v>0.201015</v>
+        <v>0.677045</v>
       </c>
       <c r="P58" t="n">
-        <v>0.174597</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.159778</v>
-      </c>
-      <c r="R58" t="n">
-        <v>23.46</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.627695</v>
+        <v>0.944252</v>
       </c>
       <c r="B59" t="n">
-        <v>1.371895</v>
+        <v>0.153012</v>
       </c>
       <c r="C59" t="n">
-        <v>0.321634</v>
+        <v>0.186195</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250757</v>
+        <v>0.005038497</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004032057</v>
+        <v>0.002398689</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003330693</v>
+        <v>0.000663622</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001673209</v>
+        <v>0.000338627</v>
       </c>
       <c r="H59" t="n">
-        <v>0.000171936</v>
+        <v>0.000849186</v>
       </c>
       <c r="I59" t="n">
-        <v>3.56e-05</v>
+        <v>490.3018915</v>
       </c>
       <c r="J59" t="n">
-        <v>394.4586356</v>
+        <v>112.7401389</v>
       </c>
       <c r="K59" t="n">
-        <v>93.1938844</v>
+        <v>64.3773781</v>
       </c>
       <c r="L59" t="n">
-        <v>0.897667</v>
+        <v>28.0819638</v>
       </c>
       <c r="M59" t="n">
-        <v>0.727885</v>
+        <v>0.248051</v>
       </c>
       <c r="N59" t="n">
-        <v>0.242381</v>
+        <v>0.082136</v>
       </c>
       <c r="O59" t="n">
-        <v>0.22144</v>
+        <v>0.057329</v>
       </c>
       <c r="P59" t="n">
-        <v>0.230138</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.226595</v>
-      </c>
-      <c r="R59" t="n">
-        <v>18.67</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.613073</v>
+        <v>0.762357</v>
       </c>
       <c r="B60" t="n">
-        <v>2.395611</v>
+        <v>0.199855</v>
       </c>
       <c r="C60" t="n">
-        <v>0.378529</v>
+        <v>0.239481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218734</v>
+        <v>0.004032057</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006270338</v>
+        <v>0.001673209</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005840504</v>
+        <v>0.000338627</v>
       </c>
       <c r="G60" t="n">
-        <v>0.003284566</v>
+        <v>0.000182418</v>
       </c>
       <c r="H60" t="n">
-        <v>0.000363788</v>
+        <v>0.000440319</v>
       </c>
       <c r="I60" t="n">
-        <v>0.000135239</v>
+        <v>394.4586356</v>
       </c>
       <c r="J60" t="n">
-        <v>694.9314209</v>
+        <v>93.1938844</v>
       </c>
       <c r="K60" t="n">
-        <v>168.6945714</v>
+        <v>69.7877112</v>
       </c>
       <c r="L60" t="n">
-        <v>1.772864</v>
+        <v>45.7712869</v>
       </c>
       <c r="M60" t="n">
-        <v>1.505466</v>
+        <v>0.242381</v>
       </c>
       <c r="N60" t="n">
-        <v>0.380784</v>
+        <v>0.159584</v>
       </c>
       <c r="O60" t="n">
-        <v>0.192316</v>
+        <v>0.129945</v>
       </c>
       <c r="P60" t="n">
-        <v>0.164288</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.15269</v>
-      </c>
-      <c r="R60" t="n">
-        <v>35.38</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.609848</v>
+        <v>1.313777</v>
       </c>
       <c r="B61" t="n">
-        <v>1.35437</v>
+        <v>0.210358</v>
       </c>
       <c r="C61" t="n">
-        <v>0.211002</v>
+        <v>0.186517</v>
       </c>
       <c r="D61" t="n">
-        <v>0.17653</v>
+        <v>0.006270338</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004337133</v>
+        <v>0.003284566</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003646254</v>
+        <v>0.000907895</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001831513</v>
+        <v>0.000490641</v>
       </c>
       <c r="H61" t="n">
-        <v>0.000183466</v>
+        <v>0.000880638</v>
       </c>
       <c r="I61" t="n">
-        <v>4.72e-05</v>
+        <v>694.9314209</v>
       </c>
       <c r="J61" t="n">
-        <v>379.8775221</v>
+        <v>168.6945714</v>
       </c>
       <c r="K61" t="n">
-        <v>80.73443020000001</v>
+        <v>90.1673639</v>
       </c>
       <c r="L61" t="n">
-        <v>0.809265</v>
+        <v>30.1399952</v>
       </c>
       <c r="M61" t="n">
-        <v>0.628852</v>
+        <v>0.380784</v>
       </c>
       <c r="N61" t="n">
-        <v>0.166543</v>
+        <v>0.114997</v>
       </c>
       <c r="O61" t="n">
-        <v>0.109198</v>
+        <v>0.059906</v>
       </c>
       <c r="P61" t="n">
-        <v>0.150113</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.147858</v>
-      </c>
-      <c r="R61" t="n">
-        <v>16.53</v>
+        <v>35.38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.488713</v>
+        <v>0.699406</v>
       </c>
       <c r="B62" t="n">
-        <v>1.299279</v>
+        <v>0.114352</v>
       </c>
       <c r="C62" t="n">
-        <v>0.190061</v>
+        <v>0.162355</v>
       </c>
       <c r="D62" t="n">
-        <v>0.168476</v>
+        <v>0.004337133</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003818187</v>
+        <v>0.001831513</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003311822</v>
+        <v>0.000474914</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001629177</v>
+        <v>0.000235884</v>
       </c>
       <c r="H62" t="n">
-        <v>0.000157257</v>
+        <v>0.000443462</v>
       </c>
       <c r="I62" t="n">
-        <v>4.19e-05</v>
+        <v>379.8775221</v>
       </c>
       <c r="J62" t="n">
-        <v>370.0523607</v>
+        <v>80.73443020000001</v>
       </c>
       <c r="K62" t="n">
-        <v>81.03987770000001</v>
+        <v>46.0851662</v>
       </c>
       <c r="L62" t="n">
-        <v>0.869188</v>
+        <v>13.8455545</v>
       </c>
       <c r="M62" t="n">
-        <v>0.72228</v>
+        <v>0.166543</v>
       </c>
       <c r="N62" t="n">
-        <v>0.186517</v>
+        <v>0.061517</v>
       </c>
       <c r="O62" t="n">
-        <v>0.111453</v>
+        <v>0.026723</v>
       </c>
       <c r="P62" t="n">
-        <v>0.147858</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.14528</v>
-      </c>
-      <c r="R62" t="n">
-        <v>15.32</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.502566</v>
+        <v>0.657847</v>
       </c>
       <c r="B63" t="n">
-        <v>1.377566</v>
+        <v>0.10952</v>
       </c>
       <c r="C63" t="n">
-        <v>0.208425</v>
+        <v>0.157523</v>
       </c>
       <c r="D63" t="n">
-        <v>0.165254</v>
+        <v>0.003818187</v>
       </c>
       <c r="E63" t="n">
-        <v>0.004179876</v>
+        <v>0.001629177</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003800368</v>
+        <v>0.000415158</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00188603</v>
+        <v>0.000206531</v>
       </c>
       <c r="H63" t="n">
-        <v>0.000188708</v>
+        <v>0.000367979</v>
       </c>
       <c r="I63" t="n">
-        <v>3.35e-05</v>
+        <v>370.0523607</v>
       </c>
       <c r="J63" t="n">
-        <v>342.4671072</v>
+        <v>81.03987770000001</v>
       </c>
       <c r="K63" t="n">
-        <v>79.428466</v>
+        <v>46.2193831</v>
       </c>
       <c r="L63" t="n">
-        <v>0.696507</v>
+        <v>13.2101137</v>
       </c>
       <c r="M63" t="n">
-        <v>0.600823</v>
+        <v>0.186517</v>
       </c>
       <c r="N63" t="n">
-        <v>0.156556</v>
+        <v>0.066027</v>
       </c>
       <c r="O63" t="n">
-        <v>0.108231</v>
+        <v>0.026401</v>
       </c>
       <c r="P63" t="n">
-        <v>0.145925</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.142381</v>
-      </c>
-      <c r="R63" t="n">
-        <v>16.31</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.611458</v>
+        <v>0.704883</v>
       </c>
       <c r="B64" t="n">
-        <v>1.362102</v>
+        <v>0.113064</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239675</v>
+        <v>0.152368</v>
       </c>
       <c r="D64" t="n">
-        <v>0.194894</v>
+        <v>0.004179876</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004644308</v>
+        <v>0.00188603</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003920931</v>
+        <v>0.000499027</v>
       </c>
       <c r="G64" t="n">
-        <v>0.001970947</v>
+        <v>0.000243225</v>
       </c>
       <c r="H64" t="n">
-        <v>0.000206531</v>
+        <v>0.000447657</v>
       </c>
       <c r="I64" t="n">
-        <v>8.7e-05</v>
+        <v>342.4671072</v>
       </c>
       <c r="J64" t="n">
-        <v>351.684087</v>
+        <v>79.428466</v>
       </c>
       <c r="K64" t="n">
-        <v>75.74198749999999</v>
+        <v>46.2051431</v>
       </c>
       <c r="L64" t="n">
-        <v>0.635939</v>
+        <v>13.5451725</v>
       </c>
       <c r="M64" t="n">
-        <v>0.486776</v>
+        <v>0.156556</v>
       </c>
       <c r="N64" t="n">
-        <v>0.137548</v>
+        <v>0.058617</v>
       </c>
       <c r="O64" t="n">
-        <v>0.115319</v>
+        <v>0.023824</v>
       </c>
       <c r="P64" t="n">
-        <v>0.160422</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.156234</v>
-      </c>
-      <c r="R64" t="n">
-        <v>16.74</v>
+        <v>16.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.675504</v>
+        <v>0.7116479999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>1.505723</v>
+        <v>0.115963</v>
       </c>
       <c r="C65" t="n">
-        <v>0.394894</v>
+        <v>0.175886</v>
       </c>
       <c r="D65" t="n">
-        <v>0.368798</v>
+        <v>0.004644308</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003815044</v>
+        <v>0.001970947</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003352711</v>
+        <v>0.000504269</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001664823</v>
+        <v>0.000252659</v>
       </c>
       <c r="H65" t="n">
-        <v>0.000158305</v>
+        <v>0.000535721</v>
       </c>
       <c r="I65" t="n">
-        <v>4.72e-05</v>
+        <v>351.684087</v>
       </c>
       <c r="J65" t="n">
-        <v>425.3868155</v>
+        <v>75.74198749999999</v>
       </c>
       <c r="K65" t="n">
-        <v>143.7576396</v>
+        <v>44.2444046</v>
       </c>
       <c r="L65" t="n">
-        <v>1.048569</v>
+        <v>14.7249101</v>
       </c>
       <c r="M65" t="n">
-        <v>0.911004</v>
+        <v>0.137548</v>
       </c>
       <c r="N65" t="n">
-        <v>0.385873</v>
+        <v>0.055074</v>
       </c>
       <c r="O65" t="n">
-        <v>0.312097</v>
+        <v>0.026079</v>
       </c>
       <c r="P65" t="n">
-        <v>0.350435</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.343992</v>
-      </c>
-      <c r="R65" t="n">
-        <v>17.78</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.975504</v>
+        <v>0.867189</v>
       </c>
       <c r="B66" t="n">
-        <v>1.805723</v>
+        <v>0.311453</v>
       </c>
       <c r="C66" t="n">
-        <v>0.694894</v>
+        <v>0.355912</v>
       </c>
       <c r="D66" t="n">
-        <v>0.668798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E66" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H66" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I66" t="n">
-        <v>4.72e-05</v>
+        <v>425.3868155</v>
       </c>
       <c r="J66" t="n">
-        <v>517.6068155</v>
+        <v>143.7576396</v>
       </c>
       <c r="K66" t="n">
-        <v>235.9776396</v>
+        <v>108.2638468</v>
       </c>
       <c r="L66" t="n">
-        <v>1.348569</v>
+        <v>75.0583204</v>
       </c>
       <c r="M66" t="n">
-        <v>1.211004</v>
+        <v>0.385873</v>
       </c>
       <c r="N66" t="n">
-        <v>0.685873</v>
+        <v>0.266672</v>
       </c>
       <c r="O66" t="n">
-        <v>0.612097</v>
+        <v>0.227045</v>
       </c>
       <c r="P66" t="n">
-        <v>0.650435</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.643992</v>
-      </c>
-      <c r="R66" t="n">
-        <v>22.89</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.710686</v>
+        <v>1.167189</v>
       </c>
       <c r="B67" t="n">
-        <v>1.432978</v>
+        <v>0.611453</v>
       </c>
       <c r="C67" t="n">
-        <v>0.348245</v>
+        <v>0.6559120000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209713</v>
+        <v>0.003815044</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004713501</v>
+        <v>0.001664823</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003956573</v>
+        <v>0.000424592</v>
       </c>
       <c r="G67" t="n">
-        <v>0.002117722</v>
+        <v>0.000217016</v>
       </c>
       <c r="H67" t="n">
-        <v>0.000301933</v>
+        <v>0.000389997</v>
       </c>
       <c r="I67" t="n">
-        <v>9.85e-05</v>
+        <v>517.6068155</v>
       </c>
       <c r="J67" t="n">
-        <v>398.3826436</v>
+        <v>235.9776396</v>
       </c>
       <c r="K67" t="n">
-        <v>76.5259397</v>
+        <v>200.4838468</v>
       </c>
       <c r="L67" t="n">
-        <v>0.820218</v>
+        <v>167.2783204</v>
       </c>
       <c r="M67" t="n">
-        <v>0.626597</v>
+        <v>0.685873</v>
       </c>
       <c r="N67" t="n">
-        <v>0.157845</v>
+        <v>0.566672</v>
       </c>
       <c r="O67" t="n">
-        <v>0.178785</v>
+        <v>0.527045</v>
       </c>
       <c r="P67" t="n">
-        <v>0.166221</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0.154945</v>
-      </c>
-      <c r="R67" t="n">
-        <v>14.8</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.364038</v>
+        <v>0.7899350000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>2.203922</v>
+        <v>0.122729</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370797</v>
+        <v>0.180396</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198115</v>
+        <v>0.004713501</v>
       </c>
       <c r="E68" t="n">
-        <v>0.005042691</v>
+        <v>0.002117722</v>
       </c>
       <c r="F68" t="n">
-        <v>0.004663176</v>
+        <v>0.000501126</v>
       </c>
       <c r="G68" t="n">
-        <v>0.002713199</v>
+        <v>0.000266287</v>
       </c>
       <c r="H68" t="n">
-        <v>0.000304029</v>
+        <v>0.000787328</v>
       </c>
       <c r="I68" t="n">
-        <v>5.45e-05</v>
+        <v>398.3826436</v>
       </c>
       <c r="J68" t="n">
-        <v>644.4780009</v>
+        <v>76.5259397</v>
       </c>
       <c r="K68" t="n">
-        <v>165.1698541</v>
+        <v>47.5561467</v>
       </c>
       <c r="L68" t="n">
-        <v>1.730982</v>
+        <v>24.5946087</v>
       </c>
       <c r="M68" t="n">
-        <v>1.568932</v>
+        <v>0.157845</v>
       </c>
       <c r="N68" t="n">
-        <v>0.414933</v>
+        <v>0.06345000000000001</v>
       </c>
       <c r="O68" t="n">
-        <v>0.226788</v>
+        <v>0.050241</v>
       </c>
       <c r="P68" t="n">
-        <v>0.162355</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.146891</v>
-      </c>
-      <c r="R68" t="n">
-        <v>29.65</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.153342</v>
+        <v>1.234846</v>
       </c>
       <c r="B69" t="n">
-        <v>1.918805</v>
+        <v>0.193927</v>
       </c>
       <c r="C69" t="n">
-        <v>0.291544</v>
+        <v>0.16912</v>
       </c>
       <c r="D69" t="n">
-        <v>0.190706</v>
+        <v>0.005042691</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003952379</v>
+        <v>0.002713199</v>
       </c>
       <c r="F69" t="n">
-        <v>0.003622141</v>
+        <v>0.000731767</v>
       </c>
       <c r="G69" t="n">
-        <v>0.002005545</v>
+        <v>0.000382659</v>
       </c>
       <c r="H69" t="n">
-        <v>0.000214917</v>
+        <v>0.000756928</v>
       </c>
       <c r="I69" t="n">
-        <v>6.08e-05</v>
+        <v>644.4780009</v>
       </c>
       <c r="J69" t="n">
-        <v>613.7432013</v>
+        <v>165.1698541</v>
       </c>
       <c r="K69" t="n">
-        <v>148.881065</v>
+        <v>89.2854648</v>
       </c>
       <c r="L69" t="n">
-        <v>1.853405</v>
+        <v>32.5715837</v>
       </c>
       <c r="M69" t="n">
-        <v>1.59084</v>
+        <v>0.414933</v>
       </c>
       <c r="N69" t="n">
-        <v>0.428786</v>
+        <v>0.12595</v>
       </c>
       <c r="O69" t="n">
-        <v>0.216157</v>
+        <v>0.074404</v>
       </c>
       <c r="P69" t="n">
-        <v>0.168798</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.153979</v>
-      </c>
-      <c r="R69" t="n">
-        <v>38.86</v>
+        <v>29.65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.817323</v>
+        <v>1.027371</v>
       </c>
       <c r="B70" t="n">
-        <v>1.513842</v>
+        <v>0.162999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.214546</v>
+        <v>0.168476</v>
       </c>
       <c r="D70" t="n">
-        <v>0.176852</v>
+        <v>0.003952379</v>
       </c>
       <c r="E70" t="n">
-        <v>0.004880195</v>
+        <v>0.002005545</v>
       </c>
       <c r="F70" t="n">
-        <v>0.004080283</v>
+        <v>0.000554592</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002021269</v>
+        <v>0.000280966</v>
       </c>
       <c r="H70" t="n">
-        <v>0.000185565</v>
+        <v>0.000519993</v>
       </c>
       <c r="I70" t="n">
-        <v>4.4e-05</v>
+        <v>613.7432013</v>
       </c>
       <c r="J70" t="n">
-        <v>435.7226031</v>
+        <v>148.881065</v>
       </c>
       <c r="K70" t="n">
-        <v>89.45466860000001</v>
+        <v>80.7048076</v>
       </c>
       <c r="L70" t="n">
-        <v>0.953273</v>
+        <v>26.3239994</v>
       </c>
       <c r="M70" t="n">
-        <v>0.727757</v>
+        <v>0.428786</v>
       </c>
       <c r="N70" t="n">
-        <v>0.185229</v>
+        <v>0.12885</v>
       </c>
       <c r="O70" t="n">
-        <v>0.110164</v>
+        <v>0.071504</v>
       </c>
       <c r="P70" t="n">
-        <v>0.151079</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0.146569</v>
-      </c>
-      <c r="R70" t="n">
-        <v>19.75</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.275504</v>
+        <v>0.770605</v>
       </c>
       <c r="B71" t="n">
-        <v>2.105723</v>
+        <v>0.12144</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9948939999999999</v>
+        <v>0.162355</v>
       </c>
       <c r="D71" t="n">
-        <v>0.968798</v>
+        <v>0.004880195</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003815044</v>
+        <v>0.002021269</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003352711</v>
+        <v>0.0005137059999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001664823</v>
+        <v>0.000255802</v>
       </c>
       <c r="H71" t="n">
-        <v>0.000158305</v>
+        <v>0.000450804</v>
       </c>
       <c r="I71" t="n">
-        <v>4.72e-05</v>
+        <v>435.7226031</v>
       </c>
       <c r="J71" t="n">
-        <v>609.8268155</v>
+        <v>89.45466860000001</v>
       </c>
       <c r="K71" t="n">
-        <v>328.1976396</v>
+        <v>50.6353099</v>
       </c>
       <c r="L71" t="n">
-        <v>1.648569</v>
+        <v>14.3606678</v>
       </c>
       <c r="M71" t="n">
-        <v>1.511004</v>
+        <v>0.185229</v>
       </c>
       <c r="N71" t="n">
-        <v>0.985873</v>
+        <v>0.06506099999999999</v>
       </c>
       <c r="O71" t="n">
-        <v>0.912097</v>
+        <v>0.02479</v>
       </c>
       <c r="P71" t="n">
-        <v>0.950435</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.9439920000000001</v>
-      </c>
-      <c r="R71" t="n">
-        <v>33.77</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.019961</v>
+        <v>1.467189</v>
       </c>
       <c r="B72" t="n">
-        <v>0.873698</v>
+        <v>0.911453</v>
       </c>
       <c r="C72" t="n">
-        <v>0.145925</v>
+        <v>0.955912</v>
       </c>
       <c r="D72" t="n">
-        <v>0.162355</v>
+        <v>0.003815044</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002690133</v>
+        <v>0.001664823</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002270784</v>
+        <v>0.000424592</v>
       </c>
       <c r="G72" t="n">
-        <v>0.001113378</v>
+        <v>0.000217016</v>
       </c>
       <c r="H72" t="n">
-        <v>0.000105884</v>
+        <v>0.000389997</v>
       </c>
       <c r="I72" t="n">
-        <v>4.61e-05</v>
+        <v>609.8268155</v>
       </c>
       <c r="J72" t="n">
-        <v>240.2860885</v>
+        <v>328.1976396</v>
       </c>
       <c r="K72" t="n">
-        <v>54.3285287</v>
+        <v>292.7038468</v>
       </c>
       <c r="L72" t="n">
-        <v>0.541867</v>
+        <v>259.4983204</v>
       </c>
       <c r="M72" t="n">
-        <v>0.449727</v>
+        <v>0.985873</v>
       </c>
       <c r="N72" t="n">
-        <v>0.124984</v>
+        <v>0.866672</v>
       </c>
       <c r="O72" t="n">
-        <v>0.088579</v>
+        <v>0.827045</v>
       </c>
       <c r="P72" t="n">
-        <v>0.147213</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.144636</v>
-      </c>
-      <c r="R72" t="n">
-        <v>12.19</v>
+        <v>33.77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.92557</v>
+        <v>0.45456</v>
       </c>
       <c r="B73" t="n">
-        <v>1.666549</v>
+        <v>0.082458</v>
       </c>
       <c r="C73" t="n">
-        <v>0.251273</v>
+        <v>0.153657</v>
       </c>
       <c r="D73" t="n">
-        <v>0.189739</v>
+        <v>0.002690133</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005235594</v>
+        <v>0.001113378</v>
       </c>
       <c r="F73" t="n">
-        <v>0.004558344</v>
+        <v>0.000283062</v>
       </c>
       <c r="G73" t="n">
-        <v>0.002329492</v>
+        <v>0.000142581</v>
       </c>
       <c r="H73" t="n">
-        <v>0.000223303</v>
+        <v>0.000265239</v>
       </c>
       <c r="I73" t="n">
-        <v>6.71e-05</v>
+        <v>240.2860885</v>
       </c>
       <c r="J73" t="n">
-        <v>464.2372332</v>
+        <v>54.3285287</v>
       </c>
       <c r="K73" t="n">
-        <v>99.79443209999999</v>
+        <v>33.058445</v>
       </c>
       <c r="L73" t="n">
-        <v>0.999665</v>
+        <v>8.7046633</v>
       </c>
       <c r="M73" t="n">
-        <v>0.793156</v>
+        <v>0.124984</v>
       </c>
       <c r="N73" t="n">
-        <v>0.201981</v>
+        <v>0.051852</v>
       </c>
       <c r="O73" t="n">
-        <v>0.126272</v>
+        <v>0.015769</v>
       </c>
       <c r="P73" t="n">
-        <v>0.151401</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.145602</v>
-      </c>
-      <c r="R73" t="n">
-        <v>24.15</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.073445</v>
+        <v>0.8720869999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>1.801214</v>
+        <v>0.134004</v>
       </c>
       <c r="C74" t="n">
-        <v>0.291866</v>
+        <v>0.171053</v>
       </c>
       <c r="D74" t="n">
-        <v>0.18684</v>
+        <v>0.005235594</v>
       </c>
       <c r="E74" t="n">
-        <v>0.004619147</v>
+        <v>0.002329492</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004076089</v>
+        <v>0.000586043</v>
       </c>
       <c r="G74" t="n">
-        <v>0.002184816</v>
+        <v>0.000294595</v>
       </c>
       <c r="H74" t="n">
-        <v>0.000240078</v>
+        <v>0.000552496</v>
       </c>
       <c r="I74" t="n">
-        <v>6.71e-05</v>
+        <v>464.2372332</v>
       </c>
       <c r="J74" t="n">
-        <v>553.6728269</v>
+        <v>99.79443209999999</v>
       </c>
       <c r="K74" t="n">
-        <v>112.2585609</v>
+        <v>55.8224135</v>
       </c>
       <c r="L74" t="n">
-        <v>1.435556</v>
+        <v>17.4216349</v>
       </c>
       <c r="M74" t="n">
-        <v>1.185233</v>
+        <v>0.201981</v>
       </c>
       <c r="N74" t="n">
-        <v>0.275758</v>
+        <v>0.06957099999999999</v>
       </c>
       <c r="O74" t="n">
-        <v>0.173953</v>
+        <v>0.031233</v>
       </c>
       <c r="P74" t="n">
-        <v>0.156234</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.147213</v>
-      </c>
-      <c r="R74" t="n">
-        <v>25.11</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.527054</v>
+        <v>0.957139</v>
       </c>
       <c r="B75" t="n">
-        <v>2.250636</v>
+        <v>0.142059</v>
       </c>
       <c r="C75" t="n">
-        <v>0.445217</v>
+        <v>0.166543</v>
       </c>
       <c r="D75" t="n">
-        <v>0.202626</v>
+        <v>0.004619147</v>
       </c>
       <c r="E75" t="n">
-        <v>0.006171793</v>
+        <v>0.002184816</v>
       </c>
       <c r="F75" t="n">
-        <v>0.005562688</v>
+        <v>0.000530478</v>
       </c>
       <c r="G75" t="n">
-        <v>0.003174487</v>
+        <v>0.000278868</v>
       </c>
       <c r="H75" t="n">
-        <v>0.000415158</v>
+        <v>0.000596528</v>
       </c>
       <c r="I75" t="n">
-        <v>9.75e-05</v>
+        <v>553.6728269</v>
       </c>
       <c r="J75" t="n">
-        <v>656.8467917</v>
+        <v>112.2585609</v>
       </c>
       <c r="K75" t="n">
-        <v>119.8732789</v>
+        <v>63.9342672</v>
       </c>
       <c r="L75" t="n">
-        <v>1.586652</v>
+        <v>23.5535584</v>
       </c>
       <c r="M75" t="n">
-        <v>1.3083</v>
+        <v>0.275758</v>
       </c>
       <c r="N75" t="n">
-        <v>0.275113</v>
+        <v>0.092445</v>
       </c>
       <c r="O75" t="n">
-        <v>0.223244</v>
+        <v>0.053785</v>
       </c>
       <c r="P75" t="n">
-        <v>0.154301</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.138837</v>
-      </c>
-      <c r="R75" t="n">
-        <v>34.24</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.899475</v>
+        <v>1.265774</v>
       </c>
       <c r="B76" t="n">
-        <v>1.724861</v>
+        <v>0.177819</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264482</v>
+        <v>0.167187</v>
       </c>
       <c r="D76" t="n">
-        <v>0.178141</v>
+        <v>0.006171793</v>
       </c>
       <c r="E76" t="n">
-        <v>0.004457699</v>
+        <v>0.003174487</v>
       </c>
       <c r="F76" t="n">
-        <v>0.004013186</v>
+        <v>0.00067096</v>
       </c>
       <c r="G76" t="n">
-        <v>0.002126108</v>
+        <v>0.000391045</v>
       </c>
       <c r="H76" t="n">
-        <v>0.000215965</v>
+        <v>0.001025314</v>
       </c>
       <c r="I76" t="n">
-        <v>4.72e-05</v>
+        <v>656.8467917</v>
       </c>
       <c r="J76" t="n">
-        <v>494.1135353</v>
+        <v>119.8732789</v>
       </c>
       <c r="K76" t="n">
-        <v>114.9400789</v>
+        <v>71.7520573</v>
       </c>
       <c r="L76" t="n">
-        <v>1.247089</v>
+        <v>35.2831641</v>
       </c>
       <c r="M76" t="n">
-        <v>1.09116</v>
+        <v>0.275113</v>
       </c>
       <c r="N76" t="n">
-        <v>0.278979</v>
+        <v>0.097277</v>
       </c>
       <c r="O76" t="n">
-        <v>0.158167</v>
+        <v>0.068927</v>
       </c>
       <c r="P76" t="n">
-        <v>0.153334</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.144636</v>
-      </c>
-      <c r="R76" t="n">
-        <v>21.32</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.827695</v>
+        <v>0.914613</v>
       </c>
       <c r="B77" t="n">
-        <v>1.571895</v>
+        <v>0.14077</v>
       </c>
       <c r="C77" t="n">
-        <v>0.521634</v>
+        <v>0.1601</v>
       </c>
       <c r="D77" t="n">
-        <v>0.450757</v>
+        <v>0.004457699</v>
       </c>
       <c r="E77" t="n">
-        <v>0.004032057</v>
+        <v>0.002126108</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003330693</v>
+        <v>0.000542011</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001673209</v>
+        <v>0.000270482</v>
       </c>
       <c r="H77" t="n">
-        <v>0.000171936</v>
+        <v>0.000532577</v>
       </c>
       <c r="I77" t="n">
-        <v>3.56e-05</v>
+        <v>494.1135353</v>
       </c>
       <c r="J77" t="n">
-        <v>455.9386356</v>
+        <v>114.9400789</v>
       </c>
       <c r="K77" t="n">
-        <v>154.6738844</v>
+        <v>63.502145</v>
       </c>
       <c r="L77" t="n">
-        <v>1.097667</v>
+        <v>21.2031904</v>
       </c>
       <c r="M77" t="n">
-        <v>0.927885</v>
+        <v>0.278979</v>
       </c>
       <c r="N77" t="n">
-        <v>0.442381</v>
+        <v>0.090512</v>
       </c>
       <c r="O77" t="n">
-        <v>0.42144</v>
+        <v>0.047342</v>
       </c>
       <c r="P77" t="n">
-        <v>0.430138</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.426595</v>
-      </c>
-      <c r="R77" t="n">
-        <v>25.86</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.777374</v>
+        <v>0.962357</v>
       </c>
       <c r="B78" t="n">
-        <v>1.521252</v>
+        <v>0.399855</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244507</v>
+        <v>0.439481</v>
       </c>
       <c r="D78" t="n">
-        <v>0.180396</v>
+        <v>0.004032057</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004396892</v>
+        <v>0.001673209</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00377206</v>
+        <v>0.000338627</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001947885</v>
+        <v>0.000182418</v>
       </c>
       <c r="H78" t="n">
-        <v>0.000194998</v>
+        <v>0.000440319</v>
       </c>
       <c r="I78" t="n">
-        <v>6.08e-05</v>
+        <v>455.9386356</v>
       </c>
       <c r="J78" t="n">
-        <v>449.4939491</v>
+        <v>154.6738844</v>
       </c>
       <c r="K78" t="n">
-        <v>92.250266</v>
+        <v>131.2677112</v>
       </c>
       <c r="L78" t="n">
-        <v>1.085361</v>
+        <v>107.2512869</v>
       </c>
       <c r="M78" t="n">
-        <v>0.874987</v>
+        <v>0.442381</v>
       </c>
       <c r="N78" t="n">
-        <v>0.211969</v>
+        <v>0.359584</v>
       </c>
       <c r="O78" t="n">
-        <v>0.140448</v>
+        <v>0.329945</v>
       </c>
       <c r="P78" t="n">
-        <v>0.155267</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.147213</v>
-      </c>
-      <c r="R78" t="n">
-        <v>18.94</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.132723</v>
+        <v>0.797345</v>
       </c>
       <c r="B79" t="n">
-        <v>1.984527</v>
+        <v>0.123051</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5489540000000001</v>
+        <v>0.162999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.293154</v>
+        <v>0.004396892</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005530185</v>
+        <v>0.001947885</v>
       </c>
       <c r="F79" t="n">
-        <v>0.005148575</v>
+        <v>0.000480156</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002935454</v>
+        <v>0.000248464</v>
       </c>
       <c r="H79" t="n">
-        <v>0.000468623</v>
+        <v>0.000494836</v>
       </c>
       <c r="I79" t="n">
-        <v>0.000252659</v>
+        <v>449.4939491</v>
       </c>
       <c r="J79" t="n">
-        <v>529.4779588</v>
+        <v>92.250266</v>
       </c>
       <c r="K79" t="n">
-        <v>141.213635</v>
+        <v>52.9409226</v>
       </c>
       <c r="L79" t="n">
-        <v>1.198441</v>
+        <v>18.0139368</v>
       </c>
       <c r="M79" t="n">
-        <v>1.034781</v>
+        <v>0.211969</v>
       </c>
       <c r="N79" t="n">
-        <v>0.292188</v>
+        <v>0.07375900000000001</v>
       </c>
       <c r="O79" t="n">
-        <v>0.290255</v>
+        <v>0.036388</v>
       </c>
       <c r="P79" t="n">
-        <v>0.199082</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.175886</v>
-      </c>
-      <c r="R79" t="n">
-        <v>25.85</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.050571</v>
+        <v>1.128531</v>
       </c>
       <c r="B80" t="n">
-        <v>1.877568</v>
+        <v>0.185551</v>
       </c>
       <c r="C80" t="n">
-        <v>0.296376</v>
+        <v>0.236131</v>
       </c>
       <c r="D80" t="n">
-        <v>0.181363</v>
+        <v>0.005530185</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004735519</v>
+        <v>0.002935454</v>
       </c>
       <c r="F80" t="n">
-        <v>0.004313023</v>
+        <v>0.000854429</v>
       </c>
       <c r="G80" t="n">
-        <v>0.002352558</v>
+        <v>0.000449753</v>
       </c>
       <c r="H80" t="n">
-        <v>0.000257901</v>
+        <v>0.001236036</v>
       </c>
       <c r="I80" t="n">
-        <v>5.66e-05</v>
+        <v>529.4779588</v>
       </c>
       <c r="J80" t="n">
-        <v>543.8774957000001</v>
+        <v>141.213635</v>
       </c>
       <c r="K80" t="n">
-        <v>129.3504798</v>
+        <v>79.1092335</v>
       </c>
       <c r="L80" t="n">
-        <v>1.376599</v>
+        <v>42.1652724</v>
       </c>
       <c r="M80" t="n">
-        <v>1.211006</v>
+        <v>0.292188</v>
       </c>
       <c r="N80" t="n">
-        <v>0.307652</v>
+        <v>0.092123</v>
       </c>
       <c r="O80" t="n">
-        <v>0.174919</v>
+        <v>0.086002</v>
       </c>
       <c r="P80" t="n">
-        <v>0.15269</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.142381</v>
-      </c>
-      <c r="R80" t="n">
-        <v>25.1</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.802503</v>
+        <v>1.013518</v>
       </c>
       <c r="B81" t="n">
-        <v>1.625634</v>
+        <v>0.155267</v>
       </c>
       <c r="C81" t="n">
-        <v>0.247407</v>
+        <v>0.1601</v>
       </c>
       <c r="D81" t="n">
-        <v>0.182651</v>
+        <v>0.004735519</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004451409</v>
+        <v>0.002352558</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004004797</v>
+        <v>0.000616446</v>
       </c>
       <c r="G81" t="n">
-        <v>0.002081028</v>
+        <v>0.000314514</v>
       </c>
       <c r="H81" t="n">
-        <v>0.000209675</v>
+        <v>0.000609108</v>
       </c>
       <c r="I81" t="n">
-        <v>7.02e-05</v>
+        <v>543.8774957000001</v>
       </c>
       <c r="J81" t="n">
-        <v>460.3298453</v>
+        <v>129.3504798</v>
       </c>
       <c r="K81" t="n">
-        <v>105.5560848</v>
+        <v>71.0451917</v>
       </c>
       <c r="L81" t="n">
-        <v>1.119511</v>
+        <v>24.4870333</v>
       </c>
       <c r="M81" t="n">
-        <v>0.958106</v>
+        <v>0.307652</v>
       </c>
       <c r="N81" t="n">
-        <v>0.243219</v>
+        <v>0.09631099999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>0.143025</v>
+        <v>0.053463</v>
       </c>
       <c r="P81" t="n">
-        <v>0.154945</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.148824</v>
-      </c>
-      <c r="R81" t="n">
-        <v>19.64</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.175504</v>
+        <v>0.855335</v>
       </c>
       <c r="B82" t="n">
-        <v>2.005723</v>
+        <v>0.132394</v>
       </c>
       <c r="C82" t="n">
-        <v>0.894894</v>
+        <v>0.166221</v>
       </c>
       <c r="D82" t="n">
-        <v>0.868798</v>
+        <v>0.004451409</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003815044</v>
+        <v>0.002081028</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003352711</v>
+        <v>0.00052314</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001664823</v>
+        <v>0.000266287</v>
       </c>
       <c r="H82" t="n">
-        <v>0.000158305</v>
+        <v>0.0005095120000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>4.72e-05</v>
+        <v>460.3298453</v>
       </c>
       <c r="J82" t="n">
-        <v>579.0868154999999</v>
+        <v>105.5560848</v>
       </c>
       <c r="K82" t="n">
-        <v>297.4576396</v>
+        <v>58.7559308</v>
       </c>
       <c r="L82" t="n">
-        <v>1.548569</v>
+        <v>18.9744114</v>
       </c>
       <c r="M82" t="n">
-        <v>1.411004</v>
+        <v>0.243219</v>
       </c>
       <c r="N82" t="n">
-        <v>0.885873</v>
+        <v>0.08149099999999999</v>
       </c>
       <c r="O82" t="n">
-        <v>0.812097</v>
+        <v>0.039287</v>
       </c>
       <c r="P82" t="n">
-        <v>0.8504350000000001</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.843992</v>
-      </c>
-      <c r="R82" t="n">
-        <v>25.94</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.725504</v>
+        <v>1.367189</v>
       </c>
       <c r="B83" t="n">
-        <v>1.555723</v>
+        <v>0.811453</v>
       </c>
       <c r="C83" t="n">
-        <v>0.444894</v>
+        <v>0.855912</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418798</v>
+        <v>0.003815044</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003815044</v>
+        <v>0.001664823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003352711</v>
+        <v>0.000424592</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001664823</v>
+        <v>0.000217016</v>
       </c>
       <c r="H83" t="n">
-        <v>0.000158305</v>
+        <v>0.000389997</v>
       </c>
       <c r="I83" t="n">
-        <v>4.72e-05</v>
+        <v>579.0868154999999</v>
       </c>
       <c r="J83" t="n">
-        <v>440.7568155</v>
+        <v>297.4576396</v>
       </c>
       <c r="K83" t="n">
-        <v>159.1276396</v>
+        <v>261.9638468</v>
       </c>
       <c r="L83" t="n">
-        <v>1.098569</v>
+        <v>228.7583204</v>
       </c>
       <c r="M83" t="n">
-        <v>0.961004</v>
+        <v>0.885873</v>
       </c>
       <c r="N83" t="n">
-        <v>0.435873</v>
+        <v>0.766672</v>
       </c>
       <c r="O83" t="n">
-        <v>0.362097</v>
+        <v>0.7270450000000001</v>
       </c>
       <c r="P83" t="n">
-        <v>0.400435</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.393992</v>
-      </c>
-      <c r="R83" t="n">
-        <v>18.96</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.648508</v>
+        <v>0.917189</v>
       </c>
       <c r="B84" t="n">
-        <v>1.377566</v>
+        <v>0.361453</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24483</v>
+        <v>0.405912</v>
       </c>
       <c r="D84" t="n">
-        <v>0.158489</v>
+        <v>0.003815044</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004384312</v>
+        <v>0.001664823</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003638916</v>
+        <v>0.000424592</v>
       </c>
       <c r="G84" t="n">
-        <v>0.001808451</v>
+        <v>0.000217016</v>
       </c>
       <c r="H84" t="n">
-        <v>0.000167738</v>
+        <v>0.000389997</v>
       </c>
       <c r="I84" t="n">
-        <v>3.46e-05</v>
+        <v>440.7568155</v>
       </c>
       <c r="J84" t="n">
-        <v>391.7689</v>
+        <v>159.1276396</v>
       </c>
       <c r="K84" t="n">
-        <v>66.64646329999999</v>
+        <v>123.6338468</v>
       </c>
       <c r="L84" t="n">
-        <v>0.845347</v>
+        <v>90.4283204</v>
       </c>
       <c r="M84" t="n">
-        <v>0.669445</v>
+        <v>0.435873</v>
       </c>
       <c r="N84" t="n">
-        <v>0.167187</v>
+        <v>0.316672</v>
       </c>
       <c r="O84" t="n">
-        <v>0.132071</v>
+        <v>0.277045</v>
       </c>
       <c r="P84" t="n">
-        <v>0.131427</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.127239</v>
-      </c>
-      <c r="R84" t="n">
-        <v>17.58</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.927374</v>
+        <v>0.727757</v>
       </c>
       <c r="B85" t="n">
-        <v>1.671252</v>
+        <v>0.114997</v>
       </c>
       <c r="C85" t="n">
-        <v>0.394507</v>
+        <v>0.146891</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330396</v>
+        <v>0.004384312</v>
       </c>
       <c r="E85" t="n">
-        <v>0.004396892</v>
+        <v>0.001808451</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00377206</v>
+        <v>0.000329193</v>
       </c>
       <c r="G85" t="n">
-        <v>0.001947885</v>
+        <v>0.000171933</v>
       </c>
       <c r="H85" t="n">
-        <v>0.000194998</v>
+        <v>0.000474914</v>
       </c>
       <c r="I85" t="n">
-        <v>6.08e-05</v>
+        <v>391.7689</v>
       </c>
       <c r="J85" t="n">
-        <v>495.6039491</v>
+        <v>66.64646329999999</v>
       </c>
       <c r="K85" t="n">
-        <v>138.360266</v>
+        <v>41.3360809</v>
       </c>
       <c r="L85" t="n">
-        <v>1.235361</v>
+        <v>16.2224676</v>
       </c>
       <c r="M85" t="n">
-        <v>1.024987</v>
+        <v>0.167187</v>
       </c>
       <c r="N85" t="n">
-        <v>0.361969</v>
+        <v>0.06506099999999999</v>
       </c>
       <c r="O85" t="n">
-        <v>0.290448</v>
+        <v>0.036388</v>
       </c>
       <c r="P85" t="n">
-        <v>0.305267</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.297213</v>
-      </c>
-      <c r="R85" t="n">
-        <v>22.71</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.915261</v>
+        <v>0.947345</v>
       </c>
       <c r="B86" t="n">
-        <v>1.726794</v>
+        <v>0.273051</v>
       </c>
       <c r="C86" t="n">
-        <v>0.269636</v>
+        <v>0.312999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.184262</v>
+        <v>0.004396892</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004343427</v>
+        <v>0.001947885</v>
       </c>
       <c r="F86" t="n">
-        <v>0.003903108</v>
+        <v>0.000480156</v>
       </c>
       <c r="G86" t="n">
-        <v>0.002081025</v>
+        <v>0.000248464</v>
       </c>
       <c r="H86" t="n">
-        <v>0.000224354</v>
+        <v>0.000494836</v>
       </c>
       <c r="I86" t="n">
-        <v>3.77e-05</v>
+        <v>495.6039491</v>
       </c>
       <c r="J86" t="n">
-        <v>498.6720232</v>
+        <v>138.360266</v>
       </c>
       <c r="K86" t="n">
-        <v>116.762604</v>
+        <v>99.05092260000001</v>
       </c>
       <c r="L86" t="n">
-        <v>1.281882</v>
+        <v>64.1239368</v>
       </c>
       <c r="M86" t="n">
-        <v>1.117256</v>
+        <v>0.361969</v>
       </c>
       <c r="N86" t="n">
-        <v>0.286711</v>
+        <v>0.223759</v>
       </c>
       <c r="O86" t="n">
-        <v>0.160744</v>
+        <v>0.186388</v>
       </c>
       <c r="P86" t="n">
-        <v>0.156556</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.150435</v>
-      </c>
-      <c r="R86" t="n">
-        <v>21.5</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.982594</v>
+        <v>0.916224</v>
       </c>
       <c r="B87" t="n">
-        <v>1.742258</v>
+        <v>0.142703</v>
       </c>
       <c r="C87" t="n">
-        <v>0.376273</v>
+        <v>0.16461</v>
       </c>
       <c r="D87" t="n">
-        <v>0.220667</v>
+        <v>0.004343427</v>
       </c>
       <c r="E87" t="n">
-        <v>0.004646407</v>
+        <v>0.002081025</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00410754</v>
+        <v>0.000546206</v>
       </c>
       <c r="G87" t="n">
-        <v>0.002262398</v>
+        <v>0.000278868</v>
       </c>
       <c r="H87" t="n">
-        <v>0.000309271</v>
+        <v>0.000543059</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000117419</v>
+        <v>498.6720232</v>
       </c>
       <c r="J87" t="n">
-        <v>513.5955272</v>
+        <v>116.762604</v>
       </c>
       <c r="K87" t="n">
-        <v>105.4597595</v>
+        <v>64.3317907</v>
       </c>
       <c r="L87" t="n">
-        <v>1.299602</v>
+        <v>21.4004897</v>
       </c>
       <c r="M87" t="n">
-        <v>1.089549</v>
+        <v>0.286711</v>
       </c>
       <c r="N87" t="n">
-        <v>0.258361</v>
+        <v>0.09308900000000001</v>
       </c>
       <c r="O87" t="n">
-        <v>0.220989</v>
+        <v>0.046697</v>
       </c>
       <c r="P87" t="n">
-        <v>0.173309</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.1601</v>
-      </c>
-      <c r="R87" t="n">
-        <v>23.18</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.810883</v>
+        <v>0.9561730000000001</v>
       </c>
       <c r="B88" t="n">
-        <v>2.67074</v>
+        <v>0.147213</v>
       </c>
       <c r="C88" t="n">
-        <v>0.735167</v>
+        <v>0.189095</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279624</v>
+        <v>0.004646407</v>
       </c>
       <c r="E88" t="n">
-        <v>0.006758884</v>
+        <v>0.002262398</v>
       </c>
       <c r="F88" t="n">
-        <v>0.006545015</v>
+        <v>0.000537816</v>
       </c>
       <c r="G88" t="n">
-        <v>0.004248021</v>
+        <v>0.000291448</v>
       </c>
       <c r="H88" t="n">
-        <v>0.000672011</v>
+        <v>0.000791523</v>
       </c>
       <c r="I88" t="n">
-        <v>0.000186612</v>
+        <v>513.5955272</v>
       </c>
       <c r="J88" t="n">
-        <v>755.799956</v>
+        <v>105.4597595</v>
       </c>
       <c r="K88" t="n">
-        <v>156.9887974</v>
+        <v>62.2872555</v>
       </c>
       <c r="L88" t="n">
-        <v>1.90624</v>
+        <v>29.9989216</v>
       </c>
       <c r="M88" t="n">
-        <v>1.681046</v>
+        <v>0.258361</v>
       </c>
       <c r="N88" t="n">
-        <v>0.37273</v>
+        <v>0.091156</v>
       </c>
       <c r="O88" t="n">
-        <v>0.402691</v>
+        <v>0.067316</v>
       </c>
       <c r="P88" t="n">
-        <v>0.203914</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.172986</v>
-      </c>
-      <c r="R88" t="n">
-        <v>38.92</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.274798</v>
+        <v>1.688778</v>
       </c>
       <c r="B89" t="n">
-        <v>2.15753</v>
+        <v>0.276724</v>
       </c>
       <c r="C89" t="n">
-        <v>0.339546</v>
+        <v>0.211324</v>
       </c>
       <c r="D89" t="n">
-        <v>0.198115</v>
+        <v>0.006758884</v>
       </c>
       <c r="E89" t="n">
-        <v>0.005687442</v>
+        <v>0.004248021</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005362444</v>
+        <v>0.000978135</v>
       </c>
       <c r="G89" t="n">
-        <v>0.002967953</v>
+        <v>0.000665721</v>
       </c>
       <c r="H89" t="n">
-        <v>0.000315561</v>
+        <v>0.001679502</v>
       </c>
       <c r="I89" t="n">
-        <v>9.96e-05</v>
+        <v>755.799956</v>
       </c>
       <c r="J89" t="n">
-        <v>578.6070949</v>
+        <v>156.9887974</v>
       </c>
       <c r="K89" t="n">
-        <v>150.9849992</v>
+        <v>102.4562418</v>
       </c>
       <c r="L89" t="n">
-        <v>1.386909</v>
+        <v>63.8407782</v>
       </c>
       <c r="M89" t="n">
-        <v>1.241934</v>
+        <v>0.37273</v>
       </c>
       <c r="N89" t="n">
-        <v>0.330526</v>
+        <v>0.149791</v>
       </c>
       <c r="O89" t="n">
-        <v>0.174275</v>
+        <v>0.13626</v>
       </c>
       <c r="P89" t="n">
-        <v>0.158167</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.147213</v>
-      </c>
-      <c r="R89" t="n">
-        <v>28.58</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.212301</v>
+        <v>1.186199</v>
       </c>
       <c r="B90" t="n">
-        <v>3.060239</v>
+        <v>0.184584</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784458</v>
+        <v>0.172986</v>
       </c>
       <c r="D90" t="n">
-        <v>0.291544</v>
+        <v>0.005687442</v>
       </c>
       <c r="E90" t="n">
-        <v>0.009626193</v>
+        <v>0.002967953</v>
       </c>
       <c r="F90" t="n">
-        <v>0.009192166999999999</v>
+        <v>0.000831363</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005885584</v>
+        <v>0.000417253</v>
       </c>
       <c r="H90" t="n">
-        <v>0.000876443</v>
+        <v>0.000762171</v>
       </c>
       <c r="I90" t="n">
-        <v>0.000214917</v>
+        <v>578.6070949</v>
       </c>
       <c r="J90" t="n">
-        <v>789.7460841</v>
+        <v>150.9849992</v>
       </c>
       <c r="K90" t="n">
-        <v>158.5719792</v>
+        <v>82.6578263</v>
       </c>
       <c r="L90" t="n">
-        <v>1.521574</v>
+        <v>26.5785141</v>
       </c>
       <c r="M90" t="n">
-        <v>1.241934</v>
+        <v>0.330526</v>
       </c>
       <c r="N90" t="n">
-        <v>0.271247</v>
+        <v>0.101466</v>
       </c>
       <c r="O90" t="n">
-        <v>0.293799</v>
+        <v>0.052818</v>
       </c>
       <c r="P90" t="n">
-        <v>0.181363</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.15559</v>
-      </c>
-      <c r="R90" t="n">
-        <v>48.79</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.498382</v>
+        <v>1.960364</v>
       </c>
       <c r="B91" t="n">
-        <v>2.394322</v>
+        <v>0.306363</v>
       </c>
       <c r="C91" t="n">
-        <v>0.393993</v>
+        <v>0.211002</v>
       </c>
       <c r="D91" t="n">
-        <v>0.201659</v>
+        <v>0.009626193</v>
       </c>
       <c r="E91" t="n">
-        <v>0.00577341</v>
+        <v>0.005885584</v>
       </c>
       <c r="F91" t="n">
-        <v>0.005479863</v>
+        <v>0.001326199</v>
       </c>
       <c r="G91" t="n">
-        <v>0.003212226</v>
+        <v>0.000851282</v>
       </c>
       <c r="H91" t="n">
-        <v>0.000354354</v>
+        <v>0.002133449</v>
       </c>
       <c r="I91" t="n">
-        <v>0.000105887</v>
+        <v>789.7460841</v>
       </c>
       <c r="J91" t="n">
-        <v>666.3679929</v>
+        <v>158.5719792</v>
       </c>
       <c r="K91" t="n">
-        <v>184.4585877</v>
+        <v>100.846626</v>
       </c>
       <c r="L91" t="n">
-        <v>1.722606</v>
+        <v>58.9045508</v>
       </c>
       <c r="M91" t="n">
-        <v>1.570543</v>
+        <v>0.271247</v>
       </c>
       <c r="N91" t="n">
-        <v>0.429431</v>
+        <v>0.102432</v>
       </c>
       <c r="O91" t="n">
-        <v>0.213579</v>
+        <v>0.094056</v>
       </c>
       <c r="P91" t="n">
-        <v>0.157523</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.144636</v>
-      </c>
-      <c r="R91" t="n">
-        <v>28.62</v>
+        <v>48.79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.827374</v>
+        <v>0.8973449999999999</v>
       </c>
       <c r="B92" t="n">
-        <v>1.571252</v>
+        <v>0.223051</v>
       </c>
       <c r="C92" t="n">
-        <v>0.294507</v>
+        <v>0.262999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.230396</v>
+        <v>0.004396892</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004396892</v>
+        <v>0.001947885</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00377206</v>
+        <v>0.000480156</v>
       </c>
       <c r="G92" t="n">
-        <v>0.001947885</v>
+        <v>0.000248464</v>
       </c>
       <c r="H92" t="n">
-        <v>0.000194998</v>
+        <v>0.000494836</v>
       </c>
       <c r="I92" t="n">
-        <v>6.08e-05</v>
+        <v>480.2339491</v>
       </c>
       <c r="J92" t="n">
-        <v>464.8639491</v>
+        <v>122.990266</v>
       </c>
       <c r="K92" t="n">
-        <v>107.620266</v>
+        <v>83.6809226</v>
       </c>
       <c r="L92" t="n">
-        <v>1.135361</v>
+        <v>48.7539368</v>
       </c>
       <c r="M92" t="n">
-        <v>0.924987</v>
+        <v>0.311969</v>
       </c>
       <c r="N92" t="n">
-        <v>0.261969</v>
+        <v>0.173759</v>
       </c>
       <c r="O92" t="n">
-        <v>0.190448</v>
+        <v>0.136388</v>
       </c>
       <c r="P92" t="n">
-        <v>0.205267</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.197213</v>
-      </c>
-      <c r="R92" t="n">
-        <v>20.01</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.662361</v>
+        <v>1.355014</v>
       </c>
       <c r="B93" t="n">
-        <v>1.403661</v>
+        <v>0.214224</v>
       </c>
       <c r="C93" t="n">
-        <v>0.216801</v>
+        <v>0.171698</v>
       </c>
       <c r="D93" t="n">
-        <v>0.178785</v>
+        <v>0.00577341</v>
       </c>
       <c r="E93" t="n">
-        <v>0.004483908</v>
+        <v>0.003212226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003783593</v>
+        <v>0.000944588</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001897563</v>
+        <v>0.000467576</v>
       </c>
       <c r="H93" t="n">
-        <v>0.000188708</v>
+        <v>0.000876443</v>
       </c>
       <c r="I93" t="n">
-        <v>4.93e-05</v>
+        <v>666.3679929</v>
       </c>
       <c r="J93" t="n">
-        <v>394.578029</v>
+        <v>184.4585877</v>
       </c>
       <c r="K93" t="n">
-        <v>83.8919501</v>
+        <v>99.5703058</v>
       </c>
       <c r="L93" t="n">
-        <v>0.8524350000000001</v>
+        <v>32.5724534</v>
       </c>
       <c r="M93" t="n">
-        <v>0.669122</v>
+        <v>0.429431</v>
       </c>
       <c r="N93" t="n">
-        <v>0.174919</v>
+        <v>0.124339</v>
       </c>
       <c r="O93" t="n">
-        <v>0.113386</v>
+        <v>0.06796000000000001</v>
       </c>
       <c r="P93" t="n">
-        <v>0.15269</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.150113</v>
-      </c>
-      <c r="R93" t="n">
-        <v>17.78</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.302501</v>
+        <v>0.847345</v>
       </c>
       <c r="B94" t="n">
-        <v>1.075052</v>
+        <v>0.173051</v>
       </c>
       <c r="C94" t="n">
-        <v>0.183618</v>
+        <v>0.212999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.161066</v>
+        <v>0.004396892</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003540368</v>
+        <v>0.001947885</v>
       </c>
       <c r="F94" t="n">
-        <v>0.002889326</v>
+        <v>0.000480156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.001434182</v>
+        <v>0.000248464</v>
       </c>
       <c r="H94" t="n">
-        <v>0.000135239</v>
+        <v>0.000494836</v>
       </c>
       <c r="I94" t="n">
-        <v>4.19e-05</v>
+        <v>464.8639491</v>
       </c>
       <c r="J94" t="n">
-        <v>299.3798353</v>
+        <v>107.620266</v>
       </c>
       <c r="K94" t="n">
-        <v>54.067411</v>
+        <v>68.3109226</v>
       </c>
       <c r="L94" t="n">
-        <v>0.614032</v>
+        <v>33.3839368</v>
       </c>
       <c r="M94" t="n">
-        <v>0.4813</v>
+        <v>0.261969</v>
       </c>
       <c r="N94" t="n">
-        <v>0.111453</v>
+        <v>0.123759</v>
       </c>
       <c r="O94" t="n">
-        <v>0.098888</v>
+        <v>0.08638800000000001</v>
       </c>
       <c r="P94" t="n">
-        <v>0.144636</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.141736</v>
-      </c>
-      <c r="R94" t="n">
-        <v>13.64</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.877695</v>
+        <v>0.723569</v>
       </c>
       <c r="B95" t="n">
-        <v>1.621895</v>
+        <v>0.116607</v>
       </c>
       <c r="C95" t="n">
-        <v>0.571634</v>
+        <v>0.164288</v>
       </c>
       <c r="D95" t="n">
-        <v>0.500757</v>
+        <v>0.004483908</v>
       </c>
       <c r="E95" t="n">
-        <v>0.004032057</v>
+        <v>0.001897563</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003330693</v>
+        <v>0.000484351</v>
       </c>
       <c r="G95" t="n">
-        <v>0.001673209</v>
+        <v>0.000245321</v>
       </c>
       <c r="H95" t="n">
-        <v>0.000171936</v>
+        <v>0.000458142</v>
       </c>
       <c r="I95" t="n">
-        <v>3.56e-05</v>
+        <v>394.578029</v>
       </c>
       <c r="J95" t="n">
-        <v>471.3086356</v>
+        <v>83.8919501</v>
       </c>
       <c r="K95" t="n">
-        <v>170.0438844</v>
+        <v>47.665582</v>
       </c>
       <c r="L95" t="n">
-        <v>1.147667</v>
+        <v>14.5480704</v>
       </c>
       <c r="M95" t="n">
-        <v>0.977885</v>
+        <v>0.174919</v>
       </c>
       <c r="N95" t="n">
-        <v>0.492381</v>
+        <v>0.062483</v>
       </c>
       <c r="O95" t="n">
-        <v>0.47144</v>
+        <v>0.027045</v>
       </c>
       <c r="P95" t="n">
-        <v>0.480138</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.476595</v>
-      </c>
-      <c r="R95" t="n">
-        <v>21.28</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.442966</v>
+        <v>0.558297</v>
       </c>
       <c r="B96" t="n">
-        <v>1.241934</v>
+        <v>0.086968</v>
       </c>
       <c r="C96" t="n">
-        <v>0.178463</v>
+        <v>0.151401</v>
       </c>
       <c r="D96" t="n">
-        <v>0.157523</v>
+        <v>0.003540368</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003620046</v>
+        <v>0.001434182</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003110537</v>
+        <v>0.000310322</v>
       </c>
       <c r="G96" t="n">
-        <v>0.001515955</v>
+        <v>0.000156209</v>
       </c>
       <c r="H96" t="n">
-        <v>0.000140482</v>
+        <v>0.000362737</v>
       </c>
       <c r="I96" t="n">
-        <v>2.62e-05</v>
+        <v>299.3798353</v>
       </c>
       <c r="J96" t="n">
-        <v>358.2116603</v>
+        <v>54.067411</v>
       </c>
       <c r="K96" t="n">
-        <v>76.5387322</v>
+        <v>33.9013267</v>
       </c>
       <c r="L96" t="n">
-        <v>0.847925</v>
+        <v>11.4581801</v>
       </c>
       <c r="M96" t="n">
-        <v>0.689097</v>
+        <v>0.111453</v>
       </c>
       <c r="N96" t="n">
-        <v>0.172986</v>
+        <v>0.04863</v>
       </c>
       <c r="O96" t="n">
-        <v>0.103399</v>
+        <v>0.018991</v>
       </c>
       <c r="P96" t="n">
-        <v>0.141736</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.136582</v>
-      </c>
-      <c r="R96" t="n">
-        <v>14.72</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.777695</v>
+        <v>1.012357</v>
       </c>
       <c r="B97" t="n">
-        <v>1.521895</v>
+        <v>0.449855</v>
       </c>
       <c r="C97" t="n">
-        <v>0.471634</v>
+        <v>0.489481</v>
       </c>
       <c r="D97" t="n">
-        <v>0.400757</v>
+        <v>0.004032057</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004032057</v>
+        <v>0.001673209</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003330693</v>
+        <v>0.000338627</v>
       </c>
       <c r="G97" t="n">
-        <v>0.001673209</v>
+        <v>0.000182418</v>
       </c>
       <c r="H97" t="n">
-        <v>0.000171936</v>
+        <v>0.000440319</v>
       </c>
       <c r="I97" t="n">
-        <v>3.56e-05</v>
+        <v>471.3086356</v>
       </c>
       <c r="J97" t="n">
-        <v>440.5686356</v>
+        <v>170.0438844</v>
       </c>
       <c r="K97" t="n">
-        <v>139.3038844</v>
+        <v>146.6377112</v>
       </c>
       <c r="L97" t="n">
-        <v>1.047667</v>
+        <v>122.6212869</v>
       </c>
       <c r="M97" t="n">
-        <v>0.877885</v>
+        <v>0.492381</v>
       </c>
       <c r="N97" t="n">
-        <v>0.392381</v>
+        <v>0.409584</v>
       </c>
       <c r="O97" t="n">
-        <v>0.37144</v>
+        <v>0.379945</v>
       </c>
       <c r="P97" t="n">
-        <v>0.380138</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.376595</v>
-      </c>
-      <c r="R97" t="n">
-        <v>19.37</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.51352</v>
+        <v>0.627241</v>
       </c>
       <c r="B98" t="n">
-        <v>1.327952</v>
+        <v>0.103399</v>
       </c>
       <c r="C98" t="n">
-        <v>0.194572</v>
+        <v>0.147535</v>
       </c>
       <c r="D98" t="n">
-        <v>0.16912</v>
+        <v>0.003620046</v>
       </c>
       <c r="E98" t="n">
-        <v>0.003732219</v>
+        <v>0.001515955</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003260452</v>
+        <v>0.000383706</v>
       </c>
       <c r="G98" t="n">
-        <v>0.001606115</v>
+        <v>0.000187657</v>
       </c>
       <c r="H98" t="n">
-        <v>0.000163547</v>
+        <v>0.000332333</v>
       </c>
       <c r="I98" t="n">
-        <v>3.25e-05</v>
+        <v>358.2116603</v>
       </c>
       <c r="J98" t="n">
-        <v>381.8933487</v>
+        <v>76.5387322</v>
       </c>
       <c r="K98" t="n">
-        <v>84.21176560000001</v>
+        <v>44.1097434</v>
       </c>
       <c r="L98" t="n">
-        <v>0.933299</v>
+        <v>12.1118494</v>
       </c>
       <c r="M98" t="n">
-        <v>0.785424</v>
+        <v>0.172986</v>
       </c>
       <c r="N98" t="n">
-        <v>0.200048</v>
+        <v>0.062161</v>
       </c>
       <c r="O98" t="n">
-        <v>0.118218</v>
+        <v>0.023179</v>
       </c>
       <c r="P98" t="n">
-        <v>0.152368</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.147535</v>
-      </c>
-      <c r="R98" t="n">
-        <v>15.59</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.527695</v>
+        <v>0.912357</v>
       </c>
       <c r="B99" t="n">
-        <v>1.271895</v>
+        <v>0.349855</v>
       </c>
       <c r="C99" t="n">
-        <v>0.221634</v>
+        <v>0.389481</v>
       </c>
       <c r="D99" t="n">
-        <v>0.150757</v>
+        <v>0.004032057</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004032057</v>
+        <v>0.001673209</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003330693</v>
+        <v>0.000338627</v>
       </c>
       <c r="G99" t="n">
-        <v>0.001673209</v>
+        <v>0.000182418</v>
       </c>
       <c r="H99" t="n">
-        <v>0.000171936</v>
+        <v>0.000440319</v>
       </c>
       <c r="I99" t="n">
-        <v>3.56e-05</v>
+        <v>440.5686356</v>
       </c>
       <c r="J99" t="n">
-        <v>363.7186356</v>
+        <v>139.3038844</v>
       </c>
       <c r="K99" t="n">
-        <v>62.4538844</v>
+        <v>115.8977112</v>
       </c>
       <c r="L99" t="n">
-        <v>0.797667</v>
+        <v>91.88128690000001</v>
       </c>
       <c r="M99" t="n">
-        <v>0.627885</v>
+        <v>0.392381</v>
       </c>
       <c r="N99" t="n">
-        <v>0.142381</v>
+        <v>0.309584</v>
       </c>
       <c r="O99" t="n">
-        <v>0.12144</v>
+        <v>0.279945</v>
       </c>
       <c r="P99" t="n">
-        <v>0.130138</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.126595</v>
-      </c>
-      <c r="R99" t="n">
-        <v>15.71</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.532531</v>
+        <v>0.672666</v>
       </c>
       <c r="B100" t="n">
-        <v>2.517389</v>
+        <v>0.111453</v>
       </c>
       <c r="C100" t="n">
-        <v>0.694574</v>
+        <v>0.1572</v>
       </c>
       <c r="D100" t="n">
-        <v>0.265126</v>
+        <v>0.003732219</v>
       </c>
       <c r="E100" t="n">
+        <v>0.001606115</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.000415155</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.000215965</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.000376365</v>
+      </c>
+      <c r="I100" t="n">
+        <v>381.8933487</v>
+      </c>
+      <c r="J100" t="n">
+        <v>84.21176560000001</v>
+      </c>
+      <c r="K100" t="n">
+        <v>47.8372625</v>
+      </c>
+      <c r="L100" t="n">
+        <v>13.9032873</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.200048</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.070538</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.029945</v>
+      </c>
+      <c r="P100" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.662357</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.099855</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.139481</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.004032057</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.001673209</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.000338627</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.000182418</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.000440319</v>
+      </c>
+      <c r="I101" t="n">
+        <v>363.7186356</v>
+      </c>
+      <c r="J101" t="n">
+        <v>62.4538844</v>
+      </c>
+      <c r="K101" t="n">
+        <v>39.0477112</v>
+      </c>
+      <c r="L101" t="n">
+        <v>15.0312869</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.142381</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.059584</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.029945</v>
+      </c>
+      <c r="P101" t="n">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.574087</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.274147</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.205847</v>
+      </c>
+      <c r="D102" t="n">
         <v>0.005499782</v>
       </c>
-      <c r="F100" t="n">
-        <v>0.005314217</v>
-      </c>
-      <c r="G100" t="n">
+      <c r="E102" t="n">
         <v>0.003544562</v>
       </c>
-      <c r="H100" t="n">
-        <v>0.000565073</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.000147823</v>
-      </c>
-      <c r="J100" t="n">
+      <c r="F102" t="n">
+        <v>0.001193052</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.000592333</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.001487647</v>
+      </c>
+      <c r="I102" t="n">
         <v>680.2320214</v>
       </c>
-      <c r="K100" t="n">
+      <c r="J102" t="n">
         <v>236.1656781</v>
       </c>
-      <c r="L100" t="n">
-        <v>1.794771</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.725505</v>
-      </c>
-      <c r="N100" t="n">
+      <c r="K102" t="n">
+        <v>129.8261572</v>
+      </c>
+      <c r="L102" t="n">
+        <v>58.8235534</v>
+      </c>
+      <c r="M102" t="n">
         <v>0.559586</v>
       </c>
-      <c r="O100" t="n">
-        <v>0.391415</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0.189095</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.162355</v>
-      </c>
-      <c r="R100" t="n">
+      <c r="N102" t="n">
+        <v>0.160422</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.132394</v>
+      </c>
+      <c r="P102" t="n">
         <v>0</v>
       </c>
     </row>
